--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -476,47 +476,47 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>before_closest_residue</t>
+          <t>contributing_ion</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closest_residue</t>
+          <t>contrib_force</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>next_closest_residue</t>
+          <t>contrib_magnitude</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>contributing_ion</t>
+          <t>contrib_distance</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>contrib_force</t>
+          <t>contrib_cosine_with_motion</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>contrib_magnitude</t>
+          <t>contrib_motion_component</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>contrib_distance</t>
+          <t>contrib_before_closest_residue</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>contrib_cosine_with_motion</t>
+          <t>contrib_closest_residue</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>contrib_motion_component</t>
+          <t>contrib_next_closest_residue</t>
         </is>
       </c>
     </row>
@@ -550,32 +550,28 @@
         <v>-3.706376194953918</v>
       </c>
       <c r="I2" t="n">
-        <v>130</v>
-      </c>
-      <c r="J2" t="n">
-        <v>130</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>1460</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[-0.20382902026176453, 0.20456770062446594, -2.015981435775757]</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2.036559581756592</v>
+      </c>
       <c r="L2" t="n">
-        <v>1460</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[-0.20382902026176453, 0.20456770062446594, -2.015981435775757]</t>
-        </is>
+        <v>12.76792907714844</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9608440200018359</v>
       </c>
       <c r="N2" t="n">
-        <v>2.036559581756592</v>
-      </c>
-      <c r="O2" t="n">
-        <v>12.76792907714844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.9608440200018359</v>
-      </c>
-      <c r="Q2" t="n">
         <v>1.956816197649512</v>
       </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,31 +603,33 @@
         <v>-3.706376194953918</v>
       </c>
       <c r="I3" t="n">
-        <v>130</v>
-      </c>
-      <c r="J3" t="n">
-        <v>130</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>1313</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[-0.30617839097976685, 1.9138059616088867, -1.6903947591781616]</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2.571737289428711</v>
+      </c>
       <c r="L3" t="n">
-        <v>1313</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[-0.30617839097976685, 1.9138059616088867, -1.6903947591781616]</t>
-        </is>
+        <v>11.36202526092529</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5263554506137853</v>
       </c>
       <c r="N3" t="n">
-        <v>2.571737289428711</v>
+        <v>1.35364796253652</v>
       </c>
       <c r="O3" t="n">
-        <v>11.36202526092529</v>
+        <v>780</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5263554506137853</v>
+        <v>780</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.35364796253652</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4">
@@ -664,32 +662,28 @@
         <v>-9.397506475448608</v>
       </c>
       <c r="I4" t="n">
-        <v>455</v>
-      </c>
-      <c r="J4" t="n">
-        <v>780</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>1316</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0.4411103129386902, 0.020791510120034218, -1.5011932849884033]</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1.564797759056091</v>
+      </c>
       <c r="L4" t="n">
-        <v>1316</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0.4411103129386902, 0.020791510120034218, -1.5011932849884033]</t>
-        </is>
+        <v>14.5659875869751</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6923382640351051</v>
       </c>
       <c r="N4" t="n">
-        <v>1.564797759056091</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14.5659875869751</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6923382640351051</v>
-      </c>
-      <c r="Q4" t="n">
         <v>1.083369330272755</v>
       </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -721,32 +715,28 @@
         <v>-9.397506475448608</v>
       </c>
       <c r="I5" t="n">
-        <v>455</v>
-      </c>
-      <c r="J5" t="n">
-        <v>780</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>1387</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[1.0603179931640625, 0.020274614915251732, -2.5148849487304688]</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>2.729346513748169</v>
+      </c>
       <c r="L5" t="n">
-        <v>1387</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[1.0603179931640625, 0.020274614915251732, -2.5148849487304688]</t>
-        </is>
+        <v>11.02909088134766</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6062964219064304</v>
       </c>
       <c r="N5" t="n">
-        <v>2.729346513748169</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11.02909088134766</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6062964219064304</v>
-      </c>
-      <c r="Q5" t="n">
         <v>1.654792938780372</v>
       </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -778,32 +768,28 @@
         <v>-9.397506475448608</v>
       </c>
       <c r="I6" t="n">
-        <v>455</v>
-      </c>
-      <c r="J6" t="n">
-        <v>780</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>1460</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[3.8352208137512207, 0.3034936487674713, -5.381428241729736]</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>6.615194320678711</v>
+      </c>
       <c r="L6" t="n">
-        <v>1460</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[3.8352208137512207, 0.3034936487674713, -5.381428241729736]</t>
-        </is>
+        <v>7.084312915802002</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4203375156977876</v>
       </c>
       <c r="N6" t="n">
-        <v>6.615194320678711</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7.084312915802002</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.4203375156977876</v>
-      </c>
-      <c r="Q6" t="n">
         <v>2.780614381738402</v>
       </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -835,32 +821,28 @@
         <v>-4.168585538864136</v>
       </c>
       <c r="I7" t="n">
-        <v>780</v>
-      </c>
-      <c r="J7" t="n">
-        <v>130</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>1320</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[-0.10016888380050659, -0.04445159435272217, -1.7664031982421875]</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1.769799470901489</v>
+      </c>
       <c r="L7" t="n">
-        <v>1320</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[-0.10016888380050659, -0.04445159435272217, -1.7664031982421875]</t>
-        </is>
+        <v>13.69641876220703</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9641559088449246</v>
       </c>
       <c r="N7" t="n">
-        <v>1.769799470901489</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13.69641876220703</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.9641559088449246</v>
-      </c>
-      <c r="Q7" t="n">
         <v>1.706362574051698</v>
       </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -892,31 +874,33 @@
         <v>-4.168585538864136</v>
       </c>
       <c r="I8" t="n">
-        <v>780</v>
-      </c>
-      <c r="J8" t="n">
-        <v>130</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>1308</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[1.0612798929214478, 1.444498062133789, -2.4021823406219482]</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2.99722695350647</v>
+      </c>
       <c r="L8" t="n">
-        <v>1308</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[1.0612798929214478, 1.444498062133789, -2.4021823406219482]</t>
-        </is>
+        <v>10.52468776702881</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.9051742631942796</v>
       </c>
       <c r="N8" t="n">
-        <v>2.99722695350647</v>
+        <v>2.713012736925825</v>
       </c>
       <c r="O8" t="n">
-        <v>10.52468776702881</v>
+        <v>1073</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9051742631942796</v>
+        <v>1073</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.713012736925825</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9">
@@ -949,32 +933,28 @@
         <v>-4.317601203918457</v>
       </c>
       <c r="I9" t="n">
-        <v>130</v>
-      </c>
-      <c r="J9" t="n">
-        <v>130</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>1316</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[-0.3461155891418457, 0.052372146397829056, -2.328737497329712]</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>2.35490083694458</v>
+      </c>
       <c r="L9" t="n">
-        <v>1316</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[-0.3461155891418457, 0.052372146397829056, -2.328737497329712]</t>
-        </is>
+        <v>11.87360858917236</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9966853552791446</v>
       </c>
       <c r="N9" t="n">
-        <v>2.35490083694458</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11.87360858917236</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.9966853552791446</v>
-      </c>
-      <c r="Q9" t="n">
         <v>2.347095012760431</v>
       </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1006,31 +986,33 @@
         <v>-4.317601203918457</v>
       </c>
       <c r="I10" t="n">
-        <v>130</v>
-      </c>
-      <c r="J10" t="n">
-        <v>130</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>1460</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[0.46047669649124146, 1.5771710872650146, -1.9888637065887451]</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2.579745531082153</v>
+      </c>
       <c r="L10" t="n">
-        <v>1460</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>[0.46047669649124146, 1.5771710872650146, -1.9888637065887451]</t>
-        </is>
+        <v>11.34437656402588</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7267480067537534</v>
       </c>
       <c r="N10" t="n">
-        <v>2.579745531082153</v>
+        <v>1.874824819083032</v>
       </c>
       <c r="O10" t="n">
-        <v>11.34437656402588</v>
+        <v>1073</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7267480067537534</v>
+        <v>1073</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.874824819083032</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="11">
@@ -1063,32 +1045,28 @@
         <v>-9.935503959655762</v>
       </c>
       <c r="I11" t="n">
-        <v>130</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>1320</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[-0.1475171595811844, -0.04048118740320206, -2.020209789276123]</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>2.02599310874939</v>
+      </c>
       <c r="L11" t="n">
-        <v>1320</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[-0.1475171595811844, -0.04048118740320206, -2.020209789276123]</t>
-        </is>
+        <v>12.80118179321289</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9871697615720927</v>
       </c>
       <c r="N11" t="n">
-        <v>2.02599310874939</v>
-      </c>
-      <c r="O11" t="n">
-        <v>12.80118179321289</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.9871697615720927</v>
-      </c>
-      <c r="Q11" t="n">
         <v>1.999999025670778</v>
       </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1120,31 +1098,33 @@
         <v>-9.935503959655762</v>
       </c>
       <c r="I12" t="n">
-        <v>130</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>1308</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[1.8541682958602905, 1.3925756216049194, -2.6088037490844727]</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>3.490424633026123</v>
+      </c>
       <c r="L12" t="n">
-        <v>1308</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>[1.8541682958602905, 1.3925756216049194, -2.6088037490844727]</t>
-        </is>
+        <v>9.752813339233398</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7898546750614521</v>
       </c>
       <c r="N12" t="n">
-        <v>3.490424633026123</v>
+        <v>2.756928193262113</v>
       </c>
       <c r="O12" t="n">
-        <v>9.752813339233398</v>
+        <v>1073</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7898546750614521</v>
+        <v>1073</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.756928193262113</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13">
@@ -1177,31 +1157,33 @@
         <v>-9.935503959655762</v>
       </c>
       <c r="I13" t="n">
+        <v>1460</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[-3.4404945373535156, 0.21569806337356567, -5.306490421295166]</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>6.327904224395752</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.243343830108643</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7884745401546881</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.989391188704489</v>
+      </c>
+      <c r="O13" t="n">
         <v>130</v>
       </c>
-      <c r="J13" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1460</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>[-3.4404945373535156, 0.21569806337356567, -5.306490421295166]</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>6.327904224395752</v>
-      </c>
-      <c r="O13" t="n">
-        <v>7.243343830108643</v>
-      </c>
       <c r="P13" t="n">
-        <v>0.7884745401546881</v>
+        <v>780</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.989391188704489</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14">
@@ -1234,32 +1216,28 @@
         <v>-12.93161725997925</v>
       </c>
       <c r="I14" t="n">
-        <v>780</v>
-      </c>
-      <c r="J14" t="n">
-        <v>130</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>1403</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[-0.3197493553161621, 0.288761705160141, -2.3088576793670654]</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2.348711729049683</v>
+      </c>
       <c r="L14" t="n">
-        <v>1403</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[-0.3197493553161621, 0.288761705160141, -2.3088576793670654]</t>
-        </is>
+        <v>11.88924217224121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9125800371947513</v>
       </c>
       <c r="N14" t="n">
-        <v>2.348711729049683</v>
-      </c>
-      <c r="O14" t="n">
-        <v>11.88924217224121</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.9125800371947513</v>
-      </c>
-      <c r="Q14" t="n">
         <v>2.143387431225561</v>
       </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1291,31 +1269,33 @@
         <v>-12.93161725997925</v>
       </c>
       <c r="I15" t="n">
-        <v>780</v>
-      </c>
-      <c r="J15" t="n">
+        <v>1309</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[-2.9148778915405273, -2.9359593391418457, -3.625190496444702]</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>5.50076150894165</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.768866062164307</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.662242245518847</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.642836612869096</v>
+      </c>
+      <c r="O15" t="n">
         <v>130</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1309</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>[-2.9148778915405273, -2.9359593391418457, -3.625190496444702]</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>5.50076150894165</v>
-      </c>
-      <c r="O15" t="n">
-        <v>7.768866062164307</v>
-      </c>
       <c r="P15" t="n">
-        <v>0.662242245518847</v>
+        <v>455</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.642836612869096</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -1348,31 +1328,33 @@
         <v>-12.93161725997925</v>
       </c>
       <c r="I16" t="n">
+        <v>1320</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[-1.0187950134277344, 6.049768924713135, -6.9975690841674805]</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>9.306106567382812</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.972897052764893</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5940372062105592</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.528173576817856</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1073</v>
+      </c>
+      <c r="P16" t="n">
         <v>780</v>
       </c>
-      <c r="J16" t="n">
-        <v>130</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1320</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>[-1.0187950134277344, 6.049768924713135, -6.9975690841674805]</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>9.306106567382812</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5.972897052764893</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.5940372062105592</v>
-      </c>
       <c r="Q16" t="n">
-        <v>5.528173576817856</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17">
@@ -1405,32 +1387,28 @@
         <v>-8.384076476097107</v>
       </c>
       <c r="I17" t="n">
-        <v>130</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>2436</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[-0.5522236227989197, -0.3873722553253174, -3.264085531234741]</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>3.333055973052979</v>
+      </c>
       <c r="L17" t="n">
-        <v>2436</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>[-0.5522236227989197, -0.3873722553253174, -3.264085531234741]</t>
-        </is>
+        <v>9.980395317077637</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.9801603900444591</v>
       </c>
       <c r="N17" t="n">
-        <v>3.333055973052979</v>
-      </c>
-      <c r="O17" t="n">
-        <v>9.980395317077637</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.9801603900444591</v>
-      </c>
-      <c r="Q17" t="n">
         <v>3.266929505737479</v>
       </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1462,31 +1440,33 @@
         <v>-8.384076476097107</v>
       </c>
       <c r="I18" t="n">
-        <v>130</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>1469</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[2.148010492324829, 3.888089656829834, -3.9567387104034424]</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>5.948694705963135</v>
+      </c>
       <c r="L18" t="n">
-        <v>1469</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>[2.148010492324829, 3.888089656829834, -3.9567387104034424]</t>
-        </is>
+        <v>7.470646381378174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5814498537782196</v>
       </c>
       <c r="N18" t="n">
-        <v>5.948694705963135</v>
+        <v>3.458867802443283</v>
       </c>
       <c r="O18" t="n">
-        <v>7.470646381378174</v>
+        <v>1073</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5814498537782196</v>
+        <v>1073</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.458867802443283</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19">
@@ -1519,31 +1499,33 @@
         <v>-8.384076476097107</v>
       </c>
       <c r="I19" t="n">
-        <v>130</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>1309</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[-0.98553866147995, -3.2337822914123535, -1.1632522344589233]</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>3.575162887573242</v>
+      </c>
       <c r="L19" t="n">
-        <v>1309</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>[-0.98553866147995, -3.2337822914123535, -1.1632522344589233]</t>
-        </is>
+        <v>9.636539459228516</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4362069520366343</v>
       </c>
       <c r="N19" t="n">
-        <v>3.575162887573242</v>
+        <v>1.559510933663953</v>
       </c>
       <c r="O19" t="n">
-        <v>9.636539459228516</v>
+        <v>423</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4362069520366343</v>
+        <v>455</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.559510933663953</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1576,32 +1558,28 @@
         <v>-13.13253748416901</v>
       </c>
       <c r="I20" t="n">
-        <v>780</v>
-      </c>
-      <c r="J20" t="n">
-        <v>780</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>1380</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[0.2080385684967041, -0.2713145911693573, -4.193719387054443]</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>4.207633018493652</v>
+      </c>
       <c r="L20" t="n">
-        <v>1380</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[0.2080385684967041, -0.2713145911693573, -4.193719387054443]</t>
-        </is>
+        <v>8.882804870605469</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9959551528948135</v>
       </c>
       <c r="N20" t="n">
-        <v>4.207633018493652</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8.882804870605469</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.9959551528948135</v>
-      </c>
-      <c r="Q20" t="n">
         <v>4.190613588897197</v>
       </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1633,32 +1611,28 @@
         <v>-13.13253748416901</v>
       </c>
       <c r="I21" t="n">
-        <v>780</v>
-      </c>
-      <c r="J21" t="n">
-        <v>780</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>1476</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[0.016993116587400436, -0.13155724108219147, -1.6357070207595825]</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1.641076922416687</v>
+      </c>
       <c r="L21" t="n">
-        <v>1476</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[0.016993116587400436, -0.13155724108219147, -1.6357070207595825]</t>
-        </is>
+        <v>14.22343730926514</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9924739774005474</v>
       </c>
       <c r="N21" t="n">
-        <v>1.641076922416687</v>
-      </c>
-      <c r="O21" t="n">
-        <v>14.22343730926514</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.9924739774005474</v>
-      </c>
-      <c r="Q21" t="n">
         <v>1.628726160418765</v>
       </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1690,31 +1664,33 @@
         <v>-13.13253748416901</v>
       </c>
       <c r="I22" t="n">
-        <v>780</v>
-      </c>
-      <c r="J22" t="n">
-        <v>780</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>2443</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[2.2294209003448486, 1.050384759902954, -2.2944509983062744]</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>3.367214202880859</v>
+      </c>
       <c r="L22" t="n">
-        <v>2443</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>[2.2294209003448486, 1.050384759902954, -2.2944509983062744]</t>
-        </is>
+        <v>9.929643630981445</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7394171236063281</v>
       </c>
       <c r="N22" t="n">
-        <v>3.367214202880859</v>
+        <v>2.489775795474349</v>
       </c>
       <c r="O22" t="n">
-        <v>9.929643630981445</v>
+        <v>1073</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7394171236063281</v>
+        <v>1073</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.489775795474349</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="23">
@@ -1747,31 +1723,33 @@
         <v>-13.13253748416901</v>
       </c>
       <c r="I23" t="n">
-        <v>780</v>
-      </c>
-      <c r="J23" t="n">
-        <v>780</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>1469</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[-2.146965980529785, 2.0441834926605225, -3.3131890296936035]</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>4.445826053619385</v>
+      </c>
       <c r="L23" t="n">
-        <v>1469</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>[-2.146965980529785, 2.0441834926605225, -3.3131890296936035]</t>
-        </is>
+        <v>8.641572952270508</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7117443378488206</v>
       </c>
       <c r="N23" t="n">
-        <v>4.445826053619385</v>
+        <v>3.164291626438311</v>
       </c>
       <c r="O23" t="n">
-        <v>8.641572952270508</v>
+        <v>748</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7117443378488206</v>
+        <v>748</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.164291626438311</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24">
@@ -1804,31 +1782,33 @@
         <v>-13.13253748416901</v>
       </c>
       <c r="I24" t="n">
-        <v>780</v>
-      </c>
-      <c r="J24" t="n">
-        <v>780</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>2434</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[-0.8504688143730164, -1.9593597650527954, -1.6954710483551025]</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2.727088212966919</v>
+      </c>
       <c r="L24" t="n">
-        <v>2434</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>[-0.8504688143730164, -1.9593597650527954, -1.6954710483551025]</t>
-        </is>
+        <v>11.03365612030029</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5800045390704807</v>
       </c>
       <c r="N24" t="n">
-        <v>2.727088212966919</v>
+        <v>1.581723525763827</v>
       </c>
       <c r="O24" t="n">
-        <v>11.03365612030029</v>
+        <v>423</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5800045390704807</v>
+        <v>423</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.581723525763827</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25">
@@ -1861,32 +1841,28 @@
         <v>-5.696695804595947</v>
       </c>
       <c r="I25" t="n">
-        <v>130</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>1469</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[-0.1614212542772293, -0.08120483160018921, -1.773813009262085]</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1.782992839813232</v>
+      </c>
       <c r="L25" t="n">
-        <v>1469</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>[-0.1614212542772293, -0.08120483160018921, -1.773813009262085]</t>
-        </is>
+        <v>13.64564990997314</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8615170809308654</v>
       </c>
       <c r="N25" t="n">
-        <v>1.782992839813232</v>
-      </c>
-      <c r="O25" t="n">
-        <v>13.64564990997314</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.8615170809308654</v>
-      </c>
-      <c r="Q25" t="n">
         <v>1.536078827991297</v>
       </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1918,31 +1894,33 @@
         <v>-5.696695804595947</v>
       </c>
       <c r="I26" t="n">
-        <v>130</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>1320</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[1.4149909019470215, 1.8132896423339844, -2.7240469455718994]</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>3.565199851989746</v>
+      </c>
       <c r="L26" t="n">
-        <v>1320</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>[1.4149909019470215, 1.8132896423339844, -2.7240469455718994]</t>
-        </is>
+        <v>9.649994850158691</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7856163304683783</v>
       </c>
       <c r="N26" t="n">
-        <v>3.565199851989746</v>
+        <v>2.800879264400677</v>
       </c>
       <c r="O26" t="n">
-        <v>9.649994850158691</v>
+        <v>1073</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7856163304683783</v>
+        <v>1073</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.800879264400677</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="27">
@@ -1975,31 +1953,33 @@
         <v>-5.696695804595947</v>
       </c>
       <c r="I27" t="n">
-        <v>130</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>1309</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[-0.5008364319801331, -1.207638144493103, -1.198835849761963]</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1.773819088935852</v>
+      </c>
       <c r="L27" t="n">
-        <v>1309</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>[-0.5008364319801331, -1.207638144493103, -1.198835849761963]</t>
-        </is>
+        <v>13.6808910369873</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5783594576891403</v>
       </c>
       <c r="N27" t="n">
-        <v>1.773819088935852</v>
+        <v>1.025905087729987</v>
       </c>
       <c r="O27" t="n">
-        <v>13.6808910369873</v>
+        <v>423</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5783594576891403</v>
+        <v>423</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.025905087729987</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28">
@@ -2032,32 +2012,28 @@
         <v>-9.122485280036926</v>
       </c>
       <c r="I28" t="n">
-        <v>455</v>
-      </c>
-      <c r="J28" t="n">
-        <v>780</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>1476</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[0.1602437049150467, -0.41130489110946655, -2.2435944080352783]</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>2.286605596542358</v>
+      </c>
       <c r="L28" t="n">
-        <v>1476</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>[0.1602437049150467, -0.41130489110946655, -2.2435944080352783]</t>
-        </is>
+        <v>12.04962158203125</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9846391368009837</v>
       </c>
       <c r="N28" t="n">
-        <v>2.286605596542358</v>
-      </c>
-      <c r="O28" t="n">
-        <v>12.04962158203125</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.9846391368009837</v>
-      </c>
-      <c r="Q28" t="n">
         <v>2.251481462417558</v>
       </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2089,31 +2065,33 @@
         <v>-9.122485280036926</v>
       </c>
       <c r="I29" t="n">
-        <v>455</v>
-      </c>
-      <c r="J29" t="n">
-        <v>780</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>2443</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[-1.3809603452682495, 1.1726969480514526, -3.275101661682129]</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>3.742801189422607</v>
+      </c>
       <c r="L29" t="n">
-        <v>2443</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>[-1.3809603452682495, 1.1726969480514526, -3.275101661682129]</t>
-        </is>
+        <v>9.418259620666504</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8389835781963815</v>
       </c>
       <c r="N29" t="n">
-        <v>3.742801189422607</v>
+        <v>3.140148707254202</v>
       </c>
       <c r="O29" t="n">
-        <v>9.418259620666504</v>
+        <v>748</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8389835781963815</v>
+        <v>748</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.140148707254202</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30">
@@ -2146,31 +2124,33 @@
         <v>-9.122485280036926</v>
       </c>
       <c r="I30" t="n">
-        <v>455</v>
-      </c>
-      <c r="J30" t="n">
-        <v>780</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>1380</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[1.6709095239639282, 0.2382316142320633, -1.9508068561553955]</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>2.579600811004639</v>
+      </c>
       <c r="L30" t="n">
-        <v>1380</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>[1.6709095239639282, 0.2382316142320633, -1.9508068561553955]</t>
-        </is>
+        <v>11.34469413757324</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8075946228968239</v>
       </c>
       <c r="N30" t="n">
-        <v>2.579600811004639</v>
+        <v>2.0832717418678</v>
       </c>
       <c r="O30" t="n">
-        <v>11.34469413757324</v>
+        <v>1073</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8075946228968239</v>
+        <v>1073</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.0832717418678</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="31">
@@ -2203,31 +2183,33 @@
         <v>-9.122485280036926</v>
       </c>
       <c r="I31" t="n">
-        <v>455</v>
-      </c>
-      <c r="J31" t="n">
-        <v>780</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>2434</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[-0.808508574962616, -1.3590866327285767, -1.6529823541641235]</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>2.287608623504639</v>
+      </c>
       <c r="L31" t="n">
-        <v>2434</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>[-0.808508574962616, -1.3590866327285767, -1.6529823541641235]</t>
-        </is>
+        <v>12.0469799041748</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6936793876693205</v>
       </c>
       <c r="N31" t="n">
-        <v>2.287608623504639</v>
+        <v>1.586866955228467</v>
       </c>
       <c r="O31" t="n">
-        <v>12.0469799041748</v>
+        <v>423</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6936793876693205</v>
+        <v>423</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.586866955228467</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32">
@@ -2260,31 +2242,33 @@
         <v>-4.841521263122559</v>
       </c>
       <c r="I32" t="n">
-        <v>130</v>
-      </c>
-      <c r="J32" t="n">
+        <v>1469</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[1.1431920528411865, 1.02493155002594, -3.420396089553833]</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>3.749197483062744</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9.410222053527832</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9928946105038673</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.722558026865098</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1073</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1105</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1469</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>[1.1431920528411865, 1.02493155002594, -3.420396089553833]</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>3.749197483062744</v>
-      </c>
-      <c r="O32" t="n">
-        <v>9.410222053527832</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.9928946105038673</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.722558026865098</v>
       </c>
     </row>
     <row r="33">
@@ -2317,32 +2301,28 @@
         <v>-4.841521263122559</v>
       </c>
       <c r="I33" t="n">
-        <v>130</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>2434</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[-0.40666353702545166, -0.174024760723114, -1.8346890211105347]</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1.887258291244507</v>
+      </c>
       <c r="L33" t="n">
-        <v>2434</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>[-0.40666353702545166, -0.174024760723114, -1.8346890211105347]</t>
-        </is>
+        <v>13.26335430145264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8407321155935801</v>
       </c>
       <c r="N33" t="n">
-        <v>1.887258291244507</v>
-      </c>
-      <c r="O33" t="n">
-        <v>13.26335430145264</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.8407321155935801</v>
-      </c>
-      <c r="Q33" t="n">
         <v>1.586678610431468</v>
       </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2374,31 +2354,33 @@
         <v>-4.841521263122559</v>
       </c>
       <c r="I34" t="n">
-        <v>130</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>1309</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[-0.640687882900238, -1.2333738803863525, -1.1129107475280762]</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1.780523061752319</v>
+      </c>
       <c r="L34" t="n">
-        <v>1309</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>[-0.640687882900238, -1.2333738803863525, -1.1129107475280762]</t>
-        </is>
+        <v>13.65511131286621</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.3095982110366685</v>
       </c>
       <c r="N34" t="n">
-        <v>1.780523061752319</v>
+        <v>0.551246759031236</v>
       </c>
       <c r="O34" t="n">
-        <v>13.65511131286621</v>
+        <v>455</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3095982110366685</v>
+        <v>423</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.551246759031236</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35">
@@ -2431,32 +2413,28 @@
         <v>-4.841521263122559</v>
       </c>
       <c r="I35" t="n">
-        <v>130</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1105</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>1320</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[-0.537470281124115, 0.01673593558371067, 1.5264745950698853]</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1.61841869354248</v>
+      </c>
       <c r="L35" t="n">
-        <v>1320</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>[-0.537470281124115, 0.01673593558371067, 1.5264745950698853]</t>
-        </is>
+        <v>14.32265758514404</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.9424075972696683</v>
       </c>
       <c r="N35" t="n">
-        <v>1.61841869354248</v>
-      </c>
-      <c r="O35" t="n">
-        <v>14.32265758514404</v>
-      </c>
-      <c r="P35" t="n">
-        <v>-0.9424075972696683</v>
-      </c>
-      <c r="Q35" t="n">
         <v>-1.525210077137657</v>
       </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2487,35 +2465,29 @@
       <c r="H36" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>130</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1443</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[-0.3812868595123291, 0.13104836642742157, -2.2599120140075684]</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>2.295594930648804</v>
+      </c>
       <c r="L36" t="n">
-        <v>1443</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>[-0.3812868595123291, 0.13104836642742157, -2.2599120140075684]</t>
-        </is>
+        <v>12.02600574493408</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9431245056930945</v>
       </c>
       <c r="N36" t="n">
-        <v>2.295594930648804</v>
-      </c>
-      <c r="O36" t="n">
-        <v>12.02600574493408</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.9431245056930945</v>
-      </c>
-      <c r="Q36" t="n">
         <v>2.165031745706639</v>
       </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2546,34 +2518,34 @@
       <c r="H37" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>130</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1380</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[1.0140454769134521, 2.1479642391204834, -2.2929553985595703]</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>3.301466703414917</v>
+      </c>
       <c r="L37" t="n">
-        <v>1380</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>[1.0140454769134521, 2.1479642391204834, -2.2929553985595703]</t>
-        </is>
+        <v>10.02802848815918</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7285433883691073</v>
       </c>
       <c r="N37" t="n">
-        <v>3.301466703414917</v>
+        <v>2.405261812377961</v>
       </c>
       <c r="O37" t="n">
-        <v>10.02802848815918</v>
+        <v>1073</v>
       </c>
       <c r="P37" t="n">
-        <v>0.7285433883691073</v>
+        <v>1073</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.405261812377961</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38">
@@ -2605,34 +2577,34 @@
       <c r="H38" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>130</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1476</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[0.008695846423506737, -2.490915298461914, -1.944529414176941]</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>3.160052061080933</v>
+      </c>
       <c r="L38" t="n">
-        <v>1476</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>[0.008695846423506737, -2.490915298461914, -1.944529414176941]</t>
-        </is>
+        <v>10.24995422363281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6158427028171367</v>
       </c>
       <c r="N38" t="n">
-        <v>3.160052061080933</v>
+        <v>1.946095027256202</v>
       </c>
       <c r="O38" t="n">
-        <v>10.24995422363281</v>
+        <v>98</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6158427028171367</v>
+        <v>98</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.946095027256202</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -2664,34 +2636,34 @@
       <c r="H39" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>130</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>2443</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[-1.4861036539077759, 1.5667755603790283, -1.6444870233535767]</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>2.714337348937988</v>
+      </c>
       <c r="L39" t="n">
-        <v>2443</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>[-1.4861036539077759, 1.5667755603790283, -1.6444870233535767]</t>
-        </is>
+        <v>11.05954170227051</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5014580409626225</v>
       </c>
       <c r="N39" t="n">
-        <v>2.714337348937988</v>
+        <v>1.36112629439639</v>
       </c>
       <c r="O39" t="n">
-        <v>11.05954170227051</v>
+        <v>748</v>
       </c>
       <c r="P39" t="n">
-        <v>0.5014580409626225</v>
+        <v>748</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.36112629439639</v>
+        <v>748</v>
       </c>
     </row>
     <row r="40">
@@ -2723,34 +2695,34 @@
       <c r="H40" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
+      <c r="I40" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[-3.9302902221679688, 0.5823214054107666, -2.16516375541687]</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>4.524844169616699</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.565786361694336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.327899531567316</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.483694239359939</v>
+      </c>
+      <c r="O40" t="n">
         <v>130</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1355</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>[-3.9302902221679688, 0.5823214054107666, -2.16516375541687]</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>4.524844169616699</v>
-      </c>
-      <c r="O40" t="n">
-        <v>8.565786361694336</v>
-      </c>
       <c r="P40" t="n">
-        <v>0.327899531567316</v>
+        <v>455</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.483694239359939</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41">
@@ -2783,31 +2755,33 @@
         <v>-7.061962246894836</v>
       </c>
       <c r="I41" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J41" t="n">
-        <v>130</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>2434</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[-0.2705686688423157, -1.578347086906433, -1.934159755706787]</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>2.511047840118408</v>
+      </c>
       <c r="L41" t="n">
-        <v>2434</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>[-0.2705686688423157, -1.578347086906433, -1.934159755706787]</t>
-        </is>
+        <v>11.49850940704346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8833188285271076</v>
       </c>
       <c r="N41" t="n">
-        <v>2.511047840118408</v>
+        <v>2.218055772580776</v>
       </c>
       <c r="O41" t="n">
-        <v>11.49850940704346</v>
+        <v>423</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8833188285271076</v>
+        <v>98</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.218055772580776</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42">
@@ -2840,32 +2814,28 @@
         <v>-7.061962246894836</v>
       </c>
       <c r="I42" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J42" t="n">
-        <v>130</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>2443</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[-0.07851993292570114, 0.13867592811584473, -1.5529817342758179]</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1.561136960983276</v>
+      </c>
       <c r="L42" t="n">
-        <v>2443</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>[-0.07851993292570114, 0.13867592811584473, -1.5529817342758179]</t>
-        </is>
+        <v>14.58305549621582</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.702195832082078</v>
       </c>
       <c r="N42" t="n">
-        <v>1.561136960983276</v>
-      </c>
-      <c r="O42" t="n">
-        <v>14.58305549621582</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.702195832082078</v>
-      </c>
-      <c r="Q42" t="n">
         <v>1.096223878320914</v>
       </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2897,31 +2867,33 @@
         <v>-7.061962246894836</v>
       </c>
       <c r="I43" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J43" t="n">
-        <v>130</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>1309</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[0.9512708783149719, 0.9681544303894043, -2.003573179244995]</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>2.420029878616333</v>
+      </c>
       <c r="L43" t="n">
-        <v>1309</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>[0.9512708783149719, 0.9681544303894043, -2.003573179244995]</t>
-        </is>
+        <v>11.71274471282959</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5720386383493259</v>
       </c>
       <c r="N43" t="n">
-        <v>2.420029878616333</v>
+        <v>1.384350614990204</v>
       </c>
       <c r="O43" t="n">
-        <v>11.71274471282959</v>
+        <v>1073</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5720386383493259</v>
+        <v>1073</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.384350614990204</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="44">
@@ -2954,31 +2926,33 @@
         <v>-7.061962246894836</v>
       </c>
       <c r="I44" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J44" t="n">
-        <v>130</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>1469</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[-1.059220314025879, 0.999154806137085, -1.5712475776672363]</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>2.142213106155396</v>
+      </c>
       <c r="L44" t="n">
-        <v>1469</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>[-1.059220314025879, 0.999154806137085, -1.5712475776672363]</t>
-        </is>
+        <v>12.44909286499023</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1418053295081253</v>
       </c>
       <c r="N44" t="n">
-        <v>2.142213106155396</v>
+        <v>0.3037772340185541</v>
       </c>
       <c r="O44" t="n">
-        <v>12.44909286499023</v>
+        <v>748</v>
       </c>
       <c r="P44" t="n">
-        <v>0.1418053295081253</v>
+        <v>748</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3037772340185541</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45">
@@ -3011,32 +2985,28 @@
         <v>-11.50406563282013</v>
       </c>
       <c r="I45" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J45" t="n">
-        <v>130</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[-0.059498030692338943, -0.12091635167598724, -1.616925835609436]</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1.62253201007843</v>
+      </c>
       <c r="L45" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>[-0.059498030692338943, -0.12091635167598724, -1.616925835609436]</t>
-        </is>
+        <v>14.30449104309082</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.9248798548251941</v>
       </c>
       <c r="N45" t="n">
-        <v>1.62253201007843</v>
-      </c>
-      <c r="O45" t="n">
-        <v>14.30449104309082</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.9248798548251941</v>
-      </c>
-      <c r="Q45" t="n">
         <v>1.500647116887409</v>
       </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3068,31 +3038,39 @@
         <v>-11.50406563282013</v>
       </c>
       <c r="I46" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J46" t="n">
-        <v>130</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>1443</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[-0.04559451341629028, -0.2811105251312256, -4.0620198249816895]</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>4.071990489959717</v>
+      </c>
       <c r="L46" t="n">
-        <v>1443</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>[-0.04559451341629028, -0.2811105251312256, -4.0620198249816895]</t>
-        </is>
+        <v>9.029541015625</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9213048386844982</v>
       </c>
       <c r="N46" t="n">
-        <v>4.071990489959717</v>
-      </c>
-      <c r="O46" t="n">
-        <v>9.029541015625</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.9213048386844982</v>
-      </c>
-      <c r="Q46" t="n">
         <v>3.751544597499391</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3125,31 +3103,33 @@
         <v>-11.50406563282013</v>
       </c>
       <c r="I47" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J47" t="n">
-        <v>130</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>1476</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[-1.0176137685775757, 2.565093994140625, -1.9819310903549194]</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>3.397542715072632</v>
+      </c>
       <c r="L47" t="n">
-        <v>1476</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>[-1.0176137685775757, 2.565093994140625, -1.9819310903549194]</t>
-        </is>
+        <v>9.885225296020508</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8096458300429167</v>
       </c>
       <c r="N47" t="n">
-        <v>3.397542715072632</v>
+        <v>2.750806211455885</v>
       </c>
       <c r="O47" t="n">
-        <v>9.885225296020508</v>
+        <v>780</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8096458300429167</v>
+        <v>748</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.750806211455885</v>
+        <v>748</v>
       </c>
     </row>
     <row r="48">
@@ -3182,31 +3162,33 @@
         <v>-11.50406563282013</v>
       </c>
       <c r="I48" t="n">
+        <v>1380</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[2.384357213973999, 0.7816745042800903, -2.3590643405914307]</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>3.444032430648804</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9.818280220031738</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5399165510412918</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.859490075115747</v>
+      </c>
+      <c r="O48" t="n">
         <v>1105</v>
       </c>
-      <c r="J48" t="n">
-        <v>130</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1380</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>[2.384357213973999, 0.7816745042800903, -2.3590643405914307]</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>3.444032430648804</v>
-      </c>
-      <c r="O48" t="n">
-        <v>9.818280220031738</v>
-      </c>
       <c r="P48" t="n">
-        <v>0.5399165510412918</v>
+        <v>1073</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.859490075115747</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49">
@@ -3239,31 +3221,33 @@
         <v>-11.50406563282013</v>
       </c>
       <c r="I49" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J49" t="n">
-        <v>130</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>1355</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[-0.5657582879066467, -1.950833797454834, -1.4841245412826538]</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>2.515643119812012</v>
+      </c>
       <c r="L49" t="n">
-        <v>1355</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>[-0.5657582879066467, -1.950833797454834, -1.4841245412826538]</t>
-        </is>
+        <v>11.48800277709961</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.4082531766189131</v>
       </c>
       <c r="N49" t="n">
-        <v>2.515643119812012</v>
+        <v>1.027019318710666</v>
       </c>
       <c r="O49" t="n">
-        <v>11.48800277709961</v>
+        <v>423</v>
       </c>
       <c r="P49" t="n">
-        <v>0.4082531766189131</v>
+        <v>423</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.027019318710666</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
@@ -3296,32 +3280,28 @@
         <v>-13.42748379707336</v>
       </c>
       <c r="I50" t="n">
-        <v>780</v>
-      </c>
-      <c r="J50" t="n">
-        <v>130</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[-0.20322829484939575, -0.07535362988710403, -2.3830111026763916]</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>2.392848014831543</v>
+      </c>
       <c r="L50" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>[-0.20322829484939575, -0.07535362988710403, -2.3830111026763916]</t>
-        </is>
+        <v>11.77908325195312</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9564243084235104</v>
       </c>
       <c r="N50" t="n">
-        <v>2.392848014831543</v>
-      </c>
-      <c r="O50" t="n">
-        <v>11.77908325195312</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.9564243084235104</v>
-      </c>
-      <c r="Q50" t="n">
         <v>2.288578048269589</v>
       </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3353,31 +3333,33 @@
         <v>-13.42748379707336</v>
       </c>
       <c r="I51" t="n">
-        <v>780</v>
-      </c>
-      <c r="J51" t="n">
+        <v>1476</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[-2.4396185874938965, -1.8853956460952759, -4.237017631530762]</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>5.2401123046875</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.959737300872803</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8284110096263232</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.340966490822918</v>
+      </c>
+      <c r="O51" t="n">
         <v>130</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1476</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>[-2.4396185874938965, -1.8853956460952759, -4.237017631530762]</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>5.2401123046875</v>
-      </c>
-      <c r="O51" t="n">
-        <v>7.959737300872803</v>
-      </c>
       <c r="P51" t="n">
-        <v>0.8284110096263232</v>
+        <v>455</v>
       </c>
       <c r="Q51" t="n">
-        <v>4.340966490822918</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52">
@@ -3410,31 +3392,35 @@
         <v>-13.42748379707336</v>
       </c>
       <c r="I52" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[-3.233201503753662, 1.434584140777588, -6.807455062866211]</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>7.671575546264648</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.578498363494873</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7633218090981325</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5.855880760021908</v>
+      </c>
+      <c r="O52" t="n">
+        <v>130</v>
+      </c>
+      <c r="P52" t="n">
         <v>780</v>
       </c>
-      <c r="J52" t="n">
-        <v>130</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1355</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>[-3.233201503753662, 1.434584140777588, -6.807455062866211]</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>7.671575546264648</v>
-      </c>
-      <c r="O52" t="n">
-        <v>6.578498363494873</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.7633218090981325</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5.855880760021908</v>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3467,31 +3453,33 @@
         <v>-8.854763507843018</v>
       </c>
       <c r="I53" t="n">
+        <v>1341</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[-2.268233299255371, 0.35912325978279114, -2.317638874053955]</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>3.26271390914917</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10.08740711212158</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7454743138650441</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.432269379989446</v>
+      </c>
+      <c r="O53" t="n">
+        <v>780</v>
+      </c>
+      <c r="P53" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q53" t="n">
         <v>455</v>
-      </c>
-      <c r="J53" t="n">
-        <v>130</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1341</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>[-2.268233299255371, 0.35912325978279114, -2.317638874053955]</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>3.26271390914917</v>
-      </c>
-      <c r="O53" t="n">
-        <v>10.08740711212158</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.7454743138650441</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.432269379989446</v>
       </c>
     </row>
     <row r="54">
@@ -3524,32 +3512,28 @@
         <v>-8.854763507843018</v>
       </c>
       <c r="I54" t="n">
-        <v>455</v>
-      </c>
-      <c r="J54" t="n">
-        <v>130</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>1330</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[-0.19868579506874084, -0.18994195759296417, -1.8839623928070068]</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1.903908610343933</v>
+      </c>
       <c r="L54" t="n">
-        <v>1330</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>[-0.19868579506874084, -0.18994195759296417, -1.8839623928070068]</t>
-        </is>
+        <v>13.20523071289062</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6733983108701571</v>
       </c>
       <c r="N54" t="n">
-        <v>1.903908610343933</v>
-      </c>
-      <c r="O54" t="n">
-        <v>13.20523071289062</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.6733983108701571</v>
-      </c>
-      <c r="Q54" t="n">
         <v>1.282088894140918</v>
       </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3581,31 +3565,33 @@
         <v>-8.854763507843018</v>
       </c>
       <c r="I55" t="n">
-        <v>455</v>
-      </c>
-      <c r="J55" t="n">
-        <v>130</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[1.6464307308197021, 0.5983303785324097, -2.400447130203247]</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>2.9716796875</v>
+      </c>
       <c r="L55" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>[1.6464307308197021, 0.5983303785324097, -2.400447130203247]</t>
-        </is>
+        <v>10.56983089447021</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5861742337508992</v>
       </c>
       <c r="N55" t="n">
-        <v>2.9716796875</v>
+        <v>1.741922029556168</v>
       </c>
       <c r="O55" t="n">
-        <v>10.56983089447021</v>
+        <v>1073</v>
       </c>
       <c r="P55" t="n">
-        <v>0.5861742337508992</v>
+        <v>1073</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.741922029556168</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="56">
@@ -3638,31 +3624,33 @@
         <v>-8.854763507843018</v>
       </c>
       <c r="I56" t="n">
-        <v>455</v>
-      </c>
-      <c r="J56" t="n">
-        <v>130</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>1355</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[0.4079889953136444, -2.1761250495910645, -2.2527151107788086]</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>3.158591508865356</v>
+      </c>
       <c r="L56" t="n">
-        <v>1355</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>[0.4079889953136444, -2.1761250495910645, -2.2527151107788086]</t>
-        </is>
+        <v>10.25232315063477</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.03562404632689124</v>
       </c>
       <c r="N56" t="n">
-        <v>3.158591508865356</v>
+        <v>0.1125218119437741</v>
       </c>
       <c r="O56" t="n">
-        <v>10.25232315063477</v>
+        <v>98</v>
       </c>
       <c r="P56" t="n">
-        <v>0.03562404632689124</v>
+        <v>98</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.1125218119437741</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
@@ -3695,32 +3683,28 @@
         <v>-11.2671914100647</v>
       </c>
       <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>130</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>1465</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[-0.2258387804031372, 0.05245503783226013, -2.232218027114868]</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>2.244226455688477</v>
+      </c>
       <c r="L57" t="n">
-        <v>1465</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>[-0.2258387804031372, 0.05245503783226013, -2.232218027114868]</t>
-        </is>
+        <v>12.16285991668701</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.9439029619984107</v>
       </c>
       <c r="N57" t="n">
-        <v>2.244226455688477</v>
-      </c>
-      <c r="O57" t="n">
-        <v>12.16285991668701</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.9439029619984107</v>
-      </c>
-      <c r="Q57" t="n">
         <v>2.118331919405112</v>
       </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3752,31 +3736,33 @@
         <v>-11.2671914100647</v>
       </c>
       <c r="I58" t="n">
-        <v>130</v>
-      </c>
-      <c r="J58" t="n">
-        <v>130</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>1330</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[-2.0129354000091553, -1.6208391189575195, -2.2622406482696533]</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>3.434641361236572</v>
+      </c>
       <c r="L58" t="n">
-        <v>1330</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>[-2.0129354000091553, -1.6208391189575195, -2.2622406482696533]</t>
-        </is>
+        <v>9.831693649291992</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7920236106872338</v>
       </c>
       <c r="N58" t="n">
-        <v>3.434641361236572</v>
+        <v>2.720317034415509</v>
       </c>
       <c r="O58" t="n">
-        <v>9.831693649291992</v>
+        <v>423</v>
       </c>
       <c r="P58" t="n">
-        <v>0.7920236106872338</v>
+        <v>423</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.720317034415509</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59">
@@ -3809,31 +3795,33 @@
         <v>-11.2671914100647</v>
       </c>
       <c r="I59" t="n">
-        <v>130</v>
-      </c>
-      <c r="J59" t="n">
-        <v>130</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>1341</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[-2.0574705600738525, 2.4868741035461426, -4.053411483764648]</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>5.181493282318115</v>
+      </c>
       <c r="L59" t="n">
-        <v>1341</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>[-2.0574705600738525, 2.4868741035461426, -4.053411483764648]</t>
-        </is>
+        <v>8.004635810852051</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6144743457533566</v>
       </c>
       <c r="N59" t="n">
-        <v>5.181493282318115</v>
+        <v>3.183894690792016</v>
       </c>
       <c r="O59" t="n">
-        <v>8.004635810852051</v>
+        <v>780</v>
       </c>
       <c r="P59" t="n">
-        <v>0.6144743457533566</v>
+        <v>780</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.183894690792016</v>
+        <v>780</v>
       </c>
     </row>
     <row r="60">
@@ -3866,31 +3854,33 @@
         <v>-11.2671914100647</v>
       </c>
       <c r="I60" t="n">
-        <v>130</v>
-      </c>
-      <c r="J60" t="n">
-        <v>130</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[1.9448966979980469, 1.4587265253067017, -2.7193212509155273]</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>3.647631168365479</v>
+      </c>
       <c r="L60" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>[1.9448966979980469, 1.4587265253067017, -2.7193212509155273]</t>
-        </is>
+        <v>9.54033374786377</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.5689591620950232</v>
       </c>
       <c r="N60" t="n">
-        <v>3.647631168365479</v>
+        <v>2.075353264181299</v>
       </c>
       <c r="O60" t="n">
-        <v>9.54033374786377</v>
+        <v>1073</v>
       </c>
       <c r="P60" t="n">
-        <v>0.5689591620950232</v>
+        <v>1073</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.075353264181299</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="61">
@@ -3923,32 +3913,28 @@
         <v>-11.03928828239441</v>
       </c>
       <c r="I61" t="n">
-        <v>130</v>
-      </c>
-      <c r="J61" t="n">
-        <v>780</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[-0.1917954683303833, -0.1543402522802353, -2.0611162185668945]</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>2.075766563415527</v>
+      </c>
       <c r="L61" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[-0.1917954683303833, -0.1543402522802353, -2.0611162185668945]</t>
-        </is>
+        <v>12.6467752456665</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9974005113928808</v>
       </c>
       <c r="N61" t="n">
-        <v>2.075766563415527</v>
-      </c>
-      <c r="O61" t="n">
-        <v>12.6467752456665</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0.9974005113928808</v>
-      </c>
-      <c r="Q61" t="n">
         <v>2.070370549187257</v>
       </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3980,31 +3966,33 @@
         <v>-11.03928828239441</v>
       </c>
       <c r="I62" t="n">
-        <v>130</v>
-      </c>
-      <c r="J62" t="n">
-        <v>780</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>1380</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[2.4541378021240234, 0.7991290092468262, -2.9831364154815674]</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>3.944680452346802</v>
+      </c>
       <c r="L62" t="n">
-        <v>1380</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[2.4541378021240234, 0.7991290092468262, -2.9831364154815674]</t>
-        </is>
+        <v>9.174093246459961</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.6737391249781851</v>
       </c>
       <c r="N62" t="n">
-        <v>3.944680452346802</v>
+        <v>2.657685430531701</v>
       </c>
       <c r="O62" t="n">
-        <v>9.174093246459961</v>
+        <v>1073</v>
       </c>
       <c r="P62" t="n">
-        <v>0.6737391249781851</v>
+        <v>1073</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.657685430531701</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="63">
@@ -4037,31 +4025,33 @@
         <v>-11.03928828239441</v>
       </c>
       <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
+        <v>1476</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>[-0.9842002391815186, 4.096344470977783, -3.72086238861084]</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>5.620810031890869</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.685455322265625</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6723321513669531</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.779051279401563</v>
+      </c>
+      <c r="O63" t="n">
         <v>780</v>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1476</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[-0.9842002391815186, 4.096344470977783, -3.72086238861084]</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>5.620810031890869</v>
-      </c>
-      <c r="O63" t="n">
-        <v>7.685455322265625</v>
-      </c>
       <c r="P63" t="n">
-        <v>0.6723321513669531</v>
+        <v>780</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.779051279401563</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64">
@@ -4094,31 +4084,33 @@
         <v>-11.03928828239441</v>
       </c>
       <c r="I64" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[-0.14370736479759216, -3.0303430557250977, -2.2741732597351074]</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>3.791502952575684</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9.357575416564941</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.6064895139892793</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.299506800430802</v>
+      </c>
+      <c r="O64" t="n">
+        <v>98</v>
+      </c>
+      <c r="P64" t="n">
         <v>130</v>
       </c>
-      <c r="J64" t="n">
-        <v>780</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1355</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[-0.14370736479759216, -3.0303430557250977, -2.2741732597351074]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>3.791502952575684</v>
-      </c>
-      <c r="O64" t="n">
-        <v>9.357575416564941</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.6064895139892793</v>
-      </c>
       <c r="Q64" t="n">
-        <v>2.299506800430802</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -4151,32 +4143,28 @@
         <v>-14.48587214946747</v>
       </c>
       <c r="I65" t="n">
-        <v>780</v>
-      </c>
-      <c r="J65" t="n">
-        <v>130</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>1400</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1.992708206176758</v>
+      </c>
       <c r="L65" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
-        </is>
+        <v>12.90764999389648</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.9210984994672317</v>
       </c>
       <c r="N65" t="n">
-        <v>1.992708206176758</v>
-      </c>
-      <c r="O65" t="n">
-        <v>12.90764999389648</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.9210984994672317</v>
-      </c>
-      <c r="Q65" t="n">
         <v>1.835480567768402</v>
       </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4208,31 +4196,33 @@
         <v>-14.48587214946747</v>
       </c>
       <c r="I66" t="n">
-        <v>780</v>
-      </c>
-      <c r="J66" t="n">
-        <v>130</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>4.041954040527344</v>
+      </c>
       <c r="L66" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
-        </is>
+        <v>9.063029289245605</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7537609364506486</v>
       </c>
       <c r="N66" t="n">
-        <v>4.041954040527344</v>
+        <v>3.046666834338566</v>
       </c>
       <c r="O66" t="n">
-        <v>9.063029289245605</v>
+        <v>98</v>
       </c>
       <c r="P66" t="n">
-        <v>0.7537609364506486</v>
+        <v>98</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.046666834338566</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
@@ -4265,31 +4255,33 @@
         <v>-14.48587214946747</v>
       </c>
       <c r="I67" t="n">
-        <v>780</v>
-      </c>
-      <c r="J67" t="n">
+        <v>1330</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>5.101125717163086</v>
+      </c>
+      <c r="L67" t="n">
+        <v>8.067445755004883</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.7243454431812516</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.694977243683372</v>
+      </c>
+      <c r="O67" t="n">
         <v>130</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1330</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>5.101125717163086</v>
-      </c>
-      <c r="O67" t="n">
-        <v>8.067445755004883</v>
-      </c>
       <c r="P67" t="n">
-        <v>0.7243454431812516</v>
+        <v>98</v>
       </c>
       <c r="Q67" t="n">
-        <v>3.694977243683372</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
@@ -4322,31 +4314,33 @@
         <v>-14.48587214946747</v>
       </c>
       <c r="I68" t="n">
-        <v>780</v>
-      </c>
-      <c r="J68" t="n">
-        <v>130</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>1359</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>4.957292079925537</v>
+      </c>
       <c r="L68" t="n">
-        <v>1359</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
-        </is>
+        <v>8.183645248413086</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.6870513046227579</v>
       </c>
       <c r="N68" t="n">
-        <v>4.957292079925537</v>
+        <v>3.405914004964458</v>
       </c>
       <c r="O68" t="n">
-        <v>8.183645248413086</v>
+        <v>423</v>
       </c>
       <c r="P68" t="n">
-        <v>0.6870513046227579</v>
+        <v>455</v>
       </c>
       <c r="Q68" t="n">
-        <v>3.405914004964458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69">
@@ -4379,31 +4373,33 @@
         <v>-14.48587214946747</v>
       </c>
       <c r="I69" t="n">
+        <v>1374</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>6.448452472686768</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.175320148468018</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.3381827836470593</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.180755584088995</v>
+      </c>
+      <c r="O69" t="n">
         <v>780</v>
       </c>
-      <c r="J69" t="n">
-        <v>130</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1374</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>6.448452472686768</v>
-      </c>
-      <c r="O69" t="n">
-        <v>7.175320148468018</v>
-      </c>
       <c r="P69" t="n">
-        <v>0.3381827836470593</v>
+        <v>780</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.180755584088995</v>
+        <v>780</v>
       </c>
     </row>
     <row r="70">
@@ -4436,31 +4432,33 @@
         <v>-12.21974325180054</v>
       </c>
       <c r="I70" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J70" t="n">
-        <v>130</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>1341</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>6.475595951080322</v>
+      </c>
       <c r="L70" t="n">
-        <v>1341</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
-        </is>
+        <v>7.160265922546387</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.9712740120240915</v>
       </c>
       <c r="N70" t="n">
-        <v>6.475595951080322</v>
+        <v>6.289578334971061</v>
       </c>
       <c r="O70" t="n">
-        <v>7.160265922546387</v>
+        <v>98</v>
       </c>
       <c r="P70" t="n">
-        <v>0.9712740120240915</v>
+        <v>98</v>
       </c>
       <c r="Q70" t="n">
-        <v>6.289578334971061</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
@@ -4493,32 +4491,28 @@
         <v>-12.21974325180054</v>
       </c>
       <c r="I71" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J71" t="n">
-        <v>130</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+        <v>1359</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>2.794686794281006</v>
+      </c>
       <c r="L71" t="n">
-        <v>1359</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
-        </is>
+        <v>10.8993968963623</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7807014051662815</v>
       </c>
       <c r="N71" t="n">
-        <v>2.794686794281006</v>
-      </c>
-      <c r="O71" t="n">
-        <v>10.8993968963623</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.7807014051662815</v>
-      </c>
-      <c r="Q71" t="n">
         <v>2.181815939319726</v>
       </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4550,31 +4544,33 @@
         <v>-12.21974325180054</v>
       </c>
       <c r="I72" t="n">
-        <v>1105</v>
-      </c>
-      <c r="J72" t="n">
-        <v>130</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>1330</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>2.14094877243042</v>
+      </c>
       <c r="L72" t="n">
-        <v>1330</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
-        </is>
+        <v>12.45276832580566</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.5741840088095561</v>
       </c>
       <c r="N72" t="n">
-        <v>2.14094877243042</v>
+        <v>1.229298551084618</v>
       </c>
       <c r="O72" t="n">
-        <v>12.45276832580566</v>
+        <v>423</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5741840088095561</v>
+        <v>423</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.229298551084618</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73">
@@ -4607,31 +4603,33 @@
         <v>-12.21974325180054</v>
       </c>
       <c r="I73" t="n">
+        <v>1327</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>4.158008098602295</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8.935654640197754</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.5098471706622976</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.119948543468411</v>
+      </c>
+      <c r="O73" t="n">
         <v>1105</v>
       </c>
-      <c r="J73" t="n">
-        <v>130</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>4.158008098602295</v>
-      </c>
-      <c r="O73" t="n">
-        <v>8.935654640197754</v>
-      </c>
       <c r="P73" t="n">
-        <v>0.5098471706622976</v>
+        <v>1073</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.119948543468411</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="74">
@@ -4664,32 +4662,28 @@
         <v>-8.396152496337891</v>
       </c>
       <c r="I74" t="n">
-        <v>780</v>
-      </c>
-      <c r="J74" t="n">
-        <v>780</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>1400</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>2.49150538444519</v>
+      </c>
       <c r="L74" t="n">
-        <v>1400</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
-        </is>
+        <v>11.54351615905762</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7221021228583707</v>
       </c>
       <c r="N74" t="n">
-        <v>2.49150538444519</v>
-      </c>
-      <c r="O74" t="n">
-        <v>11.54351615905762</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.7221021228583707</v>
-      </c>
-      <c r="Q74" t="n">
         <v>1.799121459318981</v>
       </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4721,31 +4715,33 @@
         <v>-8.396152496337891</v>
       </c>
       <c r="I75" t="n">
-        <v>780</v>
-      </c>
-      <c r="J75" t="n">
-        <v>780</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+        <v>1359</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>6.928995132446289</v>
+      </c>
       <c r="L75" t="n">
-        <v>1359</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
-        </is>
+        <v>6.922037124633789</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.2548949485799148</v>
       </c>
       <c r="N75" t="n">
-        <v>6.928995132446289</v>
+        <v>1.766165779267369</v>
       </c>
       <c r="O75" t="n">
-        <v>6.922037124633789</v>
+        <v>423</v>
       </c>
       <c r="P75" t="n">
-        <v>0.2548949485799148</v>
+        <v>455</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.766165779267369</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76">
@@ -4778,31 +4774,33 @@
         <v>-8.396152496337891</v>
       </c>
       <c r="I76" t="n">
-        <v>780</v>
-      </c>
-      <c r="J76" t="n">
-        <v>780</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>2.665693283081055</v>
+      </c>
       <c r="L76" t="n">
-        <v>1327</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
-        </is>
+        <v>11.15999317169189</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.08069142315735013</v>
       </c>
       <c r="N76" t="n">
-        <v>2.665693283081055</v>
+        <v>0.2150985878251888</v>
       </c>
       <c r="O76" t="n">
-        <v>11.15999317169189</v>
+        <v>98</v>
       </c>
       <c r="P76" t="n">
-        <v>0.08069142315735013</v>
+        <v>98</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.2150985878251888</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77">
@@ -4835,31 +4833,33 @@
         <v>-8.396152496337891</v>
       </c>
       <c r="I77" t="n">
-        <v>780</v>
-      </c>
-      <c r="J77" t="n">
-        <v>780</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>1330</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>[1.8898179531097412, -2.7097582817077637, -1.080597162246704]</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>3.47590160369873</v>
+      </c>
       <c r="L77" t="n">
-        <v>1330</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[1.8898179531097412, -2.7097582817077637, -1.080597162246704]</t>
-        </is>
+        <v>9.773166656494141</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.1587602556151502</v>
       </c>
       <c r="N77" t="n">
-        <v>3.47590160369873</v>
+        <v>-0.5518350296001984</v>
       </c>
       <c r="O77" t="n">
-        <v>9.773166656494141</v>
+        <v>98</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.1587602556151502</v>
+        <v>98</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.5518350296001984</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,45 +476,50 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>motion_vector</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>contributing_ion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>contrib_force</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>contrib_magnitude</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>contrib_distance</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>contrib_cosine_with_motion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>contrib_motion_component</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>contrib_before_closest_residue</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>contrib_closest_residue</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>contrib_next_closest_residue</t>
         </is>
@@ -549,29 +554,34 @@
       <c r="H2" t="n">
         <v>-3.706376194953918</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>1460</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>[-0.20382902026176453, 0.20456770062446594, -2.015981435775757]</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2.036559581756592</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>12.76792907714844</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.9608440200018359</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1.956816197649512</v>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,28 +612,30 @@
       <c r="H3" t="n">
         <v>-3.706376194953918</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>1313</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[-0.30617839097976685, 1.9138059616088867, -1.6903947591781616]</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2.571737289428711</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>11.36202526092529</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.5263554506137853</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>1.35364796253652</v>
-      </c>
-      <c r="O3" t="n">
-        <v>780</v>
       </c>
       <c r="P3" t="n">
         <v>780</v>
@@ -631,6 +643,9 @@
       <c r="Q3" t="n">
         <v>780</v>
       </c>
+      <c r="R3" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -661,29 +676,34 @@
       <c r="H4" t="n">
         <v>-9.397506475448608</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>1316</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[0.4411103129386902, 0.020791510120034218, -1.5011932849884033]</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1.564797759056091</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>14.5659875869751</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.6923382640351051</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1.083369330272755</v>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -714,29 +734,34 @@
       <c r="H5" t="n">
         <v>-9.397506475448608</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>1387</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[1.0603179931640625, 0.020274614915251732, -2.5148849487304688]</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2.729346513748169</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>11.02909088134766</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.6062964219064304</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1.654792938780372</v>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -767,29 +792,34 @@
       <c r="H6" t="n">
         <v>-9.397506475448608</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>1460</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[3.8352208137512207, 0.3034936487674713, -5.381428241729736]</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>6.615194320678711</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>7.084312915802002</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.4203375156977876</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>2.780614381738402</v>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -820,29 +850,34 @@
       <c r="H7" t="n">
         <v>-4.168585538864136</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>1320</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[-0.10016888380050659, -0.04445159435272217, -1.7664031982421875]</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1.769799470901489</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>13.69641876220703</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.9641559088449246</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>1.706362574051698</v>
       </c>
-      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -873,28 +908,30 @@
       <c r="H8" t="n">
         <v>-4.168585538864136</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>1308</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[1.0612798929214478, 1.444498062133789, -2.4021823406219482]</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2.99722695350647</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>10.52468776702881</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.9051742631942796</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>2.713012736925825</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1073</v>
       </c>
       <c r="P8" t="n">
         <v>1073</v>
@@ -902,6 +939,9 @@
       <c r="Q8" t="n">
         <v>1073</v>
       </c>
+      <c r="R8" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -932,29 +972,34 @@
       <c r="H9" t="n">
         <v>-4.317601203918457</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>1316</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[-0.3461155891418457, 0.052372146397829056, -2.328737497329712]</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2.35490083694458</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>11.87360858917236</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.9966853552791446</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>2.347095012760431</v>
       </c>
-      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -985,28 +1030,30 @@
       <c r="H10" t="n">
         <v>-4.317601203918457</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>1460</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[0.46047669649124146, 1.5771710872650146, -1.9888637065887451]</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>2.579745531082153</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>11.34437656402588</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.7267480067537534</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>1.874824819083032</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1073</v>
       </c>
       <c r="P10" t="n">
         <v>1073</v>
@@ -1014,6 +1061,9 @@
       <c r="Q10" t="n">
         <v>1073</v>
       </c>
+      <c r="R10" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1044,29 +1094,34 @@
       <c r="H11" t="n">
         <v>-9.935503959655762</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>1320</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[-0.1475171595811844, -0.04048118740320206, -2.020209789276123]</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>2.02599310874939</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>12.80118179321289</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.9871697615720927</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1.999999025670778</v>
       </c>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1097,28 +1152,30 @@
       <c r="H12" t="n">
         <v>-9.935503959655762</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>1308</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[1.8541682958602905, 1.3925756216049194, -2.6088037490844727]</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>3.490424633026123</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>9.752813339233398</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.7898546750614521</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>2.756928193262113</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1073</v>
       </c>
       <c r="P12" t="n">
         <v>1073</v>
@@ -1126,6 +1183,9 @@
       <c r="Q12" t="n">
         <v>1073</v>
       </c>
+      <c r="R12" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1156,33 +1216,38 @@
       <c r="H13" t="n">
         <v>-9.935503959655762</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>1460</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[-3.4404945373535156, 0.21569806337356567, -5.306490421295166]</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>6.327904224395752</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>7.243343830108643</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.7884745401546881</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>4.989391188704489</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>130</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>780</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>423</v>
       </c>
     </row>
@@ -1215,29 +1280,34 @@
       <c r="H14" t="n">
         <v>-12.93161725997925</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>1403</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[-0.3197493553161621, 0.288761705160141, -2.3088576793670654]</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>2.348711729049683</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>11.88924217224121</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.9125800371947513</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>2.143387431225561</v>
       </c>
-      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1268,33 +1338,38 @@
       <c r="H15" t="n">
         <v>-12.93161725997925</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>1309</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[-2.9148778915405273, -2.9359593391418457, -3.625190496444702]</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>5.50076150894165</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>7.768866062164307</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.662242245518847</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>3.642836612869096</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>130</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>455</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>130</v>
       </c>
     </row>
@@ -1327,33 +1402,38 @@
       <c r="H16" t="n">
         <v>-12.93161725997925</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>1320</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[-1.0187950134277344, 6.049768924713135, -6.9975690841674805]</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>9.306106567382812</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>5.972897052764893</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0.5940372062105592</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>5.528173576817856</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>1073</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>780</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>1073</v>
       </c>
     </row>
@@ -1386,29 +1466,34 @@
       <c r="H17" t="n">
         <v>-8.384076476097107</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>2436</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[-0.5522236227989197, -0.3873722553253174, -3.264085531234741]</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>3.333055973052979</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>9.980395317077637</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.9801603900444591</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>3.266929505737479</v>
       </c>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1439,28 +1524,30 @@
       <c r="H18" t="n">
         <v>-8.384076476097107</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>1469</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[2.148010492324829, 3.888089656829834, -3.9567387104034424]</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>5.948694705963135</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>7.470646381378174</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.5814498537782196</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>3.458867802443283</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1073</v>
       </c>
       <c r="P18" t="n">
         <v>1073</v>
@@ -1468,6 +1555,9 @@
       <c r="Q18" t="n">
         <v>1073</v>
       </c>
+      <c r="R18" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1498,33 +1588,38 @@
       <c r="H19" t="n">
         <v>-8.384076476097107</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>1309</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[-0.98553866147995, -3.2337822914123535, -1.1632522344589233]</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>3.575162887573242</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>9.636539459228516</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.4362069520366343</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>1.559510933663953</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>423</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>455</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>98</v>
       </c>
     </row>
@@ -1557,29 +1652,34 @@
       <c r="H20" t="n">
         <v>-13.13253748416901</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>1380</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[0.2080385684967041, -0.2713145911693573, -4.193719387054443]</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>4.207633018493652</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>8.882804870605469</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.9959551528948135</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>4.190613588897197</v>
       </c>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1610,29 +1710,34 @@
       <c r="H21" t="n">
         <v>-13.13253748416901</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>1476</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[0.016993116587400436, -0.13155724108219147, -1.6357070207595825]</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>1.641076922416687</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>14.22343730926514</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.9924739774005474</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>1.628726160418765</v>
       </c>
-      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1663,28 +1768,30 @@
       <c r="H22" t="n">
         <v>-13.13253748416901</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>2443</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[2.2294209003448486, 1.050384759902954, -2.2944509983062744]</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>3.367214202880859</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>9.929643630981445</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>0.7394171236063281</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>2.489775795474349</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1073</v>
       </c>
       <c r="P22" t="n">
         <v>1073</v>
@@ -1692,6 +1799,9 @@
       <c r="Q22" t="n">
         <v>1073</v>
       </c>
+      <c r="R22" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1722,28 +1832,30 @@
       <c r="H23" t="n">
         <v>-13.13253748416901</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
         <v>1469</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[-2.146965980529785, 2.0441834926605225, -3.3131890296936035]</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>4.445826053619385</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>8.641572952270508</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.7117443378488206</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>3.164291626438311</v>
-      </c>
-      <c r="O23" t="n">
-        <v>748</v>
       </c>
       <c r="P23" t="n">
         <v>748</v>
@@ -1751,6 +1863,9 @@
       <c r="Q23" t="n">
         <v>748</v>
       </c>
+      <c r="R23" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1781,28 +1896,30 @@
       <c r="H24" t="n">
         <v>-13.13253748416901</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
         <v>2434</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[-0.8504688143730164, -1.9593597650527954, -1.6954710483551025]</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>2.727088212966919</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>11.03365612030029</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0.5800045390704807</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>1.581723525763827</v>
-      </c>
-      <c r="O24" t="n">
-        <v>423</v>
       </c>
       <c r="P24" t="n">
         <v>423</v>
@@ -1810,6 +1927,9 @@
       <c r="Q24" t="n">
         <v>423</v>
       </c>
+      <c r="R24" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1840,29 +1960,34 @@
       <c r="H25" t="n">
         <v>-5.696695804595947</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
         <v>1469</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[-0.1614212542772293, -0.08120483160018921, -1.773813009262085]</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>1.782992839813232</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>13.64564990997314</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.8615170809308654</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>1.536078827991297</v>
       </c>
-      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1893,28 +2018,30 @@
       <c r="H26" t="n">
         <v>-5.696695804595947</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
         <v>1320</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[1.4149909019470215, 1.8132896423339844, -2.7240469455718994]</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>3.565199851989746</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>9.649994850158691</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>0.7856163304683783</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>2.800879264400677</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1073</v>
       </c>
       <c r="P26" t="n">
         <v>1073</v>
@@ -1922,6 +2049,9 @@
       <c r="Q26" t="n">
         <v>1073</v>
       </c>
+      <c r="R26" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1952,28 +2082,30 @@
       <c r="H27" t="n">
         <v>-5.696695804595947</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>1309</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[-0.5008364319801331, -1.207638144493103, -1.198835849761963]</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>1.773819088935852</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>13.6808910369873</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0.5783594576891403</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>1.025905087729987</v>
-      </c>
-      <c r="O27" t="n">
-        <v>423</v>
       </c>
       <c r="P27" t="n">
         <v>423</v>
@@ -1981,6 +2113,9 @@
       <c r="Q27" t="n">
         <v>423</v>
       </c>
+      <c r="R27" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2011,29 +2146,34 @@
       <c r="H28" t="n">
         <v>-9.122485280036926</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[0.8023300170898438, -0.055606842041015625, -9.485305786132812]</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
         <v>1476</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[0.1602437049150467, -0.41130489110946655, -2.2435944080352783]</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>2.286605596542358</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>12.04962158203125</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0.9846391368009837</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>2.251481462417558</v>
       </c>
-      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2064,28 +2204,30 @@
       <c r="H29" t="n">
         <v>-9.122485280036926</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[0.8023300170898438, -0.055606842041015625, -9.485305786132812]</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
         <v>2443</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[-1.3809603452682495, 1.1726969480514526, -3.275101661682129]</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>3.742801189422607</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>9.418259620666504</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0.8389835781963815</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>3.140148707254202</v>
-      </c>
-      <c r="O29" t="n">
-        <v>748</v>
       </c>
       <c r="P29" t="n">
         <v>748</v>
@@ -2093,6 +2235,9 @@
       <c r="Q29" t="n">
         <v>748</v>
       </c>
+      <c r="R29" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2123,33 +2268,38 @@
       <c r="H30" t="n">
         <v>-9.122485280036926</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[0.8023300170898438, -0.055606842041015625, -9.485305786132812]</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>1380</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[1.6709095239639282, 0.2382316142320633, -1.9508068561553955]</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>2.579600811004639</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>11.34469413757324</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>0.8075946228968239</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>2.0832717418678</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1073</v>
       </c>
       <c r="P30" t="n">
         <v>1073</v>
       </c>
       <c r="Q30" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R30" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -2182,28 +2332,30 @@
       <c r="H31" t="n">
         <v>-9.122485280036926</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[0.8023300170898438, -0.055606842041015625, -9.485305786132812]</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
         <v>2434</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[-0.808508574962616, -1.3590866327285767, -1.6529823541641235]</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>2.287608623504639</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>12.0469799041748</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0.6936793876693205</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>1.586866955228467</v>
-      </c>
-      <c r="O31" t="n">
-        <v>423</v>
       </c>
       <c r="P31" t="n">
         <v>423</v>
@@ -2211,6 +2363,9 @@
       <c r="Q31" t="n">
         <v>423</v>
       </c>
+      <c r="R31" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2241,33 +2396,38 @@
       <c r="H32" t="n">
         <v>-4.841521263122559</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>1469</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[1.1431920528411865, 1.02493155002594, -3.420396089553833]</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>3.749197483062744</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>9.410222053527832</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>0.9928946105038673</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>3.722558026865098</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1073</v>
       </c>
       <c r="P32" t="n">
         <v>1073</v>
       </c>
       <c r="Q32" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R32" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -2300,29 +2460,34 @@
       <c r="H33" t="n">
         <v>-4.841521263122559</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
         <v>2434</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[-0.40666353702545166, -0.174024760723114, -1.8346890211105347]</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>1.887258291244507</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>13.26335430145264</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.8407321155935801</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>1.586678610431468</v>
       </c>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2353,35 +2518,40 @@
       <c r="H34" t="n">
         <v>-4.841521263122559</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
         <v>1309</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[-0.640687882900238, -1.2333738803863525, -1.1129107475280762]</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>1.780523061752319</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>13.65511131286621</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>0.3095982110366685</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>0.551246759031236</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>455</v>
-      </c>
-      <c r="P34" t="n">
-        <v>423</v>
       </c>
       <c r="Q34" t="n">
         <v>423</v>
       </c>
+      <c r="R34" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2412,29 +2582,34 @@
       <c r="H35" t="n">
         <v>-4.841521263122559</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
         <v>1320</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[-0.537470281124115, 0.01673593558371067, 1.5264745950698853]</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>1.61841869354248</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>14.32265758514404</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>-0.9424075972696683</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>-1.525210077137657</v>
       </c>
-      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2465,29 +2640,34 @@
       <c r="H36" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
         <v>1443</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[-0.3812868595123291, 0.13104836642742157, -2.2599120140075684]</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>2.295594930648804</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>12.02600574493408</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>0.9431245056930945</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>2.165031745706639</v>
       </c>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2518,28 +2698,30 @@
       <c r="H37" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
         <v>1380</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[1.0140454769134521, 2.1479642391204834, -2.2929553985595703]</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>3.301466703414917</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>10.02802848815918</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>0.7285433883691073</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>2.405261812377961</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1073</v>
       </c>
       <c r="P37" t="n">
         <v>1073</v>
@@ -2547,6 +2729,9 @@
       <c r="Q37" t="n">
         <v>1073</v>
       </c>
+      <c r="R37" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2577,28 +2762,30 @@
       <c r="H38" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
         <v>1476</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[0.008695846423506737, -2.490915298461914, -1.944529414176941]</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>3.160052061080933</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>10.24995422363281</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>0.6158427028171367</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>1.946095027256202</v>
-      </c>
-      <c r="O38" t="n">
-        <v>98</v>
       </c>
       <c r="P38" t="n">
         <v>98</v>
@@ -2606,6 +2793,9 @@
       <c r="Q38" t="n">
         <v>98</v>
       </c>
+      <c r="R38" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2636,28 +2826,30 @@
       <c r="H39" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
         <v>2443</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[-1.4861036539077759, 1.5667755603790283, -1.6444870233535767]</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>2.714337348937988</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>11.05954170227051</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>0.5014580409626225</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>1.36112629439639</v>
-      </c>
-      <c r="O39" t="n">
-        <v>748</v>
       </c>
       <c r="P39" t="n">
         <v>748</v>
@@ -2665,6 +2857,9 @@
       <c r="Q39" t="n">
         <v>748</v>
       </c>
+      <c r="R39" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2695,33 +2890,38 @@
       <c r="H40" t="n">
         <v>-10.30704760551453</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
         <v>1355</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[-3.9302902221679688, 0.5823214054107666, -2.16516375541687]</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>4.524844169616699</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>8.565786361694336</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>0.327899531567316</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>1.483694239359939</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>130</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>455</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>780</v>
       </c>
     </row>
@@ -2754,33 +2954,38 @@
       <c r="H41" t="n">
         <v>-7.061962246894836</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
         <v>2434</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[-0.2705686688423157, -1.578347086906433, -1.934159755706787]</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>2.511047840118408</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>11.49850940704346</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>0.8833188285271076</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>2.218055772580776</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>423</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>98</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>423</v>
       </c>
     </row>
@@ -2813,29 +3018,34 @@
       <c r="H42" t="n">
         <v>-7.061962246894836</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
         <v>2443</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[-0.07851993292570114, 0.13867592811584473, -1.5529817342758179]</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>1.561136960983276</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>14.58305549621582</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>0.702195832082078</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>1.096223878320914</v>
       </c>
-      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2866,28 +3076,30 @@
       <c r="H43" t="n">
         <v>-7.061962246894836</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
         <v>1309</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[0.9512708783149719, 0.9681544303894043, -2.003573179244995]</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>2.420029878616333</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>11.71274471282959</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.5720386383493259</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>1.384350614990204</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1073</v>
       </c>
       <c r="P43" t="n">
         <v>1073</v>
@@ -2895,6 +3107,9 @@
       <c r="Q43" t="n">
         <v>1073</v>
       </c>
+      <c r="R43" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2925,28 +3140,30 @@
       <c r="H44" t="n">
         <v>-7.061962246894836</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
         <v>1469</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[-1.059220314025879, 0.999154806137085, -1.5712475776672363]</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>2.142213106155396</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>12.44909286499023</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>0.1418053295081253</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.3037772340185541</v>
-      </c>
-      <c r="O44" t="n">
-        <v>748</v>
       </c>
       <c r="P44" t="n">
         <v>748</v>
@@ -2954,6 +3171,9 @@
       <c r="Q44" t="n">
         <v>748</v>
       </c>
+      <c r="R44" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2984,29 +3204,34 @@
       <c r="H45" t="n">
         <v>-11.50406563282013</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>1327</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[-0.059498030692338943, -0.12091635167598724, -1.616925835609436]</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>1.62253201007843</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>14.30449104309082</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>0.9248798548251941</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>1.500647116887409</v>
       </c>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3037,37 +3262,42 @@
       <c r="H46" t="n">
         <v>-11.50406563282013</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
         <v>1443</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[-0.04559451341629028, -0.2811105251312256, -4.0620198249816895]</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>4.071990489959717</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>9.029541015625</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>0.9213048386844982</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>3.751544597499391</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
@@ -3102,35 +3332,40 @@
       <c r="H47" t="n">
         <v>-11.50406563282013</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>1476</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[-1.0176137685775757, 2.565093994140625, -1.9819310903549194]</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>3.397542715072632</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>9.885225296020508</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>0.8096458300429167</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>2.750806211455885</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>780</v>
-      </c>
-      <c r="P47" t="n">
-        <v>748</v>
       </c>
       <c r="Q47" t="n">
         <v>748</v>
       </c>
+      <c r="R47" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3161,35 +3396,40 @@
       <c r="H48" t="n">
         <v>-11.50406563282013</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
         <v>1380</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[2.384357213973999, 0.7816745042800903, -2.3590643405914307]</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>3.444032430648804</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>9.818280220031738</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.5399165510412918</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>1.859490075115747</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>1105</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1073</v>
       </c>
       <c r="Q48" t="n">
         <v>1073</v>
       </c>
+      <c r="R48" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3220,28 +3460,30 @@
       <c r="H49" t="n">
         <v>-11.50406563282013</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>1355</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[-0.5657582879066467, -1.950833797454834, -1.4841245412826538]</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>2.515643119812012</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>11.48800277709961</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>0.4082531766189131</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>1.027019318710666</v>
-      </c>
-      <c r="O49" t="n">
-        <v>423</v>
       </c>
       <c r="P49" t="n">
         <v>423</v>
@@ -3249,6 +3491,9 @@
       <c r="Q49" t="n">
         <v>423</v>
       </c>
+      <c r="R49" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3279,29 +3524,34 @@
       <c r="H50" t="n">
         <v>-13.42748379707336</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[0.19598388671875, -0.5619964599609375, -2.0372467041015625]</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
         <v>1327</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[-0.20322829484939575, -0.07535362988710403, -2.3830111026763916]</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>2.392848014831543</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>11.77908325195312</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>0.9564243084235104</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>2.288578048269589</v>
       </c>
-      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3332,33 +3582,38 @@
       <c r="H51" t="n">
         <v>-13.42748379707336</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[0.19598388671875, -0.5619964599609375, -2.0372467041015625]</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
         <v>1476</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[-2.4396185874938965, -1.8853956460952759, -4.237017631530762]</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>5.2401123046875</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>7.959737300872803</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>0.8284110096263232</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>4.340966490822918</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>130</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>455</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>423</v>
       </c>
     </row>
@@ -3391,33 +3646,38 @@
       <c r="H52" t="n">
         <v>-13.42748379707336</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[0.19598388671875, -0.5619964599609375, -2.0372467041015625]</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
         <v>1355</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[-3.233201503753662, 1.434584140777588, -6.807455062866211]</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>7.671575546264648</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>6.578498363494873</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.7633218090981325</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>5.855880760021908</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>130</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>780</v>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
@@ -3452,33 +3712,38 @@
       <c r="H53" t="n">
         <v>-8.854763507843018</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
         <v>1341</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[-2.268233299255371, 0.35912325978279114, -2.317638874053955]</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>3.26271390914917</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>10.08740711212158</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>0.7454743138650441</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>2.432269379989446</v>
-      </c>
-      <c r="O53" t="n">
-        <v>780</v>
       </c>
       <c r="P53" t="n">
         <v>780</v>
       </c>
       <c r="Q53" t="n">
+        <v>780</v>
+      </c>
+      <c r="R53" t="n">
         <v>455</v>
       </c>
     </row>
@@ -3511,29 +3776,34 @@
       <c r="H54" t="n">
         <v>-8.854763507843018</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
         <v>1330</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[-0.19868579506874084, -0.18994195759296417, -1.8839623928070068]</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>1.903908610343933</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>13.20523071289062</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>0.6733983108701571</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>1.282088894140918</v>
       </c>
-      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3564,28 +3834,30 @@
       <c r="H55" t="n">
         <v>-8.854763507843018</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
         <v>1327</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[1.6464307308197021, 0.5983303785324097, -2.400447130203247]</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>2.9716796875</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>10.56983089447021</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>0.5861742337508992</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>1.741922029556168</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1073</v>
       </c>
       <c r="P55" t="n">
         <v>1073</v>
@@ -3593,6 +3865,9 @@
       <c r="Q55" t="n">
         <v>1073</v>
       </c>
+      <c r="R55" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3623,28 +3898,30 @@
       <c r="H56" t="n">
         <v>-8.854763507843018</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
         <v>1355</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[0.4079889953136444, -2.1761250495910645, -2.2527151107788086]</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>3.158591508865356</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>10.25232315063477</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>0.03562404632689124</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>0.1125218119437741</v>
-      </c>
-      <c r="O56" t="n">
-        <v>98</v>
       </c>
       <c r="P56" t="n">
         <v>98</v>
@@ -3652,6 +3929,9 @@
       <c r="Q56" t="n">
         <v>98</v>
       </c>
+      <c r="R56" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3682,29 +3962,34 @@
       <c r="H57" t="n">
         <v>-11.2671914100647</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
         <v>1465</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[-0.2258387804031372, 0.05245503783226013, -2.232218027114868]</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>2.244226455688477</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>12.16285991668701</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>0.9439029619984107</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>2.118331919405112</v>
       </c>
-      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3735,28 +4020,30 @@
       <c r="H58" t="n">
         <v>-11.2671914100647</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
         <v>1330</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[-2.0129354000091553, -1.6208391189575195, -2.2622406482696533]</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>3.434641361236572</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>9.831693649291992</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>0.7920236106872338</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>2.720317034415509</v>
-      </c>
-      <c r="O58" t="n">
-        <v>423</v>
       </c>
       <c r="P58" t="n">
         <v>423</v>
@@ -3764,6 +4051,9 @@
       <c r="Q58" t="n">
         <v>423</v>
       </c>
+      <c r="R58" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3794,28 +4084,30 @@
       <c r="H59" t="n">
         <v>-11.2671914100647</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
         <v>1341</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[-2.0574705600738525, 2.4868741035461426, -4.053411483764648]</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>5.181493282318115</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>8.004635810852051</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>0.6144743457533566</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>3.183894690792016</v>
-      </c>
-      <c r="O59" t="n">
-        <v>780</v>
       </c>
       <c r="P59" t="n">
         <v>780</v>
@@ -3823,6 +4115,9 @@
       <c r="Q59" t="n">
         <v>780</v>
       </c>
+      <c r="R59" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3853,28 +4148,30 @@
       <c r="H60" t="n">
         <v>-11.2671914100647</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
         <v>1327</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[1.9448966979980469, 1.4587265253067017, -2.7193212509155273]</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>3.647631168365479</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>9.54033374786377</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>0.5689591620950232</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>2.075353264181299</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1073</v>
       </c>
       <c r="P60" t="n">
         <v>1073</v>
@@ -3882,6 +4179,9 @@
       <c r="Q60" t="n">
         <v>1073</v>
       </c>
+      <c r="R60" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3912,29 +4212,34 @@
       <c r="H61" t="n">
         <v>-11.03928828239441</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
         <v>1327</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[-0.1917954683303833, -0.1543402522802353, -2.0611162185668945]</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>2.075766563415527</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>12.6467752456665</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>0.9974005113928808</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>2.070370549187257</v>
       </c>
-      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3965,28 +4270,30 @@
       <c r="H62" t="n">
         <v>-11.03928828239441</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
         <v>1380</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[2.4541378021240234, 0.7991290092468262, -2.9831364154815674]</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>3.944680452346802</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>9.174093246459961</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>0.6737391249781851</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>2.657685430531701</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1073</v>
       </c>
       <c r="P62" t="n">
         <v>1073</v>
@@ -3994,6 +4301,9 @@
       <c r="Q62" t="n">
         <v>1073</v>
       </c>
+      <c r="R62" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4024,28 +4334,30 @@
       <c r="H63" t="n">
         <v>-11.03928828239441</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
         <v>1476</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>[-0.9842002391815186, 4.096344470977783, -3.72086238861084]</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>5.620810031890869</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>7.685455322265625</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>0.6723321513669531</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>3.779051279401563</v>
-      </c>
-      <c r="O63" t="n">
-        <v>780</v>
       </c>
       <c r="P63" t="n">
         <v>780</v>
@@ -4053,6 +4365,9 @@
       <c r="Q63" t="n">
         <v>780</v>
       </c>
+      <c r="R63" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4083,35 +4398,40 @@
       <c r="H64" t="n">
         <v>-11.03928828239441</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
         <v>1355</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>[-0.14370736479759216, -3.0303430557250977, -2.2741732597351074]</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>3.791502952575684</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>9.357575416564941</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>0.6064895139892793</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>2.299506800430802</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>98</v>
-      </c>
-      <c r="P64" t="n">
-        <v>130</v>
       </c>
       <c r="Q64" t="n">
         <v>130</v>
       </c>
+      <c r="R64" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4142,29 +4462,34 @@
       <c r="H65" t="n">
         <v>-14.48587214946747</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
         <v>1400</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>1.992708206176758</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>12.90764999389648</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>0.9210984994672317</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>1.835480567768402</v>
       </c>
-      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4195,28 +4520,30 @@
       <c r="H66" t="n">
         <v>-14.48587214946747</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
         <v>1327</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>4.041954040527344</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>9.063029289245605</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>0.7537609364506486</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>3.046666834338566</v>
-      </c>
-      <c r="O66" t="n">
-        <v>98</v>
       </c>
       <c r="P66" t="n">
         <v>98</v>
@@ -4224,6 +4551,9 @@
       <c r="Q66" t="n">
         <v>98</v>
       </c>
+      <c r="R66" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4254,33 +4584,38 @@
       <c r="H67" t="n">
         <v>-14.48587214946747</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
         <v>1330</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>5.101125717163086</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>8.067445755004883</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>0.7243454431812516</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>3.694977243683372</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>130</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>98</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>130</v>
       </c>
     </row>
@@ -4313,35 +4648,40 @@
       <c r="H68" t="n">
         <v>-14.48587214946747</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
         <v>1359</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>4.957292079925537</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>8.183645248413086</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>0.6870513046227579</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>3.405914004964458</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>423</v>
-      </c>
-      <c r="P68" t="n">
-        <v>455</v>
       </c>
       <c r="Q68" t="n">
         <v>455</v>
       </c>
+      <c r="R68" t="n">
+        <v>455</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4372,28 +4712,30 @@
       <c r="H69" t="n">
         <v>-14.48587214946747</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>1374</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>6.448452472686768</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>7.175320148468018</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>0.3381827836470593</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>2.180755584088995</v>
-      </c>
-      <c r="O69" t="n">
-        <v>780</v>
       </c>
       <c r="P69" t="n">
         <v>780</v>
@@ -4401,6 +4743,9 @@
       <c r="Q69" t="n">
         <v>780</v>
       </c>
+      <c r="R69" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4431,28 +4776,30 @@
       <c r="H70" t="n">
         <v>-12.21974325180054</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
         <v>1341</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>6.475595951080322</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>7.160265922546387</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>0.9712740120240915</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>6.289578334971061</v>
-      </c>
-      <c r="O70" t="n">
-        <v>98</v>
       </c>
       <c r="P70" t="n">
         <v>98</v>
@@ -4460,6 +4807,9 @@
       <c r="Q70" t="n">
         <v>98</v>
       </c>
+      <c r="R70" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4490,29 +4840,34 @@
       <c r="H71" t="n">
         <v>-12.21974325180054</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
         <v>1359</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>2.794686794281006</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>10.8993968963623</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>0.7807014051662815</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>2.181815939319726</v>
       </c>
-      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4543,28 +4898,30 @@
       <c r="H72" t="n">
         <v>-12.21974325180054</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
         <v>1330</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>2.14094877243042</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>12.45276832580566</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>0.5741840088095561</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>1.229298551084618</v>
-      </c>
-      <c r="O72" t="n">
-        <v>423</v>
       </c>
       <c r="P72" t="n">
         <v>423</v>
@@ -4572,6 +4929,9 @@
       <c r="Q72" t="n">
         <v>423</v>
       </c>
+      <c r="R72" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4602,35 +4962,40 @@
       <c r="H73" t="n">
         <v>-12.21974325180054</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
         <v>1327</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>4.158008098602295</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>8.935654640197754</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>0.5098471706622976</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>2.119948543468411</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>1105</v>
-      </c>
-      <c r="P73" t="n">
-        <v>1073</v>
       </c>
       <c r="Q73" t="n">
         <v>1073</v>
       </c>
+      <c r="R73" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4661,29 +5026,34 @@
       <c r="H74" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
         <v>1400</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>2.49150538444519</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>11.54351615905762</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>0.7221021228583707</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>1.799121459318981</v>
       </c>
-      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4714,35 +5084,40 @@
       <c r="H75" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
         <v>1359</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>6.928995132446289</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>6.922037124633789</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.2548949485799148</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>1.766165779267369</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>423</v>
-      </c>
-      <c r="P75" t="n">
-        <v>455</v>
       </c>
       <c r="Q75" t="n">
         <v>455</v>
       </c>
+      <c r="R75" t="n">
+        <v>455</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4773,28 +5148,30 @@
       <c r="H76" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
         <v>1327</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>2.665693283081055</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>11.15999317169189</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>0.08069142315735013</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>0.2150985878251888</v>
-      </c>
-      <c r="O76" t="n">
-        <v>98</v>
       </c>
       <c r="P76" t="n">
         <v>98</v>
@@ -4802,6 +5179,9 @@
       <c r="Q76" t="n">
         <v>98</v>
       </c>
+      <c r="R76" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4832,33 +5212,38 @@
       <c r="H77" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
         <v>1330</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>[1.8898179531097412, -2.7097582817077637, -1.080597162246704]</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>3.47590160369873</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>9.773166656494141</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>-0.1587602556151502</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>-0.5518350296001984</v>
-      </c>
-      <c r="O77" t="n">
-        <v>98</v>
       </c>
       <c r="P77" t="n">
         <v>98</v>
       </c>
       <c r="Q77" t="n">
+        <v>98</v>
+      </c>
+      <c r="R77" t="n">
         <v>98</v>
       </c>
     </row>

--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,56 +528,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6727</v>
+        <v>5552</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.66171466553992</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E2" t="n">
-        <v>14.16379430668922</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9660394182938929</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G2" t="n">
-        <v>2.263928264805835</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.48587262630463</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1400</v>
+        <v>2443</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
+          <t>[-0.05633280798792839, 0.0005689358222298324, -1.5595158338546753]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.992708206176758</v>
+        <v>1.560533046722412</v>
       </c>
       <c r="M2" t="n">
-        <v>12.90764999389648</v>
+        <v>14.58587741851807</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9210984994672317</v>
+        <v>0.9983744478347512</v>
       </c>
       <c r="O2" t="n">
-        <v>1.835480567768402</v>
+        <v>1.557996304478483</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -586,568 +586,556 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6727</v>
+        <v>5552</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.66171466553992</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E3" t="n">
-        <v>14.16379430668922</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9660394182938929</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G3" t="n">
-        <v>2.263928264805835</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H3" t="n">
-        <v>-14.48587262630463</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1327</v>
+        <v>2444</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
+          <t>[0.07805076986551285, -0.4003472626209259, -3.418886423110962]</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4.041954040527344</v>
+        <v>3.443131446838379</v>
       </c>
       <c r="M3" t="n">
-        <v>9.063029289245605</v>
+        <v>9.819564819335938</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7537609364506486</v>
+        <v>0.9842810911257656</v>
       </c>
       <c r="O3" t="n">
-        <v>3.046666834338566</v>
-      </c>
-      <c r="P3" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>98</v>
-      </c>
-      <c r="R3" t="n">
-        <v>98</v>
-      </c>
+        <v>3.389009187001514</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6727</v>
+        <v>5552</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.66171466553992</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E4" t="n">
-        <v>14.16379430668922</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9660394182938929</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G4" t="n">
-        <v>2.263928264805835</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H4" t="n">
-        <v>-14.48587262630463</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1330</v>
+        <v>2434</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
+          <t>[-1.893072247505188, -3.221282482147217, -2.009432315826416]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5.101125717163086</v>
+        <v>4.242428779602051</v>
       </c>
       <c r="M4" t="n">
-        <v>8.067445755004883</v>
+        <v>8.846302032470703</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7243454431812516</v>
+        <v>0.4402401306434588</v>
       </c>
       <c r="O4" t="n">
-        <v>3.694977243683372</v>
+        <v>1.867687381807795</v>
       </c>
       <c r="P4" t="n">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="Q4" t="n">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="R4" t="n">
-        <v>130</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6727</v>
+        <v>5552</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14.66171466553992</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E5" t="n">
-        <v>14.16379430668922</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9660394182938929</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G5" t="n">
-        <v>2.263928264805835</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H5" t="n">
-        <v>-14.48587262630463</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1359</v>
+        <v>1469</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
+          <t>[1.36846923828125, 8.766291618347168, -3.4916884899139404]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4.957292079925537</v>
+        <v>9.53480339050293</v>
       </c>
       <c r="M5" t="n">
-        <v>8.183645248413086</v>
+        <v>5.90083122253418</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6870513046227579</v>
+        <v>0.4134517271765727</v>
       </c>
       <c r="O5" t="n">
-        <v>3.405914004964458</v>
+        <v>3.942180704804922</v>
       </c>
       <c r="P5" t="n">
-        <v>423</v>
+        <v>780</v>
       </c>
       <c r="Q5" t="n">
-        <v>455</v>
+        <v>1105</v>
       </c>
       <c r="R5" t="n">
-        <v>455</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6727</v>
+        <v>5552</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-1.692137971520424, -1.5040080696344376, -14.485872626304626]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.66171466553992</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E6" t="n">
-        <v>14.16379430668922</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9660394182938929</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G6" t="n">
-        <v>2.263928264805835</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H6" t="n">
-        <v>-14.48587262630463</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1374</v>
+        <v>1309</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[-0.5644397735595703, 4.90380334854126, -4.14929723739624]</t>
+          <t>[2.620638608932495, -3.7301268577575684, -2.0289413928985596]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6.448452949523926</v>
+        <v>4.989809513092041</v>
       </c>
       <c r="M6" t="n">
-        <v>7.175320148468018</v>
+        <v>8.156936645507812</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3381827917709564</v>
+        <v>0.3532913110586681</v>
       </c>
       <c r="O6" t="n">
-        <v>2.180755864633156</v>
+        <v>1.762856248963099</v>
       </c>
       <c r="P6" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="Q6" t="n">
-        <v>780</v>
+        <v>98</v>
       </c>
       <c r="R6" t="n">
-        <v>780</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6562</v>
+        <v>5178</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.03947311046226</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E7" t="n">
-        <v>9.926848374128314</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G7" t="n">
-        <v>2.629129490874901</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.74889743328094</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.6832439303398132, 0.32402536273002625, -1.8139832019805908]</t>
+          <t>[-0.008810419589281082, -2.18619704246521, -2.864572048187256]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.965286135673523</v>
+        <v>3.603513479232788</v>
       </c>
       <c r="M7" t="n">
-        <v>12.997389793396</v>
+        <v>9.598557472229004</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9970160927550866</v>
+        <v>0.9550714863493811</v>
       </c>
       <c r="O7" t="n">
-        <v>1.959421946251032</v>
+        <v>3.441612809865843</v>
       </c>
       <c r="P7" t="n">
-        <v>1073</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1073</v>
+        <v>98</v>
       </c>
       <c r="R7" t="n">
-        <v>1105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6562</v>
+        <v>5178</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.03947311046226</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E8" t="n">
-        <v>9.926848374128314</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G8" t="n">
-        <v>2.629129490874901</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.74889743328094</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1341</v>
+        <v>1309</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[-2.458481788635254, 1.54696786403656, -8.691182136535645]</t>
+          <t>[-0.2788090407848358, 0.07740062475204468, -1.6099847555160522]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>9.163726806640625</v>
+        <v>1.635780096054077</v>
       </c>
       <c r="M8" t="n">
-        <v>6.019119739532471</v>
+        <v>14.24644756317139</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7929877905045637</v>
+        <v>0.8441143479128079</v>
       </c>
       <c r="O8" t="n">
-        <v>7.266723482752122</v>
-      </c>
-      <c r="P8" t="n">
-        <v>780</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>780</v>
-      </c>
-      <c r="R8" t="n">
-        <v>780</v>
-      </c>
+        <v>1.380785379002085</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6562</v>
+        <v>5178</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.03947311046226</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E9" t="n">
-        <v>9.926848374128314</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G9" t="n">
-        <v>2.629129490874901</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.74889743328094</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1330</v>
+        <v>1308</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[-0.6235961318016052, -0.7949275374412537, -1.2437320947647095]</t>
+          <t>[0.6154102087020874, 1.285620093345642, -2.1181087493896484]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.602389335632324</v>
+        <v>2.553024530410767</v>
       </c>
       <c r="M9" t="n">
-        <v>14.39411735534668</v>
+        <v>11.40358924865723</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4372861802171832</v>
+        <v>0.597050028512469</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7007026935126186</v>
+        <v>1.524283271710701</v>
       </c>
       <c r="P9" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
       <c r="Q9" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
       <c r="R9" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6670</v>
+        <v>5178</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.45103562302613</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E10" t="n">
-        <v>11.82064111137415</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F10" t="n">
-        <v>0.949370114202696</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G10" t="n">
-        <v>2.388757615569407</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H10" t="n">
-        <v>-12.21974325180054</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1341</v>
+        <v>1306</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
+          <t>[-0.8810579776763916, 1.1072505712509155, -1.4493992328643799]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6.475595951080322</v>
+        <v>2.025592565536499</v>
       </c>
       <c r="M10" t="n">
-        <v>7.160265922546387</v>
+        <v>12.80244731903076</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9712740120240915</v>
+        <v>0.361945199579535</v>
       </c>
       <c r="O10" t="n">
-        <v>6.289578334971061</v>
+        <v>0.7331534948783407</v>
       </c>
       <c r="P10" t="n">
-        <v>98</v>
+        <v>748</v>
       </c>
       <c r="Q10" t="n">
-        <v>98</v>
+        <v>748</v>
       </c>
       <c r="R10" t="n">
-        <v>98</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E11" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F11" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G11" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H11" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1359</v>
+        <v>1313</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
+          <t>[-0.2596032917499542, 0.0863218829035759, -1.6720675230026245]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.794686794281006</v>
+        <v>1.694300770759583</v>
       </c>
       <c r="M11" t="n">
-        <v>10.8993968963623</v>
+        <v>13.99825096130371</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7807014051662815</v>
+        <v>0.9434373863163675</v>
       </c>
       <c r="O11" t="n">
-        <v>2.181815939319726</v>
+        <v>1.598466700888721</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1156,306 +1144,300 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E12" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G12" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H12" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1330</v>
+        <v>2433</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
+          <t>[-0.6347223520278931, 0.19823774695396423, -3.038501501083374]</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.14094877243042</v>
+        <v>3.110411882400513</v>
       </c>
       <c r="M12" t="n">
-        <v>12.45276832580566</v>
+        <v>10.33142185211182</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5741840088095561</v>
+        <v>0.9288692016910208</v>
       </c>
       <c r="O12" t="n">
-        <v>1.229298551084618</v>
-      </c>
-      <c r="P12" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>423</v>
-      </c>
-      <c r="R12" t="n">
-        <v>423</v>
-      </c>
+        <v>2.889165796519675</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E13" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F13" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G13" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
+          <t>[-1.6401560306549072, 2.41015887260437, -3.054780960083008]</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4.158008098602295</v>
+        <v>4.222637176513672</v>
       </c>
       <c r="M13" t="n">
-        <v>8.935654640197754</v>
+        <v>8.867009162902832</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5098471706622976</v>
+        <v>0.5608941513372824</v>
       </c>
       <c r="O13" t="n">
-        <v>2.119948543468411</v>
+        <v>2.368452468009934</v>
       </c>
       <c r="P13" t="n">
-        <v>1105</v>
+        <v>780</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073</v>
+        <v>780</v>
       </c>
       <c r="R13" t="n">
-        <v>1073</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6748</v>
+        <v>3171</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.80405384257204</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E14" t="n">
-        <v>3.228550702307688</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2338842443768771</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G14" t="n">
-        <v>10.95703069920265</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.39615273475647</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1400</v>
+        <v>1307</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
+          <t>[-4.570674896240234, 1.0774279832839966, -3.064039707183838]</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.49150538444519</v>
+        <v>5.607161521911621</v>
       </c>
       <c r="M14" t="n">
-        <v>11.54351615905762</v>
+        <v>7.694803237915039</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7221021228583707</v>
+        <v>0.4573762546789545</v>
       </c>
       <c r="O14" t="n">
-        <v>1.799121459318981</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+        <v>2.56458249796159</v>
+      </c>
+      <c r="P14" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>780</v>
+      </c>
+      <c r="R14" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6748</v>
+        <v>3631</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.80405384257204</v>
+        <v>7.698816050180231</v>
       </c>
       <c r="E15" t="n">
-        <v>3.228550702307688</v>
+        <v>7.200785190113176</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2338842443768771</v>
+        <v>0.9353107209185241</v>
       </c>
       <c r="G15" t="n">
-        <v>10.95703069920265</v>
+        <v>1.777240902818617</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.39615273475647</v>
+        <v>-7.490873336791992</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1359</v>
+        <v>1460</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[-0.17082583904266357, -6.117379665374756, -3.249532461166382]</t>
+          <t>[-0.20382902026176453, 0.20456770062446594, -2.015981435775757]</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6.928995132446289</v>
+        <v>2.036559581756592</v>
       </c>
       <c r="M15" t="n">
-        <v>6.922037124633789</v>
+        <v>12.76792907714844</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2548949471669227</v>
+        <v>0.9608440200018359</v>
       </c>
       <c r="O15" t="n">
-        <v>1.76616590537747</v>
-      </c>
-      <c r="P15" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>455</v>
-      </c>
-      <c r="R15" t="n">
-        <v>455</v>
-      </c>
+        <v>1.956816197649512</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6748</v>
+        <v>3631</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.80405384257204</v>
+        <v>7.698816050180231</v>
       </c>
       <c r="E16" t="n">
-        <v>3.228550702307688</v>
+        <v>7.200785190113176</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2338842443768771</v>
+        <v>0.9353107209185241</v>
       </c>
       <c r="G16" t="n">
-        <v>10.95703069920265</v>
+        <v>1.777240902818617</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.39615273475647</v>
+        <v>-7.490873336791992</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1327</v>
+        <v>1307</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
+          <t>[0.34473127126693726, -2.081768035888672, -2.207082748413086]</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.665693283081055</v>
+        <v>3.053491830825806</v>
       </c>
       <c r="M16" t="n">
-        <v>11.15999317169189</v>
+        <v>10.42727088928223</v>
       </c>
       <c r="N16" t="n">
-        <v>0.08069142315735013</v>
+        <v>0.807978223801411</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2150985878251888</v>
+        <v>2.467154866444083</v>
       </c>
       <c r="P16" t="n">
         <v>98</v>
@@ -1470,64 +1452,5196 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7.698816050180231</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.200785190113176</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9353107209185241</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.777240902818617</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-7.490873336791992</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[-0.9093334674835205, 1.378950595855713, -1.5774143934249878]</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2.28399395942688</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.05650901794434</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6231042642794813</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.423166356990045</v>
+      </c>
+      <c r="P17" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>748</v>
+      </c>
+      <c r="R17" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7.698816050180231</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.200785190113176</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9353107209185241</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.777240902818617</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-7.490873336791992</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1313</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[-0.30617839097976685, 1.9138059616088867, -1.6903947591781616]</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>2.571737289428711</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11.36202526092529</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5263554506137853</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.35364796253652</v>
+      </c>
+      <c r="P18" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>780</v>
+      </c>
+      <c r="R18" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1316</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[0.4411103129386902, 0.020791510120034218, -1.5011932849884033]</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1.564797759056091</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14.5659875869751</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6923382640351051</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.083369330272755</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1387</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[1.0603179931640625, 0.020274614915251732, -2.5148849487304688]</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>2.729346513748169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11.02909088134766</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6062964219064304</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.654792938780372</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1460</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[3.8352208137512207, 0.3034936487674713, -5.381428241729736]</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>6.615194320678711</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.084312915802002</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4203375156977876</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.780614381738402</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[2.8424875736236572, 2.9671502113342285, -0.9589595198631287]</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>4.219398021697998</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.87041187286377</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.09411734995217312</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.3971185566050011</v>
+      </c>
+      <c r="P22" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1105</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[2.5766072273254395, -1.5963126420974731, -0.5375608205795288]</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3.078325986862183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10.38512516021729</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.2950445267137366</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.9082432151579863</v>
+      </c>
+      <c r="P23" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>130</v>
+      </c>
+      <c r="R23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[-0.10016888380050659, -0.04445159435272217, -1.7664031982421875]</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1.769799470901489</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13.69641876220703</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9641559088449246</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.706362574051698</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1308</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[1.0612798929214478, 1.444498062133789, -2.4021823406219482]</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.99722695350647</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10.52468776702881</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9051742631942796</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.713012736925825</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[-1.5543725490570068, 1.258629322052002, -1.952666163444519]</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2.795197248458862</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10.89840221405029</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7482234116119566</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.091431924959317</v>
+      </c>
+      <c r="P26" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>748</v>
+      </c>
+      <c r="R26" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[-0.9408805966377258, -1.4583345651626587, -2.198254108428955]</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2.80077075958252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10.88755226135254</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6334185661219965</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.774060230071668</v>
+      </c>
+      <c r="P27" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>423</v>
+      </c>
+      <c r="R27" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4416</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4.538939756016481</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.758346497848085</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8280229965304783</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.033683128043664</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-4.419668912887573</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[-0.013370522297918797, -0.8900471329689026, -1.4354690313339233]</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1.68906307220459</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14.01993846893311</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8757279544678656</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.47915973565849</v>
+      </c>
+      <c r="P28" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>98</v>
+      </c>
+      <c r="R28" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4416</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4.538939756016481</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.758346497848085</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8280229965304783</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.033683128043664</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-4.419668912887573</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1460</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[0.07012513279914856, 0.7181707620620728, -1.3524318933486938]</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1.532892346382141</v>
+      </c>
+      <c r="M29" t="n">
+        <v>14.71679401397705</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.7375033161043688</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.130513154595927</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4416</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4.538939756016481</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.758346497848085</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8280229965304783</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.033683128043664</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-4.419668912887573</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[-1.0510830879211426, -0.1106332540512085, -1.631767988204956]</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1.944140434265137</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13.0678825378418</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.5908387561172265</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.148673533190998</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>455</v>
+      </c>
+      <c r="R30" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4995</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>7.995896765749374</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.949022122312232</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9941376627524844</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8884617097054888</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-7.946382880210876</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[-0.07242100685834885, -0.12115886062383652, -3.0449378490448]</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>3.048207759857178</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10.43630504608154</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9916764005175307</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.022835736580715</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>780</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4995</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7.995896765749374</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.949022122312232</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9941376627524844</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8884617097054888</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-7.946382880210876</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>1460</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[-0.8827682137489319, -0.0563669316470623, -1.7279608249664307]</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1.94121241569519</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13.07773494720459</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9473684974300527</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.839043469918368</v>
+      </c>
+      <c r="P32" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>423</v>
+      </c>
+      <c r="R32" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4995</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>7.995896765749374</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.949022122312232</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9941376627524844</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8884617097054888</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-7.946382880210876</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[-0.4053342640399933, -0.8712661266326904, -1.413935661315918]</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1.70956563949585</v>
+      </c>
+      <c r="M33" t="n">
+        <v>13.93561553955078</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8542328263445506</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.46036706496753</v>
+      </c>
+      <c r="P33" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>423</v>
+      </c>
+      <c r="R33" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4995</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7.995896765749374</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.949022122312232</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9941376627524844</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8884617097054888</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-7.946382880210876</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>1308</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[0.7669690251350403, 0.3876888155937195, -1.759548544883728]</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1.958202004432678</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13.02087879180908</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8307496712078332</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.626775691469368</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1403</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[-0.3197493553161621, 0.288761705160141, -2.3088576793670654]</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>2.348711729049683</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11.88924217224121</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.9125800371947513</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.143387431225561</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[-2.9148778915405273, -2.9359593391418457, -3.625190496444702]</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>5.50076150894165</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7.768866062164307</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.662242245518847</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.642836612869096</v>
+      </c>
+      <c r="P36" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>455</v>
+      </c>
+      <c r="R36" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[-1.0187950134277344, 6.049768924713135, -6.9975690841674805]</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>9.306106567382812</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.972897052764893</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5940372062105592</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.528173576817856</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>780</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[-0.9879137277603149, 1.9101332426071167, -1.1659907102584839]</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>2.446245431900024</v>
+      </c>
+      <c r="M38" t="n">
+        <v>11.64981460571289</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2593372636546249</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6344026050880931</v>
+      </c>
+      <c r="P38" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>748</v>
+      </c>
+      <c r="R38" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3.686563577311224</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.799045007488103</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7592558622112715</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6196689777840458</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-3.634110808372498</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[0.791297435760498, 0.621355414390564, -2.222032308578491]</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>2.439192771911621</v>
+      </c>
+      <c r="M39" t="n">
+        <v>11.66664505004883</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.9925530638026502</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.421028337227678</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3.686563577311224</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.799045007488103</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7592558622112715</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6196689777840458</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-3.634110808372498</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[-1.1405926942825317, 0.7522609829902649, -1.6077313423156738]</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2.109892845153809</v>
+      </c>
+      <c r="M40" t="n">
+        <v>12.54408073425293</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.5732048678398108</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.209400921702676</v>
+      </c>
+      <c r="P40" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>748</v>
+      </c>
+      <c r="R40" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3.686563577311224</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.799045007488103</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7592558622112715</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.6196689777840458</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-3.634110808372498</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[-0.17910051345825195, -1.473112940788269, -1.4012798070907593]</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>2.04101037979126</v>
+      </c>
+      <c r="M41" t="n">
+        <v>12.75399971008301</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.3025805488274198</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.6175700747981629</v>
+      </c>
+      <c r="P41" t="n">
+        <v>455</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>98</v>
+      </c>
+      <c r="R41" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5400</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3.686563577311224</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.799045007488103</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7592558622112715</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6196689777840458</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-3.634110808372498</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1403</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[0.01169963926076889, -0.24257764220237732, 1.5969326496124268]</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.615293979644775</v>
+      </c>
+      <c r="M42" t="n">
+        <v>14.33650398254395</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.8970221043838721</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-1.448954416141859</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[0.2080385684967041, -0.2713145911693573, -4.193719387054443]</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>4.207633018493652</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.882804870605469</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.9959551528948135</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4.190613588897197</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[0.016993116587400436, -0.13155724108219147, -1.6357070207595825]</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.641076922416687</v>
+      </c>
+      <c r="M44" t="n">
+        <v>14.22343730926514</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.9924739774005474</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.628726160418765</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>2443</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[2.2294209003448486, 1.050384759902954, -2.2944509983062744]</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>3.367214202880859</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.929643630981445</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.7394171236063281</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.489775795474349</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[-2.146965980529785, 2.0441834926605225, -3.3131890296936035]</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>4.445826053619385</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.641572952270508</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.7117443378488206</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3.164291626438311</v>
+      </c>
+      <c r="P46" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>748</v>
+      </c>
+      <c r="R46" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[-0.8504688143730164, -1.9593597650527954, -1.6954710483551025]</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.727088212966919</v>
+      </c>
+      <c r="M47" t="n">
+        <v>11.03365612030029</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.5800045390704807</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.581723525763827</v>
+      </c>
+      <c r="P47" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>423</v>
+      </c>
+      <c r="R47" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[-0.1614212542772293, -0.08120483160018921, -1.773813009262085]</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.782992839813232</v>
+      </c>
+      <c r="M48" t="n">
+        <v>13.64564990997314</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8615170809308654</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.536078827991297</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[1.4149909019470215, 1.8132896423339844, -2.7240469455718994]</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>3.565199851989746</v>
+      </c>
+      <c r="M49" t="n">
+        <v>9.649994850158691</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.7856163304683783</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.800879264400677</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[-0.5008364319801331, -1.207638144493103, -1.198835849761963]</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.773819088935852</v>
+      </c>
+      <c r="M50" t="n">
+        <v>13.6808910369873</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5783594576891403</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.025905087729987</v>
+      </c>
+      <c r="P50" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>423</v>
+      </c>
+      <c r="R50" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[-1.5940940380096436, 0.8364765644073486, -1.796245813369751]</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.543094158172607</v>
+      </c>
+      <c r="M51" t="n">
+        <v>11.42583179473877</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.3280007218306903</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8341367175995344</v>
+      </c>
+      <c r="P51" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>748</v>
+      </c>
+      <c r="R51" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[-2.1075210571289062, -1.6291656494140625, -2.518554925918579]</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>3.665916681289673</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9.516510963439941</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.7280037094661771</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.668800894930122</v>
+      </c>
+      <c r="P52" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>423</v>
+      </c>
+      <c r="R52" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[0.08797405660152435, 0.13495370745658875, -1.4901376962661743]</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.498820185661316</v>
+      </c>
+      <c r="M53" t="n">
+        <v>14.88313007354736</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.3561971268230643</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.5338754844760718</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[0.41797372698783875, 0.5490890145301819, -3.075044631958008]</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3.151523590087891</v>
+      </c>
+      <c r="M54" t="n">
+        <v>10.26381397247314</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.269245752356655</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.8485343115474436</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[1.5758421421051025, 0.7378226518630981, -1.3699907064437866]</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.214618444442749</v>
+      </c>
+      <c r="M55" t="n">
+        <v>12.24389457702637</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.05736134929523411</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.127033507375681</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>2443</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[-1.1738728284835815, 2.0699965953826904, -2.5466549396514893]</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>3.485443115234375</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9.759779930114746</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.193675568066016</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.6750452029345015</v>
+      </c>
+      <c r="P56" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>748</v>
+      </c>
+      <c r="R56" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[1.1431920528411865, 1.02493155002594, -3.420396089553833]</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>3.749197483062744</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.410222053527832</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.9928946105038673</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3.722558026865098</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[-0.40666353702545166, -0.174024760723114, -1.8346890211105347]</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.887258291244507</v>
+      </c>
+      <c r="M58" t="n">
+        <v>13.26335430145264</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.8407321155935801</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.586678610431468</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[-1.636364459991455, 1.1709693670272827, -1.7953139543533325]</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.696666479110718</v>
+      </c>
+      <c r="M59" t="n">
+        <v>11.09571838378906</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.6364700166104801</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.716347358702464</v>
+      </c>
+      <c r="P59" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>748</v>
+      </c>
+      <c r="R59" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[-0.640687882900238, -1.2333738803863525, -1.1129107475280762]</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.780523061752319</v>
+      </c>
+      <c r="M60" t="n">
+        <v>13.65511131286621</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.3095982110366685</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.551246759031236</v>
+      </c>
+      <c r="P60" t="n">
+        <v>455</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>423</v>
+      </c>
+      <c r="R60" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[-0.537470281124115, 0.01673593558371067, 1.5264745950698853]</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.61841869354248</v>
+      </c>
+      <c r="M61" t="n">
+        <v>14.32265758514404</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.9424075972696683</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-1.525210077137657</v>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6017</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5.075181099260022</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.007865432308868</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9867363024817049</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8120608520084311</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-5.009792447090149</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[-1.0107395648956299, 1.0179250240325928, -3.474121332168579]</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3.758628129959106</v>
+      </c>
+      <c r="M62" t="n">
+        <v>9.398409843444824</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.9662323642810159</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3.631708071700497</v>
+      </c>
+      <c r="P62" t="n">
+        <v>455</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>780</v>
+      </c>
+      <c r="R62" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6017</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5.075181099260022</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.007865432308868</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9867363024817049</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8120608520084311</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-5.009792447090149</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[0.19876165688037872, -1.0295312404632568, -1.5356711149215698]</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.859496355056763</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13.36199760437012</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.7400699520279647</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.376157348447493</v>
+      </c>
+      <c r="P63" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>98</v>
+      </c>
+      <c r="R63" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[-0.2705686688423157, -1.578347086906433, -1.934159755706787]</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.511047840118408</v>
+      </c>
+      <c r="M64" t="n">
+        <v>11.49850940704346</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.8833188285271076</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.218055772580776</v>
+      </c>
+      <c r="P64" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>98</v>
+      </c>
+      <c r="R64" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2443</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[-0.07851993292570114, 0.13867592811584473, -1.5529817342758179]</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.561136960983276</v>
+      </c>
+      <c r="M65" t="n">
+        <v>14.58305549621582</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.702195832082078</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.096223878320914</v>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[0.9512708783149719, 0.9681544303894043, -2.003573179244995]</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.420029878616333</v>
+      </c>
+      <c r="M66" t="n">
+        <v>11.71274471282959</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.5720386383493259</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.384350614990204</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[-1.059220314025879, 0.999154806137085, -1.5712475776672363]</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.142213106155396</v>
+      </c>
+      <c r="M67" t="n">
+        <v>12.44909286499023</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1418053295081253</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.3037772340185541</v>
+      </c>
+      <c r="P67" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>748</v>
+      </c>
+      <c r="R67" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[0.44565045833587646, 0.22126013040542603, 1.527474284172058]</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.606467604637146</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14.37583446502686</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.7041937092394214</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-1.131264359448302</v>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[-0.059498030692338943, -0.12091635167598724, -1.616925835609436]</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.62253201007843</v>
+      </c>
+      <c r="M69" t="n">
+        <v>14.30449104309082</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.9248798548251941</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.500647116887409</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1443</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[-0.04559451341629028, -0.2811105251312256, -4.0620198249816895]</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4.071990489959717</v>
+      </c>
+      <c r="M70" t="n">
+        <v>9.029541015625</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.9213048386844982</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3.751544597499391</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[-1.0176137685775757, 2.565093994140625, -1.9819310903549194]</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.397542715072632</v>
+      </c>
+      <c r="M71" t="n">
+        <v>9.885225296020508</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.8096458300429167</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2.750806211455885</v>
+      </c>
+      <c r="P71" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>748</v>
+      </c>
+      <c r="R71" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[2.384357213973999, 0.7816745042800903, -2.3590643405914307]</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.444032430648804</v>
+      </c>
+      <c r="M72" t="n">
+        <v>9.818280220031738</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.5399165510412918</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.859490075115747</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[-0.5657582879066467, -1.950833797454834, -1.4841245412826538]</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.515643119812012</v>
+      </c>
+      <c r="M73" t="n">
+        <v>11.48800277709961</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.4082531766189131</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.027019318710666</v>
+      </c>
+      <c r="P73" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>423</v>
+      </c>
+      <c r="R73" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6427</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5.414610218111335</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.929475198950758</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9104025960099864</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.423460141273367</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-5.224152088165283</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[-0.5057880878448486, -0.6493135690689087, -1.4130650758743286]</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.635292887687683</v>
+      </c>
+      <c r="M74" t="n">
+        <v>14.24856948852539</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.9730123891011621</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.591160174350925</v>
+      </c>
+      <c r="P74" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>423</v>
+      </c>
+      <c r="R74" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6427</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5.414610218111335</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.929475198950758</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9104025960099864</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.423460141273367</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-5.224152088165283</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[0.3731147348880768, -0.807207465171814, -2.0967166423797607]</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.277502775192261</v>
+      </c>
+      <c r="M75" t="n">
+        <v>12.0736780166626</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.8852198919817684</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2.016090815961498</v>
+      </c>
+      <c r="P75" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>98</v>
+      </c>
+      <c r="R75" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6427</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5.414610218111335</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.929475198950758</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9104025960099864</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.423460141273367</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-5.224152088165283</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[-0.14642807841300964, 0.06069111451506615, -1.7143703699111938]</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.72168242931366</v>
+      </c>
+      <c r="M76" t="n">
+        <v>13.88649082183838</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.767983892840246</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.322224367909255</v>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6489</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6.492989483308295</v>
+      </c>
+      <c r="E77" t="n">
+        <v>6.44156173786345</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9920794965744129</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.2515795209212585</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-6.488113760948181</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[0.7381088137626648, -1.2383511066436768, -2.846250057220459]</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.190526008605957</v>
+      </c>
+      <c r="M77" t="n">
+        <v>10.20088577270508</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.8660119411977254</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.763033793281382</v>
+      </c>
+      <c r="P77" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>98</v>
+      </c>
+      <c r="R77" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6489</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>6.492989483308295</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.44156173786345</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9920794965744129</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.2515795209212585</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-6.488113760948181</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[0.9411289691925049, 0.6820929050445557, -1.9233936071395874]</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.247313261032104</v>
+      </c>
+      <c r="M78" t="n">
+        <v>12.15450286865234</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.8007488819072422</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.799533677724063</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6489</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>6.492989483308295</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.44156173786345</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9920794965744129</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.2515795209212585</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-6.488113760948181</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1341</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[-1.5917798280715942, 0.32036975026130676, -1.7184700965881348]</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.36422061920166</v>
+      </c>
+      <c r="M79" t="n">
+        <v>11.85018253326416</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.7947627169732658</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.878994425455848</v>
+      </c>
+      <c r="P79" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>455</v>
+      </c>
+      <c r="R79" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6562</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>12.03947311046226</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.926848374128314</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.8245251501497953</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.629129490874901</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-11.74889743328094</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>[0.6832439303398132, 0.32402536273002625, -1.8139832019805908]</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.965286135673523</v>
+      </c>
+      <c r="M80" t="n">
+        <v>12.997389793396</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.9970160927550866</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.959421946251032</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6562</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>12.03947311046226</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9.926848374128314</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8245251501497953</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.629129490874901</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-11.74889743328094</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1341</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>[-2.458481788635254, 1.54696786403656, -8.691182136535645]</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>9.163726806640625</v>
+      </c>
+      <c r="M81" t="n">
+        <v>6.019119739532471</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.7929877905045637</v>
+      </c>
+      <c r="O81" t="n">
+        <v>7.266723482752122</v>
+      </c>
+      <c r="P81" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>780</v>
+      </c>
+      <c r="R81" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6562</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>12.03947311046226</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9.926848374128314</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.8245251501497953</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.629129490874901</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-11.74889743328094</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[-0.6235961318016052, -0.7949275374412537, -1.2437320947647095]</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.602389335632324</v>
+      </c>
+      <c r="M82" t="n">
+        <v>14.39411735534668</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.4372861802171832</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.7007026935126186</v>
+      </c>
+      <c r="P82" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>423</v>
+      </c>
+      <c r="R82" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[-0.1917954683303833, -0.1543402522802353, -2.0611162185668945]</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.075766563415527</v>
+      </c>
+      <c r="M83" t="n">
+        <v>12.6467752456665</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.9974005113928808</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2.070370549187257</v>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[2.4541378021240234, 0.7991290092468262, -2.9831364154815674]</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>3.944680452346802</v>
+      </c>
+      <c r="M84" t="n">
+        <v>9.174093246459961</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.6737391249781851</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.657685430531701</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[-0.9842002391815186, 4.096344470977783, -3.72086238861084]</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5.620810031890869</v>
+      </c>
+      <c r="M85" t="n">
+        <v>7.685455322265625</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.6723321513669531</v>
+      </c>
+      <c r="O85" t="n">
+        <v>3.779051279401563</v>
+      </c>
+      <c r="P85" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>780</v>
+      </c>
+      <c r="R85" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[-0.14370736479759216, -3.0303430557250977, -2.2741732597351074]</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.791502952575684</v>
+      </c>
+      <c r="M86" t="n">
+        <v>9.357575416564941</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.6064895139892793</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2.299506800430802</v>
+      </c>
+      <c r="P86" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>130</v>
+      </c>
+      <c r="R86" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.992708206176758</v>
+      </c>
+      <c r="M87" t="n">
+        <v>12.90764999389648</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.9210984994672317</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.835480567768402</v>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E88" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>4.041954040527344</v>
+      </c>
+      <c r="M88" t="n">
+        <v>9.063029289245605</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.7537609364506486</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3.046666834338566</v>
+      </c>
+      <c r="P88" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>98</v>
+      </c>
+      <c r="R88" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E89" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>5.101125717163086</v>
+      </c>
+      <c r="M89" t="n">
+        <v>8.067445755004883</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.7243454431812516</v>
+      </c>
+      <c r="O89" t="n">
+        <v>3.694977243683372</v>
+      </c>
+      <c r="P89" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>98</v>
+      </c>
+      <c r="R89" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>4.957292079925537</v>
+      </c>
+      <c r="M90" t="n">
+        <v>8.183645248413086</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.6870513046227579</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3.405914004964458</v>
+      </c>
+      <c r="P90" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>455</v>
+      </c>
+      <c r="R90" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E91" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1374</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>6.448452472686768</v>
+      </c>
+      <c r="M91" t="n">
+        <v>7.175320148468018</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.3381827836470593</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.180755584088995</v>
+      </c>
+      <c r="P91" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>780</v>
+      </c>
+      <c r="R91" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1341</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>6.475595951080322</v>
+      </c>
+      <c r="M92" t="n">
+        <v>7.160265922546387</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.9712740120240915</v>
+      </c>
+      <c r="O92" t="n">
+        <v>6.289578334971061</v>
+      </c>
+      <c r="P92" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>98</v>
+      </c>
+      <c r="R92" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.794686794281006</v>
+      </c>
+      <c r="M93" t="n">
+        <v>10.8993968963623</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.7807014051662815</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.181815939319726</v>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E94" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.14094877243042</v>
+      </c>
+      <c r="M94" t="n">
+        <v>12.45276832580566</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.5741840088095561</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.229298551084618</v>
+      </c>
+      <c r="P94" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>423</v>
+      </c>
+      <c r="R94" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>4.158008098602295</v>
+      </c>
+      <c r="M95" t="n">
+        <v>8.935654640197754</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.5098471706622976</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2.119948543468411</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>1374</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B96" t="n">
         <v>6748</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[3.8711565732955933, -10.250398457050323, -8.39615273475647]</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>13.80405384257204</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.228550702307688</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2338842443768771</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10.95703069920265</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-8.39615273475647</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="J96" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.49150538444519</v>
+      </c>
+      <c r="M96" t="n">
+        <v>11.54351615905762</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.7221021228583707</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.799121459318981</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G97" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>6.928995132446289</v>
+      </c>
+      <c r="M97" t="n">
+        <v>6.922037124633789</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.2548949485799148</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.766165779267369</v>
+      </c>
+      <c r="P97" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>455</v>
+      </c>
+      <c r="R97" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.665693283081055</v>
+      </c>
+      <c r="M98" t="n">
+        <v>11.15999317169189</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.08069142315735013</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.2150985878251888</v>
+      </c>
+      <c r="P98" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>98</v>
+      </c>
+      <c r="R98" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G99" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
         <v>1330</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>[1.8898179531097412, -2.7097582817077637, -1.080597162246704]</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="L99" t="n">
         <v>3.47590160369873</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M99" t="n">
         <v>9.773166656494141</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N99" t="n">
         <v>-0.1587602556151502</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O99" t="n">
         <v>-0.5518350296001984</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P99" t="n">
         <v>98</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q99" t="n">
         <v>98</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R99" t="n">
         <v>98</v>
       </c>
     </row>

--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -528,114 +528,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5552</v>
+        <v>5178</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.76515109110311</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E2" t="n">
-        <v>12.51972977569507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9807741158990991</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G2" t="n">
-        <v>2.547037365561873</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H2" t="n">
-        <v>-12.50846445560455</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2443</v>
+        <v>1320</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[-0.05633280798792839, 0.0005689358222298324, -1.5595158338546753]</t>
+          <t>[-0.008810419589281082, -2.18619704246521, -2.864572048187256]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.560533046722412</v>
+        <v>3.603513479232788</v>
       </c>
       <c r="M2" t="n">
-        <v>14.58587741851807</v>
+        <v>9.598557472229004</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9983744478347512</v>
+        <v>0.9550714863493811</v>
       </c>
       <c r="O2" t="n">
-        <v>1.557996304478483</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>3.441612809865843</v>
+      </c>
+      <c r="P2" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5552</v>
+        <v>5178</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.76515109110311</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E3" t="n">
-        <v>12.51972977569507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9807741158990991</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G3" t="n">
-        <v>2.547037365561873</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.50846445560455</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2444</v>
+        <v>1309</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.07805076986551285, -0.4003472626209259, -3.418886423110962]</t>
+          <t>[-0.2788090407848358, 0.07740062475204468, -1.6099847555160522]</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.443131446838379</v>
+        <v>1.635780096054077</v>
       </c>
       <c r="M3" t="n">
-        <v>9.819564819335938</v>
+        <v>14.24644756317139</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9842810911257656</v>
+        <v>0.8441143479128079</v>
       </c>
       <c r="O3" t="n">
-        <v>3.389009187001514</v>
+        <v>1.380785379002085</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -644,126 +650,126 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5552</v>
+        <v>5178</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.76515109110311</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E4" t="n">
-        <v>12.51972977569507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9807741158990991</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G4" t="n">
-        <v>2.547037365561873</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.50846445560455</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2434</v>
+        <v>1308</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[-1.893072247505188, -3.221282482147217, -2.009432315826416]</t>
+          <t>[0.6154102087020874, 1.285620093345642, -2.1181087493896484]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.242428779602051</v>
+        <v>2.553024530410767</v>
       </c>
       <c r="M4" t="n">
-        <v>8.846302032470703</v>
+        <v>11.40358924865723</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4402401306434588</v>
+        <v>0.597050028512469</v>
       </c>
       <c r="O4" t="n">
-        <v>1.867687381807795</v>
+        <v>1.524283271710701</v>
       </c>
       <c r="P4" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
       <c r="Q4" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
       <c r="R4" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5552</v>
+        <v>5178</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.76515109110311</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E5" t="n">
-        <v>12.51972977569507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9807741158990991</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G5" t="n">
-        <v>2.547037365561873</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.50846445560455</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1469</v>
+        <v>1306</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[1.36846923828125, 8.766291618347168, -3.4916884899139404]</t>
+          <t>[-0.8810579776763916, 1.1072505712509155, -1.4493992328643799]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>9.53480339050293</v>
+        <v>2.025592565536499</v>
       </c>
       <c r="M5" t="n">
-        <v>5.90083122253418</v>
+        <v>12.80244731903076</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4134517271765727</v>
+        <v>0.361945199579535</v>
       </c>
       <c r="O5" t="n">
-        <v>3.942180704804922</v>
+        <v>0.7331534948783407</v>
       </c>
       <c r="P5" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q5" t="n">
-        <v>1105</v>
+        <v>748</v>
       </c>
       <c r="R5" t="n">
         <v>780</v>
@@ -804,283 +810,277 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1309</v>
+        <v>2443</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[2.620638608932495, -3.7301268577575684, -2.0289413928985596]</t>
+          <t>[-0.05633280798792839, 0.0005689358222298324, -1.5595158338546753]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4.989809513092041</v>
+        <v>1.560533046722412</v>
       </c>
       <c r="M6" t="n">
-        <v>8.156936645507812</v>
+        <v>14.58587741851807</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3532913110586681</v>
+        <v>0.9983744478347512</v>
       </c>
       <c r="O6" t="n">
-        <v>1.762856248963099</v>
-      </c>
-      <c r="P6" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>98</v>
-      </c>
-      <c r="R6" t="n">
-        <v>98</v>
-      </c>
+        <v>1.557996304478483</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5178</v>
+        <v>5552</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.066077660570116</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E7" t="n">
-        <v>7.079835093630851</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8777295969067627</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6219347271323936</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.042064785957336</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1320</v>
+        <v>2444</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[-0.008810419589281082, -2.18619704246521, -2.864572048187256]</t>
+          <t>[0.07805076986551285, -0.4003472626209259, -3.418886423110962]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.603513479232788</v>
+        <v>3.443131446838379</v>
       </c>
       <c r="M7" t="n">
-        <v>9.598557472229004</v>
+        <v>9.819564819335938</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9550714863493811</v>
+        <v>0.9842810911257656</v>
       </c>
       <c r="O7" t="n">
-        <v>3.441612809865843</v>
-      </c>
-      <c r="P7" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>98</v>
-      </c>
-      <c r="R7" t="n">
-        <v>98</v>
-      </c>
+        <v>3.389009187001514</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5178</v>
+        <v>5552</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.066077660570116</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E8" t="n">
-        <v>7.079835093630851</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8777295969067627</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6219347271323936</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.042064785957336</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1309</v>
+        <v>2434</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[-0.2788090407848358, 0.07740062475204468, -1.6099847555160522]</t>
+          <t>[-1.893072247505188, -3.221282482147217, -2.009432315826416]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.635780096054077</v>
+        <v>4.242428779602051</v>
       </c>
       <c r="M8" t="n">
-        <v>14.24644756317139</v>
+        <v>8.846302032470703</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8441143479128079</v>
+        <v>0.4402401306434588</v>
       </c>
       <c r="O8" t="n">
-        <v>1.380785379002085</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+        <v>1.867687381807795</v>
+      </c>
+      <c r="P8" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>423</v>
+      </c>
+      <c r="R8" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5178</v>
+        <v>5552</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.066077660570116</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E9" t="n">
-        <v>7.079835093630851</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8777295969067627</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6219347271323936</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.042064785957336</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1308</v>
+        <v>1469</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[0.6154102087020874, 1.285620093345642, -2.1181087493896484]</t>
+          <t>[1.36846923828125, 8.766291618347168, -3.4916884899139404]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.553024530410767</v>
+        <v>9.53480339050293</v>
       </c>
       <c r="M9" t="n">
-        <v>11.40358924865723</v>
+        <v>5.90083122253418</v>
       </c>
       <c r="N9" t="n">
-        <v>0.597050028512469</v>
+        <v>0.4134517271765727</v>
       </c>
       <c r="O9" t="n">
-        <v>1.524283271710701</v>
+        <v>3.942180704804922</v>
       </c>
       <c r="P9" t="n">
-        <v>1073</v>
+        <v>780</v>
       </c>
       <c r="Q9" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R9" t="n">
-        <v>1073</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5178</v>
+        <v>5552</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8.066077660570116</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E10" t="n">
-        <v>7.079835093630851</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8777295969067627</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6219347271323936</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.042064785957336</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[-0.8810579776763916, 1.1072505712509155, -1.4493992328643799]</t>
+          <t>[2.620638608932495, -3.7301268577575684, -2.0289413928985596]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.025592565536499</v>
+        <v>4.989809513092041</v>
       </c>
       <c r="M10" t="n">
-        <v>12.80244731903076</v>
+        <v>8.156936645507812</v>
       </c>
       <c r="N10" t="n">
-        <v>0.361945199579535</v>
+        <v>0.3532913110586681</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7331534948783407</v>
+        <v>1.762856248963099</v>
       </c>
       <c r="P10" t="n">
-        <v>748</v>
+        <v>130</v>
       </c>
       <c r="Q10" t="n">
-        <v>748</v>
+        <v>98</v>
       </c>
       <c r="R10" t="n">
-        <v>780</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">

--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -580,13 +580,13 @@
         <v>3.441612809865843</v>
       </c>
       <c r="P2" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q2" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R2" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -702,13 +702,13 @@
         <v>1.524283271710701</v>
       </c>
       <c r="P4" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q4" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R4" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5">
@@ -766,10 +766,10 @@
         <v>0.7331534948783407</v>
       </c>
       <c r="P5" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q5" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R5" t="n">
         <v>780</v>
@@ -949,10 +949,10 @@
         <v>423</v>
       </c>
       <c r="Q8" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R8" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9">
@@ -1013,7 +1013,7 @@
         <v>780</v>
       </c>
       <c r="Q9" t="n">
-        <v>1105</v>
+        <v>780</v>
       </c>
       <c r="R9" t="n">
         <v>780</v>
@@ -1077,10 +1077,10 @@
         <v>130</v>
       </c>
       <c r="Q10" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R10" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1443,10 +1443,10 @@
         <v>98</v>
       </c>
       <c r="Q16" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R16" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -1504,13 +1504,13 @@
         <v>1.423166356990045</v>
       </c>
       <c r="P17" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q17" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R17" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18">
@@ -1806,7 +1806,7 @@
         <v>-0.3971185566050011</v>
       </c>
       <c r="P22" t="n">
-        <v>780</v>
+        <v>1105</v>
       </c>
       <c r="Q22" t="n">
         <v>1105</v>
@@ -1870,13 +1870,13 @@
         <v>-0.9082432151579863</v>
       </c>
       <c r="P23" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q23" t="n">
         <v>130</v>
       </c>
       <c r="R23" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1992,13 +1992,13 @@
         <v>2.713012736925825</v>
       </c>
       <c r="P25" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q25" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R25" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26">
@@ -2056,13 +2056,13 @@
         <v>2.091431924959317</v>
       </c>
       <c r="P26" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q26" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R26" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27">
@@ -2120,13 +2120,13 @@
         <v>1.774060230071668</v>
       </c>
       <c r="P27" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q27" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R27" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28">
@@ -2184,13 +2184,13 @@
         <v>1.47915973565849</v>
       </c>
       <c r="P28" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q28" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R28" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -2248,13 +2248,13 @@
         <v>1.130513154595927</v>
       </c>
       <c r="P29" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q29" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R29" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="30">
@@ -2382,11 +2382,13 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="Q31" t="n">
-        <v>780</v>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="R31" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2449,7 @@
         <v>780</v>
       </c>
       <c r="Q32" t="n">
-        <v>423</v>
+        <v>780</v>
       </c>
       <c r="R32" t="n">
         <v>455</v>
@@ -2508,13 +2510,13 @@
         <v>1.46036706496753</v>
       </c>
       <c r="P33" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q33" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R33" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34">
@@ -2572,13 +2574,13 @@
         <v>1.626775691469368</v>
       </c>
       <c r="P34" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q34" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R34" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="35">
@@ -2758,13 +2760,13 @@
         <v>5.528173576817856</v>
       </c>
       <c r="P37" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q37" t="n">
-        <v>780</v>
+        <v>1105</v>
       </c>
       <c r="R37" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="38">
@@ -2825,10 +2827,10 @@
         <v>780</v>
       </c>
       <c r="Q38" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R38" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39">
@@ -2886,13 +2888,13 @@
         <v>2.421028337227678</v>
       </c>
       <c r="P39" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q39" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R39" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="40">
@@ -2950,13 +2952,13 @@
         <v>1.209400921702676</v>
       </c>
       <c r="P40" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q40" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R40" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41">
@@ -3014,10 +3016,10 @@
         <v>0.6175700747981629</v>
       </c>
       <c r="P41" t="n">
-        <v>455</v>
+        <v>130</v>
       </c>
       <c r="Q41" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R41" t="n">
         <v>455</v>
@@ -3252,13 +3254,13 @@
         <v>2.489775795474349</v>
       </c>
       <c r="P45" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q45" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R45" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="46">
@@ -3316,13 +3318,13 @@
         <v>3.164291626438311</v>
       </c>
       <c r="P46" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q46" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R46" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47">
@@ -3380,13 +3382,13 @@
         <v>1.581723525763827</v>
       </c>
       <c r="P47" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q47" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R47" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48">
@@ -3502,13 +3504,13 @@
         <v>2.800879264400677</v>
       </c>
       <c r="P49" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q49" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R49" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="50">
@@ -3566,13 +3568,13 @@
         <v>1.025905087729987</v>
       </c>
       <c r="P50" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q50" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R50" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51">
@@ -3630,13 +3632,13 @@
         <v>0.8341367175995344</v>
       </c>
       <c r="P51" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q51" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R51" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="52">
@@ -3694,13 +3696,13 @@
         <v>2.668800894930122</v>
       </c>
       <c r="P52" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q52" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R52" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53">
@@ -3874,13 +3876,13 @@
         <v>-0.127033507375681</v>
       </c>
       <c r="P55" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q55" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R55" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="56">
@@ -3938,13 +3940,13 @@
         <v>-0.6750452029345015</v>
       </c>
       <c r="P56" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q56" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R56" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="57">
@@ -4002,10 +4004,10 @@
         <v>3.722558026865098</v>
       </c>
       <c r="P57" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q57" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R57" t="n">
         <v>1105</v>
@@ -4124,13 +4126,13 @@
         <v>1.716347358702464</v>
       </c>
       <c r="P59" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q59" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R59" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="60">
@@ -4188,13 +4190,13 @@
         <v>0.551246759031236</v>
       </c>
       <c r="P60" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q60" t="n">
         <v>455</v>
       </c>
-      <c r="Q60" t="n">
-        <v>423</v>
-      </c>
       <c r="R60" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61">
@@ -4316,7 +4318,7 @@
         <v>780</v>
       </c>
       <c r="R62" t="n">
-        <v>130</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63">
@@ -4377,7 +4379,7 @@
         <v>98</v>
       </c>
       <c r="Q63" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R63" t="n">
         <v>98</v>
@@ -4438,13 +4440,13 @@
         <v>2.218055772580776</v>
       </c>
       <c r="P64" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q64" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R64" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65">
@@ -4560,13 +4562,13 @@
         <v>1.384350614990204</v>
       </c>
       <c r="P66" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q66" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R66" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="67">
@@ -4624,13 +4626,13 @@
         <v>0.3037772340185541</v>
       </c>
       <c r="P67" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q67" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R67" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="68">
@@ -4877,10 +4879,10 @@
         <v>780</v>
       </c>
       <c r="Q71" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="R71" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72">
@@ -4941,10 +4943,10 @@
         <v>1105</v>
       </c>
       <c r="Q72" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R72" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="73">
@@ -5002,13 +5004,13 @@
         <v>1.027019318710666</v>
       </c>
       <c r="P73" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q73" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R73" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74">
@@ -5066,13 +5068,13 @@
         <v>1.591160174350925</v>
       </c>
       <c r="P74" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q74" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R74" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75">
@@ -5133,10 +5135,10 @@
         <v>130</v>
       </c>
       <c r="Q75" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R75" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
@@ -5252,13 +5254,13 @@
         <v>2.763033793281382</v>
       </c>
       <c r="P77" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q77" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R77" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
@@ -5316,13 +5318,13 @@
         <v>1.799533677724063</v>
       </c>
       <c r="P78" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q78" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R78" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="79">
@@ -5386,7 +5388,7 @@
         <v>455</v>
       </c>
       <c r="R79" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80">
@@ -5444,10 +5446,10 @@
         <v>1.959421946251032</v>
       </c>
       <c r="P80" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q80" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R80" t="n">
         <v>1105</v>
@@ -5572,13 +5574,13 @@
         <v>0.7007026935126186</v>
       </c>
       <c r="P82" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q82" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R82" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83">
@@ -5694,13 +5696,13 @@
         <v>2.657685430531701</v>
       </c>
       <c r="P84" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="Q84" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R84" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="85">
@@ -5822,7 +5824,7 @@
         <v>2.299506800430802</v>
       </c>
       <c r="P86" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q86" t="n">
         <v>130</v>
@@ -5944,13 +5946,13 @@
         <v>3.046666834338566</v>
       </c>
       <c r="P88" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q88" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R88" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
@@ -6011,7 +6013,7 @@
         <v>130</v>
       </c>
       <c r="Q89" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R89" t="n">
         <v>130</v>
@@ -6072,7 +6074,7 @@
         <v>3.405914004964458</v>
       </c>
       <c r="P90" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q90" t="n">
         <v>455</v>
@@ -6136,7 +6138,7 @@
         <v>2.180755584088995</v>
       </c>
       <c r="P91" t="n">
-        <v>780</v>
+        <v>1105</v>
       </c>
       <c r="Q91" t="n">
         <v>780</v>
@@ -6200,13 +6202,13 @@
         <v>6.289578334971061</v>
       </c>
       <c r="P92" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q92" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R92" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
@@ -6322,13 +6324,13 @@
         <v>1.229298551084618</v>
       </c>
       <c r="P94" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q94" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="R94" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95">
@@ -6389,10 +6391,10 @@
         <v>1105</v>
       </c>
       <c r="Q95" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="R95" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="96">
@@ -6508,7 +6510,7 @@
         <v>1.766165779267369</v>
       </c>
       <c r="P97" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q97" t="n">
         <v>455</v>
@@ -6571,14 +6573,18 @@
       <c r="O98" t="n">
         <v>0.2150985878251888</v>
       </c>
-      <c r="P98" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>98</v>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="R98" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
@@ -6636,13 +6642,13 @@
         <v>-0.5518350296001984</v>
       </c>
       <c r="P99" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q99" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="R99" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -580,13 +580,13 @@
         <v>3.441612809865843</v>
       </c>
       <c r="P2" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R2" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -702,13 +702,13 @@
         <v>1.524283271710701</v>
       </c>
       <c r="P4" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q4" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R4" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5">
@@ -766,10 +766,10 @@
         <v>0.7331534948783407</v>
       </c>
       <c r="P5" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q5" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R5" t="n">
         <v>780</v>
@@ -1013,7 +1013,7 @@
         <v>780</v>
       </c>
       <c r="Q9" t="n">
-        <v>780</v>
+        <v>1105</v>
       </c>
       <c r="R9" t="n">
         <v>780</v>
@@ -1077,10 +1077,10 @@
         <v>130</v>
       </c>
       <c r="Q10" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R10" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -1318,7 +1318,7 @@
         <v>2.56458249796159</v>
       </c>
       <c r="P14" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q14" t="n">
         <v>780</v>
@@ -1443,10 +1443,10 @@
         <v>98</v>
       </c>
       <c r="Q16" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R16" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -1504,13 +1504,13 @@
         <v>1.423166356990045</v>
       </c>
       <c r="P17" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q17" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R17" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18">
@@ -1568,7 +1568,7 @@
         <v>1.35364796253652</v>
       </c>
       <c r="P18" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q18" t="n">
         <v>780</v>
@@ -1806,13 +1806,13 @@
         <v>-0.3971185566050011</v>
       </c>
       <c r="P22" t="n">
-        <v>1105</v>
+        <v>780</v>
       </c>
       <c r="Q22" t="n">
         <v>1105</v>
       </c>
       <c r="R22" t="n">
-        <v>1105</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23">
@@ -1870,13 +1870,13 @@
         <v>-0.9082432151579863</v>
       </c>
       <c r="P23" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q23" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R23" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -1992,13 +1992,13 @@
         <v>2.713012736925825</v>
       </c>
       <c r="P25" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q25" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R25" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="26">
@@ -2056,13 +2056,13 @@
         <v>2.091431924959317</v>
       </c>
       <c r="P26" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q26" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R26" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27">
@@ -2126,7 +2126,7 @@
         <v>455</v>
       </c>
       <c r="R27" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28">
@@ -2184,13 +2184,13 @@
         <v>1.47915973565849</v>
       </c>
       <c r="P28" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q28" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R28" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -2248,13 +2248,13 @@
         <v>1.130513154595927</v>
       </c>
       <c r="P29" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q29" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R29" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="30">
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="32">
@@ -2445,11 +2445,15 @@
       <c r="O32" t="n">
         <v>1.839043469918368</v>
       </c>
-      <c r="P32" t="n">
-        <v>780</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>780</v>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="R32" t="n">
         <v>455</v>
@@ -2510,13 +2514,13 @@
         <v>1.46036706496753</v>
       </c>
       <c r="P33" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q33" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R33" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34">
@@ -2574,13 +2578,13 @@
         <v>1.626775691469368</v>
       </c>
       <c r="P34" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q34" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R34" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="35">
@@ -2702,7 +2706,7 @@
         <v>455</v>
       </c>
       <c r="R36" t="n">
-        <v>130</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37">
@@ -2759,14 +2763,16 @@
       <c r="O37" t="n">
         <v>5.528173576817856</v>
       </c>
-      <c r="P37" t="n">
-        <v>1105</v>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="Q37" t="n">
-        <v>1105</v>
+        <v>780</v>
       </c>
       <c r="R37" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38">
@@ -2827,10 +2833,10 @@
         <v>780</v>
       </c>
       <c r="Q38" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R38" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39">
@@ -2888,13 +2894,13 @@
         <v>2.421028337227678</v>
       </c>
       <c r="P39" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q39" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R39" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="40">
@@ -2952,13 +2958,13 @@
         <v>1.209400921702676</v>
       </c>
       <c r="P40" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q40" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R40" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41">
@@ -3019,10 +3025,10 @@
         <v>130</v>
       </c>
       <c r="Q41" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R41" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42">
@@ -3254,13 +3260,13 @@
         <v>2.489775795474349</v>
       </c>
       <c r="P45" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q45" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R45" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="46">
@@ -3318,13 +3324,13 @@
         <v>3.164291626438311</v>
       </c>
       <c r="P46" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q46" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R46" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="47">
@@ -3382,13 +3388,13 @@
         <v>1.581723525763827</v>
       </c>
       <c r="P47" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q47" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R47" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
@@ -3504,13 +3510,13 @@
         <v>2.800879264400677</v>
       </c>
       <c r="P49" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q49" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R49" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="50">
@@ -3568,13 +3574,13 @@
         <v>1.025905087729987</v>
       </c>
       <c r="P50" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q50" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R50" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
@@ -3632,13 +3638,13 @@
         <v>0.8341367175995344</v>
       </c>
       <c r="P51" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q51" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R51" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="52">
@@ -3696,13 +3702,13 @@
         <v>2.668800894930122</v>
       </c>
       <c r="P52" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q52" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R52" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53">
@@ -3876,13 +3882,13 @@
         <v>-0.127033507375681</v>
       </c>
       <c r="P55" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q55" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R55" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="56">
@@ -3940,13 +3946,13 @@
         <v>-0.6750452029345015</v>
       </c>
       <c r="P56" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q56" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R56" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="57">
@@ -4004,10 +4010,10 @@
         <v>3.722558026865098</v>
       </c>
       <c r="P57" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q57" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R57" t="n">
         <v>1105</v>
@@ -4126,13 +4132,13 @@
         <v>1.716347358702464</v>
       </c>
       <c r="P59" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q59" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R59" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="60">
@@ -4190,13 +4196,13 @@
         <v>0.551246759031236</v>
       </c>
       <c r="P60" t="n">
-        <v>130</v>
+        <v>455</v>
       </c>
       <c r="Q60" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R60" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61">
@@ -4318,7 +4324,7 @@
         <v>780</v>
       </c>
       <c r="R62" t="n">
-        <v>455</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -4379,7 +4385,7 @@
         <v>98</v>
       </c>
       <c r="Q63" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R63" t="n">
         <v>98</v>
@@ -4440,13 +4446,13 @@
         <v>2.218055772580776</v>
       </c>
       <c r="P64" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q64" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R64" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65">
@@ -4562,13 +4568,13 @@
         <v>1.384350614990204</v>
       </c>
       <c r="P66" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q66" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R66" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="67">
@@ -4626,13 +4632,13 @@
         <v>0.3037772340185541</v>
       </c>
       <c r="P67" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q67" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R67" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="68">
@@ -4876,13 +4882,13 @@
         <v>2.750806211455885</v>
       </c>
       <c r="P71" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q71" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="R71" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="72">
@@ -4943,7 +4949,7 @@
         <v>1105</v>
       </c>
       <c r="Q72" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R72" t="n">
         <v>1105</v>
@@ -5004,13 +5010,13 @@
         <v>1.027019318710666</v>
       </c>
       <c r="P73" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q73" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R73" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74">
@@ -5068,10 +5074,10 @@
         <v>1.591160174350925</v>
       </c>
       <c r="P74" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q74" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R74" t="n">
         <v>455</v>
@@ -5135,10 +5141,10 @@
         <v>130</v>
       </c>
       <c r="Q75" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R75" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
@@ -5254,13 +5260,13 @@
         <v>2.763033793281382</v>
       </c>
       <c r="P77" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q77" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R77" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78">
@@ -5318,13 +5324,13 @@
         <v>1.799533677724063</v>
       </c>
       <c r="P78" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q78" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R78" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="79">
@@ -5382,13 +5388,13 @@
         <v>1.878994425455848</v>
       </c>
       <c r="P79" t="n">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="Q79" t="n">
         <v>455</v>
       </c>
       <c r="R79" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80">
@@ -5449,7 +5455,7 @@
         <v>1105</v>
       </c>
       <c r="Q80" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R80" t="n">
         <v>1105</v>
@@ -5580,7 +5586,7 @@
         <v>455</v>
       </c>
       <c r="R82" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83">
@@ -5696,7 +5702,7 @@
         <v>2.657685430531701</v>
       </c>
       <c r="P84" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="Q84" t="n">
         <v>1105</v>
@@ -5824,13 +5830,13 @@
         <v>2.299506800430802</v>
       </c>
       <c r="P86" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q86" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R86" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
@@ -6010,10 +6016,10 @@
         <v>3.694977243683372</v>
       </c>
       <c r="P89" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q89" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R89" t="n">
         <v>130</v>
@@ -6080,7 +6086,7 @@
         <v>455</v>
       </c>
       <c r="R90" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91">
@@ -6138,7 +6144,7 @@
         <v>2.180755584088995</v>
       </c>
       <c r="P91" t="n">
-        <v>1105</v>
+        <v>780</v>
       </c>
       <c r="Q91" t="n">
         <v>780</v>
@@ -6208,7 +6214,7 @@
         <v>130</v>
       </c>
       <c r="R92" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
@@ -6324,13 +6330,13 @@
         <v>1.229298551084618</v>
       </c>
       <c r="P94" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q94" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R94" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95">
@@ -6391,10 +6397,10 @@
         <v>1105</v>
       </c>
       <c r="Q95" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="R95" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="96">
@@ -6510,7 +6516,7 @@
         <v>1.766165779267369</v>
       </c>
       <c r="P97" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q97" t="n">
         <v>455</v>
@@ -6573,18 +6579,14 @@
       <c r="O98" t="n">
         <v>0.2150985878251888</v>
       </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+      <c r="P98" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>98</v>
       </c>
       <c r="R98" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
@@ -6645,10 +6647,10 @@
         <v>130</v>
       </c>
       <c r="Q99" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="R99" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2136,62 +2136,56 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.538939756016481</v>
+        <v>11.6745941511995</v>
       </c>
       <c r="E28" t="n">
-        <v>3.758346497848085</v>
+        <v>11.5522255221292</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8280229965304783</v>
+        <v>0.9895183826105229</v>
       </c>
       <c r="G28" t="n">
-        <v>1.033683128043664</v>
+        <v>1.378097746486022</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.419668912887573</v>
+        <v>-11.59297180175781</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1307</v>
+        <v>1316</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[-0.013370522297918797, -0.8900471329689026, -1.4354690313339233]</t>
+          <t>[-0.3461155891418457, 0.052372146397829056, -2.328737497329712]</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.68906307220459</v>
+        <v>2.35490083694458</v>
       </c>
       <c r="M28" t="n">
-        <v>14.01993846893311</v>
+        <v>11.87360858917236</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8757279544678656</v>
+        <v>0.9966853552791446</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47915973565849</v>
-      </c>
-      <c r="P28" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>98</v>
-      </c>
-      <c r="R28" t="n">
-        <v>98</v>
-      </c>
+        <v>2.347095012760431</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2200,61 +2194,63 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.538939756016481</v>
+        <v>11.6745941511995</v>
       </c>
       <c r="E29" t="n">
-        <v>3.758346497848085</v>
+        <v>11.5522255221292</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8280229965304783</v>
+        <v>0.9895183826105229</v>
       </c>
       <c r="G29" t="n">
-        <v>1.033683128043664</v>
+        <v>1.378097746486022</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.419668912887573</v>
+        <v>-11.59297180175781</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1460</v>
+        <v>1306</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.07012513279914856, 0.7181707620620728, -1.3524318933486938]</t>
+          <t>[-1.8574953079223633, 0.8867517709732056, -4.2414045333862305]</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.532892346382141</v>
+        <v>4.714459419250488</v>
       </c>
       <c r="M29" t="n">
-        <v>14.71679401397705</v>
+        <v>8.39176082611084</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7375033161043688</v>
+        <v>0.9703526311906902</v>
       </c>
       <c r="O29" t="n">
-        <v>1.130513154595927</v>
+        <v>4.574688341109766</v>
       </c>
       <c r="P29" t="n">
-        <v>1073</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1073</v>
+        <v>780</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="R29" t="n">
-        <v>1073</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30">
@@ -2264,97 +2260,95 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4.538939756016481</v>
+        <v>11.6745941511995</v>
       </c>
       <c r="E30" t="n">
-        <v>3.758346497848085</v>
+        <v>11.5522255221292</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8280229965304783</v>
+        <v>0.9895183826105229</v>
       </c>
       <c r="G30" t="n">
-        <v>1.033683128043664</v>
+        <v>1.378097746486022</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.419668912887573</v>
+        <v>-11.59297180175781</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1306</v>
+        <v>1460</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[-1.0510830879211426, -0.1106332540512085, -1.631767988204956]</t>
+          <t>[0.46047669649124146, 1.5771710872650146, -1.9888637065887451]</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.944140434265137</v>
+        <v>2.579745531082153</v>
       </c>
       <c r="M30" t="n">
-        <v>13.0678825378418</v>
+        <v>11.34437656402588</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5908387561172265</v>
+        <v>0.7267480067537534</v>
       </c>
       <c r="O30" t="n">
-        <v>1.148673533190998</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+        <v>1.874824819083032</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1073</v>
       </c>
       <c r="Q30" t="n">
-        <v>455</v>
+        <v>1073</v>
       </c>
       <c r="R30" t="n">
-        <v>780</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4995</v>
+        <v>4415</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7.995896765749374</v>
+        <v>11.6745941511995</v>
       </c>
       <c r="E31" t="n">
-        <v>7.949022122312232</v>
+        <v>11.5522255221292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9941376627524844</v>
+        <v>0.9895183826105229</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8884617097054888</v>
+        <v>1.378097746486022</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.946382880210876</v>
+        <v>-11.59297180175781</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2362,33 +2356,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[-0.07242100685834885, -0.12115886062383652, -3.0449378490448]</t>
+          <t>[0.4999687671661377, -3.111016035079956, -3.033966064453125]</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.048207759857178</v>
+        <v>4.374167442321777</v>
       </c>
       <c r="M31" t="n">
-        <v>10.43630504608154</v>
+        <v>8.712069511413574</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9916764005175307</v>
+        <v>0.6299753051365686</v>
       </c>
       <c r="O31" t="n">
-        <v>3.022835736580715</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
+        <v>2.75561738317462</v>
+      </c>
+      <c r="P31" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>98</v>
       </c>
       <c r="R31" t="n">
-        <v>1073</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -2398,66 +2388,56 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7.995896765749374</v>
+        <v>15.53439155601749</v>
       </c>
       <c r="E32" t="n">
-        <v>7.949022122312232</v>
+        <v>15.31075270340408</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9941376627524844</v>
+        <v>0.9856036297394098</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8884617097054888</v>
+        <v>1.329044871549389</v>
       </c>
       <c r="H32" t="n">
-        <v>-7.946382880210876</v>
+        <v>-15.47743391990662</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1460</v>
+        <v>1320</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[-0.8827682137489319, -0.0563669316470623, -1.7279608249664307]</t>
+          <t>[-0.1475171595811844, -0.04048118740320206, -2.020209789276123]</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.94121241569519</v>
+        <v>2.02599310874939</v>
       </c>
       <c r="M32" t="n">
-        <v>13.07773494720459</v>
+        <v>12.80118179321289</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9473684974300527</v>
+        <v>0.9871697615720927</v>
       </c>
       <c r="O32" t="n">
-        <v>1.839043469918368</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
-        <v>455</v>
-      </c>
+        <v>1.999999025670778</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2466,61 +2446,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7.995896765749374</v>
+        <v>15.53439155601749</v>
       </c>
       <c r="E33" t="n">
-        <v>7.949022122312232</v>
+        <v>15.31075270340408</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9941376627524844</v>
+        <v>0.9856036297394098</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8884617097054888</v>
+        <v>1.329044871549389</v>
       </c>
       <c r="H33" t="n">
-        <v>-7.946382880210876</v>
+        <v>-15.47743391990662</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[-0.4053342640399933, -0.8712661266326904, -1.413935661315918]</t>
+          <t>[1.1264777183532715, -0.256988525390625, -4.005494594573975]</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.70956563949585</v>
+        <v>4.168810844421387</v>
       </c>
       <c r="M33" t="n">
-        <v>13.93561553955078</v>
+        <v>8.924069404602051</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8542328263445506</v>
+        <v>0.980656329299906</v>
       </c>
       <c r="O33" t="n">
-        <v>1.46036706496753</v>
-      </c>
-      <c r="P33" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>423</v>
-      </c>
-      <c r="R33" t="n">
-        <v>423</v>
+        <v>4.088170533548311</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2530,31 +2516,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[-0.5935544595122337, -0.6611031033098698, -7.9463828802108765]</t>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7.995896765749374</v>
+        <v>15.53439155601749</v>
       </c>
       <c r="E34" t="n">
-        <v>7.949022122312232</v>
+        <v>15.31075270340408</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9941376627524844</v>
+        <v>0.9856036297394098</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8884617097054888</v>
+        <v>1.329044871549389</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.946382880210876</v>
+        <v>-15.47743391990662</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[-0.8656425476074219, -0.01506805419921875, -5.828033447265625]</t>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2562,20 +2548,20 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[0.7669690251350403, 0.3876888155937195, -1.759548544883728]</t>
+          <t>[1.8541682958602905, 1.3925756216049194, -2.6088037490844727]</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.958202004432678</v>
+        <v>3.490424633026123</v>
       </c>
       <c r="M34" t="n">
-        <v>13.02087879180908</v>
+        <v>9.752813339233398</v>
       </c>
       <c r="N34" t="n">
-        <v>0.8307496712078332</v>
+        <v>0.7898546750614521</v>
       </c>
       <c r="O34" t="n">
-        <v>1.626775691469368</v>
+        <v>2.756928193262113</v>
       </c>
       <c r="P34" t="n">
         <v>1073</v>
@@ -2590,123 +2576,133 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5269</v>
+        <v>4994</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15.95114362297072</v>
+        <v>15.53439155601749</v>
       </c>
       <c r="E35" t="n">
-        <v>11.94879988912038</v>
+        <v>15.31075270340408</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7490873489417593</v>
+        <v>0.9856036297394098</v>
       </c>
       <c r="G35" t="n">
-        <v>7.46300424749503</v>
+        <v>1.329044871549389</v>
       </c>
       <c r="H35" t="n">
-        <v>-14.09760797023773</v>
+        <v>-15.47743391990662</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1403</v>
+        <v>1460</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[-0.3197493553161621, 0.288761705160141, -2.3088576793670654]</t>
+          <t>[-3.4404945373535156, 0.21569806337356567, -5.306490421295166]</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.348711729049683</v>
+        <v>6.327904224395752</v>
       </c>
       <c r="M35" t="n">
-        <v>11.88924217224121</v>
+        <v>7.243343830108643</v>
       </c>
       <c r="N35" t="n">
-        <v>0.9125800371947513</v>
+        <v>0.7884745401546881</v>
       </c>
       <c r="O35" t="n">
-        <v>2.143387431225561</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+        <v>4.989391188704489</v>
+      </c>
+      <c r="P35" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5269</v>
+        <v>4994</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15.95114362297072</v>
+        <v>15.53439155601749</v>
       </c>
       <c r="E36" t="n">
-        <v>11.94879988912038</v>
+        <v>15.31075270340408</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7490873489417593</v>
+        <v>0.9856036297394098</v>
       </c>
       <c r="G36" t="n">
-        <v>7.46300424749503</v>
+        <v>1.329044871549389</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.09760797023773</v>
+        <v>-15.47743391990662</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[-2.9148778915405273, -2.9359593391418457, -3.625190496444702]</t>
+          <t>[-0.6615299582481384, -1.7061065435409546, -1.5364353656768799]</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5.50076150894165</v>
+        <v>2.389362812042236</v>
       </c>
       <c r="M36" t="n">
-        <v>7.768866062164307</v>
+        <v>11.78767013549805</v>
       </c>
       <c r="N36" t="n">
-        <v>0.662242245518847</v>
+        <v>0.6178482981706551</v>
       </c>
       <c r="O36" t="n">
-        <v>3.642836612869096</v>
+        <v>1.4762638000005</v>
       </c>
       <c r="P36" t="n">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="Q36" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="R36" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37">
@@ -2744,36 +2740,28 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1320</v>
+        <v>1403</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[-1.0187950134277344, 6.049768924713135, -6.9975690841674805]</t>
+          <t>[-0.3197493553161621, 0.288761705160141, -2.3088576793670654]</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>9.306106567382812</v>
+        <v>2.348711729049683</v>
       </c>
       <c r="M37" t="n">
-        <v>5.972897052764893</v>
+        <v>11.88924217224121</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5940372062105592</v>
+        <v>0.9125800371947513</v>
       </c>
       <c r="O37" t="n">
-        <v>5.528173576817856</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>780</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1073</v>
-      </c>
+        <v>2.143387431225561</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2810,94 +2798,96 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[-0.9879137277603149, 1.9101332426071167, -1.1659907102584839]</t>
+          <t>[-2.9148778915405273, -2.9359593391418457, -3.625190496444702]</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.446245431900024</v>
+        <v>5.50076150894165</v>
       </c>
       <c r="M38" t="n">
-        <v>11.64981460571289</v>
+        <v>7.768866062164307</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2593372636546249</v>
+        <v>0.662242245518847</v>
       </c>
       <c r="O38" t="n">
-        <v>0.6344026050880931</v>
+        <v>3.642836612869096</v>
       </c>
       <c r="P38" t="n">
-        <v>780</v>
+        <v>130</v>
       </c>
       <c r="Q38" t="n">
-        <v>748</v>
+        <v>455</v>
       </c>
       <c r="R38" t="n">
-        <v>748</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5400</v>
+        <v>5269</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3.686563577311224</v>
+        <v>15.95114362297072</v>
       </c>
       <c r="E39" t="n">
-        <v>2.799045007488103</v>
+        <v>11.94879988912038</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7592558622112715</v>
+        <v>0.7490873489417593</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6196689777840458</v>
+        <v>7.46300424749503</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.634110808372498</v>
+        <v>-14.09760797023773</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1469</v>
+        <v>1320</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[0.791297435760498, 0.621355414390564, -2.222032308578491]</t>
+          <t>[-1.0187950134277344, 6.049768924713135, -6.9975690841674805]</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.439192771911621</v>
+        <v>9.306106567382812</v>
       </c>
       <c r="M39" t="n">
-        <v>11.66664505004883</v>
+        <v>5.972897052764893</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9925530638026502</v>
+        <v>0.5940372062105592</v>
       </c>
       <c r="O39" t="n">
-        <v>2.421028337227678</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1073</v>
+        <v>5.528173576817856</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="Q39" t="n">
-        <v>1073</v>
+        <v>780</v>
       </c>
       <c r="R39" t="n">
         <v>1073</v>
@@ -2906,35 +2896,35 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5400</v>
+        <v>5269</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.686563577311224</v>
+        <v>15.95114362297072</v>
       </c>
       <c r="E40" t="n">
-        <v>2.799045007488103</v>
+        <v>11.94879988912038</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7592558622112715</v>
+        <v>0.7490873489417593</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6196689777840458</v>
+        <v>7.46300424749503</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.634110808372498</v>
+        <v>-14.09760797023773</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2942,23 +2932,23 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[-1.1405926942825317, 0.7522609829902649, -1.6077313423156738]</t>
+          <t>[-0.9879137277603149, 1.9101332426071167, -1.1659907102584839]</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.109892845153809</v>
+        <v>2.446245431900024</v>
       </c>
       <c r="M40" t="n">
-        <v>12.54408073425293</v>
+        <v>11.64981460571289</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5732048678398108</v>
+        <v>0.2593372636546249</v>
       </c>
       <c r="O40" t="n">
-        <v>1.209400921702676</v>
+        <v>0.6344026050880931</v>
       </c>
       <c r="P40" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q40" t="n">
         <v>748</v>
@@ -2974,62 +2964,56 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3.686563577311224</v>
+        <v>10.94972148749287</v>
       </c>
       <c r="E41" t="n">
-        <v>2.799045007488103</v>
+        <v>9.907631183671697</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7592558622112715</v>
+        <v>0.9048295150692662</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6196689777840458</v>
+        <v>3.424356854137818</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.634110808372498</v>
+        <v>-10.40048944950104</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1309</v>
+        <v>2436</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[-0.17910051345825195, -1.473112940788269, -1.4012798070907593]</t>
+          <t>[-0.5522236227989197, -0.3873722553253174, -3.264085531234741]</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.04101037979126</v>
+        <v>3.333055973052979</v>
       </c>
       <c r="M41" t="n">
-        <v>12.75399971008301</v>
+        <v>9.980395317077637</v>
       </c>
       <c r="N41" t="n">
-        <v>0.3025805488274198</v>
+        <v>0.9801603900444591</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6175700747981629</v>
-      </c>
-      <c r="P41" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>98</v>
-      </c>
-      <c r="R41" t="n">
-        <v>423</v>
-      </c>
+        <v>3.266929505737479</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3038,172 +3022,190 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[-0.5166961327195168, -0.3420741856098175, -3.6341108083724976]</t>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.686563577311224</v>
+        <v>10.94972148749287</v>
       </c>
       <c r="E42" t="n">
-        <v>2.799045007488103</v>
+        <v>9.907631183671697</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7592558622112715</v>
+        <v>0.9048295150692662</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6196689777840458</v>
+        <v>3.424356854137818</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.634110808372498</v>
+        <v>-10.40048944950104</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[2.126842498779297, 1.966888427734375, -4.8167266845703125]</t>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1403</v>
+        <v>1469</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[0.01169963926076889, -0.24257764220237732, 1.5969326496124268]</t>
+          <t>[2.148010492324829, 3.888089656829834, -3.9567387104034424]</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.615293979644775</v>
+        <v>5.948694705963135</v>
       </c>
       <c r="M42" t="n">
-        <v>14.33650398254395</v>
+        <v>7.470646381378174</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.8970221043838721</v>
+        <v>0.5814498537782196</v>
       </c>
       <c r="O42" t="n">
-        <v>-1.448954416141859</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+        <v>3.458867802443283</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5677</v>
+        <v>5399</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13.16414400671556</v>
+        <v>10.94972148749287</v>
       </c>
       <c r="E43" t="n">
-        <v>13.05513052554926</v>
+        <v>9.907631183671697</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9917189084903139</v>
+        <v>0.9048295150692662</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9116724501931796</v>
+        <v>3.424356854137818</v>
       </c>
       <c r="H43" t="n">
-        <v>-13.13253748416901</v>
+        <v>-10.40048944950104</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1380</v>
+        <v>1309</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[0.2080385684967041, -0.2713145911693573, -4.193719387054443]</t>
+          <t>[-0.98553866147995, -3.2337822914123535, -1.1632522344589233]</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4.207633018493652</v>
+        <v>3.575162887573242</v>
       </c>
       <c r="M43" t="n">
-        <v>8.882804870605469</v>
+        <v>9.636539459228516</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9959551528948135</v>
+        <v>0.4362069520366343</v>
       </c>
       <c r="O43" t="n">
-        <v>4.190613588897197</v>
-      </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+        <v>1.559510933663953</v>
+      </c>
+      <c r="P43" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>130</v>
+      </c>
+      <c r="R43" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5677</v>
+        <v>5399</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13.16414400671556</v>
+        <v>10.94972148749287</v>
       </c>
       <c r="E44" t="n">
-        <v>13.05513052554926</v>
+        <v>9.907631183671697</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9917189084903139</v>
+        <v>0.9048295150692662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9116724501931796</v>
+        <v>3.424356854137818</v>
       </c>
       <c r="H44" t="n">
-        <v>-13.13253748416901</v>
+        <v>-10.40048944950104</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1476</v>
+        <v>1306</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>[0.016993116587400436, -0.13155724108219147, -1.6357070207595825]</t>
+          <t>[-3.1758079528808594, 2.0011308193206787, -2.0164129734039307]</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.641076922416687</v>
+        <v>4.261009693145752</v>
       </c>
       <c r="M44" t="n">
-        <v>14.22343730926514</v>
+        <v>8.826992988586426</v>
       </c>
       <c r="N44" t="n">
-        <v>0.9924739774005474</v>
+        <v>0.3807367118006973</v>
       </c>
       <c r="O44" t="n">
-        <v>1.628726160418765</v>
-      </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+        <v>1.622322747314591</v>
+      </c>
+      <c r="P44" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>748</v>
+      </c>
+      <c r="R44" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3240,34 +3242,28 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2443</v>
+        <v>1380</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[2.2294209003448486, 1.050384759902954, -2.2944509983062744]</t>
+          <t>[0.2080385684967041, -0.2713145911693573, -4.193719387054443]</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.367214202880859</v>
+        <v>4.207633018493652</v>
       </c>
       <c r="M45" t="n">
-        <v>9.929643630981445</v>
+        <v>8.882804870605469</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7394171236063281</v>
+        <v>0.9959551528948135</v>
       </c>
       <c r="O45" t="n">
-        <v>2.489775795474349</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1073</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1073</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1073</v>
-      </c>
+        <v>4.190613588897197</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3304,34 +3300,28 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1469</v>
+        <v>1476</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[-2.146965980529785, 2.0441834926605225, -3.3131890296936035]</t>
+          <t>[0.016993116587400436, -0.13155724108219147, -1.6357070207595825]</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4.445826053619385</v>
+        <v>1.641076922416687</v>
       </c>
       <c r="M46" t="n">
-        <v>8.641572952270508</v>
+        <v>14.22343730926514</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7117443378488206</v>
+        <v>0.9924739774005474</v>
       </c>
       <c r="O46" t="n">
-        <v>3.164291626438311</v>
-      </c>
-      <c r="P46" t="n">
-        <v>748</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>748</v>
-      </c>
-      <c r="R46" t="n">
-        <v>748</v>
-      </c>
+        <v>1.628726160418765</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3368,67 +3358,67 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>2434</v>
+        <v>2443</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[-0.8504688143730164, -1.9593597650527954, -1.6954710483551025]</t>
+          <t>[2.2294209003448486, 1.050384759902954, -2.2944509983062744]</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.727088212966919</v>
+        <v>3.367214202880859</v>
       </c>
       <c r="M47" t="n">
-        <v>11.03365612030029</v>
+        <v>9.929643630981445</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5800045390704807</v>
+        <v>0.7394171236063281</v>
       </c>
       <c r="O47" t="n">
-        <v>1.581723525763827</v>
+        <v>2.489775795474349</v>
       </c>
       <c r="P47" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
       <c r="Q47" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
       <c r="R47" t="n">
-        <v>423</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5331</v>
+        <v>5677</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7.661864927241597</v>
+        <v>13.16414400671556</v>
       </c>
       <c r="E48" t="n">
-        <v>6.197000074719476</v>
+        <v>13.05513052554926</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8088109270480839</v>
+        <v>0.9917189084903139</v>
       </c>
       <c r="G48" t="n">
-        <v>1.600000022828894</v>
+        <v>0.9116724501931796</v>
       </c>
       <c r="H48" t="n">
-        <v>-7.492941617965698</v>
+        <v>-13.13253748416901</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3436,87 +3426,93 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[-0.1614212542772293, -0.08120483160018921, -1.773813009262085]</t>
+          <t>[-2.146965980529785, 2.0441834926605225, -3.3131890296936035]</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.782992839813232</v>
+        <v>4.445826053619385</v>
       </c>
       <c r="M48" t="n">
-        <v>13.64564990997314</v>
+        <v>8.641572952270508</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8615170809308654</v>
+        <v>0.7117443378488206</v>
       </c>
       <c r="O48" t="n">
-        <v>1.536078827991297</v>
-      </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+        <v>3.164291626438311</v>
+      </c>
+      <c r="P48" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>748</v>
+      </c>
+      <c r="R48" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5331</v>
+        <v>5677</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7.661864927241597</v>
+        <v>13.16414400671556</v>
       </c>
       <c r="E49" t="n">
-        <v>6.197000074719476</v>
+        <v>13.05513052554926</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8088109270480839</v>
+        <v>0.9917189084903139</v>
       </c>
       <c r="G49" t="n">
-        <v>1.600000022828894</v>
+        <v>0.9116724501931796</v>
       </c>
       <c r="H49" t="n">
-        <v>-7.492941617965698</v>
+        <v>-13.13253748416901</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1320</v>
+        <v>2434</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[1.4149909019470215, 1.8132896423339844, -2.7240469455718994]</t>
+          <t>[-0.8504688143730164, -1.9593597650527954, -1.6954710483551025]</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.565199851989746</v>
+        <v>2.727088212966919</v>
       </c>
       <c r="M49" t="n">
-        <v>9.649994850158691</v>
+        <v>11.03365612030029</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7856163304683783</v>
+        <v>0.5800045390704807</v>
       </c>
       <c r="O49" t="n">
-        <v>2.800879264400677</v>
+        <v>1.581723525763827</v>
       </c>
       <c r="P49" t="n">
-        <v>1073</v>
+        <v>423</v>
       </c>
       <c r="Q49" t="n">
-        <v>1073</v>
+        <v>423</v>
       </c>
       <c r="R49" t="n">
-        <v>1073</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
@@ -3554,34 +3550,28 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1309</v>
+        <v>1469</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[-0.5008364319801331, -1.207638144493103, -1.198835849761963]</t>
+          <t>[-0.1614212542772293, -0.08120483160018921, -1.773813009262085]</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.773819088935852</v>
+        <v>1.782992839813232</v>
       </c>
       <c r="M50" t="n">
-        <v>13.6808910369873</v>
+        <v>13.64564990997314</v>
       </c>
       <c r="N50" t="n">
-        <v>0.5783594576891403</v>
+        <v>0.8615170809308654</v>
       </c>
       <c r="O50" t="n">
-        <v>1.025905087729987</v>
-      </c>
-      <c r="P50" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>423</v>
-      </c>
-      <c r="R50" t="n">
-        <v>423</v>
-      </c>
+        <v>1.536078827991297</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3618,88 +3608,88 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[-1.5940940380096436, 0.8364765644073486, -1.796245813369751]</t>
+          <t>[1.4149909019470215, 1.8132896423339844, -2.7240469455718994]</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.543094158172607</v>
+        <v>3.565199851989746</v>
       </c>
       <c r="M51" t="n">
-        <v>11.42583179473877</v>
+        <v>9.649994850158691</v>
       </c>
       <c r="N51" t="n">
-        <v>0.3280007218306903</v>
+        <v>0.7856163304683783</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8341367175995344</v>
+        <v>2.800879264400677</v>
       </c>
       <c r="P51" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
       <c r="Q51" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
       <c r="R51" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5886</v>
+        <v>5331</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>11.22127939195731</v>
+        <v>7.661864927241597</v>
       </c>
       <c r="E52" t="n">
-        <v>3.249131952150527</v>
+        <v>6.197000074719476</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2895509360972953</v>
+        <v>0.8088109270480839</v>
       </c>
       <c r="G52" t="n">
-        <v>2.215555740782969</v>
+        <v>1.600000022828894</v>
       </c>
       <c r="H52" t="n">
-        <v>-11.00038290023804</v>
+        <v>-7.492941617965698</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>2434</v>
+        <v>1309</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[-2.1075210571289062, -1.6291656494140625, -2.518554925918579]</t>
+          <t>[-0.5008364319801331, -1.207638144493103, -1.198835849761963]</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.665916681289673</v>
+        <v>1.773819088935852</v>
       </c>
       <c r="M52" t="n">
-        <v>9.516510963439941</v>
+        <v>13.6808910369873</v>
       </c>
       <c r="N52" t="n">
-        <v>0.7280037094661771</v>
+        <v>0.5783594576891403</v>
       </c>
       <c r="O52" t="n">
-        <v>2.668800894930122</v>
+        <v>1.025905087729987</v>
       </c>
       <c r="P52" t="n">
         <v>423</v>
@@ -3714,60 +3704,66 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5886</v>
+        <v>5331</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11.22127939195731</v>
+        <v>7.661864927241597</v>
       </c>
       <c r="E53" t="n">
-        <v>3.249131952150527</v>
+        <v>6.197000074719476</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2895509360972953</v>
+        <v>0.8088109270480839</v>
       </c>
       <c r="G53" t="n">
-        <v>2.215555740782969</v>
+        <v>1.600000022828894</v>
       </c>
       <c r="H53" t="n">
-        <v>-11.00038290023804</v>
+        <v>-7.492941617965698</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1355</v>
+        <v>1306</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[0.08797405660152435, 0.13495370745658875, -1.4901376962661743]</t>
+          <t>[-1.5940940380096436, 0.8364765644073486, -1.796245813369751]</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.498820185661316</v>
+        <v>2.543094158172607</v>
       </c>
       <c r="M53" t="n">
-        <v>14.88313007354736</v>
+        <v>11.42583179473877</v>
       </c>
       <c r="N53" t="n">
-        <v>0.3561971268230643</v>
+        <v>0.3280007218306903</v>
       </c>
       <c r="O53" t="n">
-        <v>0.5338754844760718</v>
-      </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+        <v>0.8341367175995344</v>
+      </c>
+      <c r="P53" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>748</v>
+      </c>
+      <c r="R53" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3804,28 +3800,34 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1476</v>
+        <v>2434</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[0.41797372698783875, 0.5490890145301819, -3.075044631958008]</t>
+          <t>[-2.1075210571289062, -1.6291656494140625, -2.518554925918579]</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.151523590087891</v>
+        <v>3.665916681289673</v>
       </c>
       <c r="M54" t="n">
-        <v>10.26381397247314</v>
+        <v>9.516510963439941</v>
       </c>
       <c r="N54" t="n">
-        <v>0.269245752356655</v>
+        <v>0.7280037094661771</v>
       </c>
       <c r="O54" t="n">
-        <v>0.8485343115474436</v>
-      </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+        <v>2.668800894930122</v>
+      </c>
+      <c r="P54" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>423</v>
+      </c>
+      <c r="R54" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3862,34 +3864,28 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[1.5758421421051025, 0.7378226518630981, -1.3699907064437866]</t>
+          <t>[0.08797405660152435, 0.13495370745658875, -1.4901376962661743]</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.214618444442749</v>
+        <v>1.498820185661316</v>
       </c>
       <c r="M55" t="n">
-        <v>12.24389457702637</v>
+        <v>14.88313007354736</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.05736134929523411</v>
+        <v>0.3561971268230643</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.127033507375681</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1073</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1073</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1073</v>
-      </c>
+        <v>0.5338754844760718</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3926,88 +3922,82 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>2443</v>
+        <v>1476</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[-1.1738728284835815, 2.0699965953826904, -2.5466549396514893]</t>
+          <t>[0.41797372698783875, 0.5490890145301819, -3.075044631958008]</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.485443115234375</v>
+        <v>3.151523590087891</v>
       </c>
       <c r="M56" t="n">
-        <v>9.759779930114746</v>
+        <v>10.26381397247314</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.193675568066016</v>
+        <v>0.269245752356655</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.6750452029345015</v>
-      </c>
-      <c r="P56" t="n">
-        <v>748</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>748</v>
-      </c>
-      <c r="R56" t="n">
-        <v>748</v>
-      </c>
+        <v>0.8485343115474436</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5433</v>
+        <v>5886</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7.001003484854612</v>
+        <v>11.22127939195731</v>
       </c>
       <c r="E57" t="n">
-        <v>6.051620625228075</v>
+        <v>3.249131952150527</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8643933170894211</v>
+        <v>0.2895509360972953</v>
       </c>
       <c r="G57" t="n">
-        <v>2.228557401328979</v>
+        <v>2.215555740782969</v>
       </c>
       <c r="H57" t="n">
-        <v>-6.636835217475891</v>
+        <v>-11.00038290023804</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1469</v>
+        <v>1380</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[1.1431920528411865, 1.02493155002594, -3.420396089553833]</t>
+          <t>[1.5758421421051025, 0.7378226518630981, -1.3699907064437866]</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3.749197483062744</v>
+        <v>2.214618444442749</v>
       </c>
       <c r="M57" t="n">
-        <v>9.410222053527832</v>
+        <v>12.24389457702637</v>
       </c>
       <c r="N57" t="n">
-        <v>0.9928946105038673</v>
+        <v>-0.05736134929523411</v>
       </c>
       <c r="O57" t="n">
-        <v>3.722558026865098</v>
+        <v>-0.127033507375681</v>
       </c>
       <c r="P57" t="n">
         <v>1073</v>
@@ -4016,66 +4006,72 @@
         <v>1073</v>
       </c>
       <c r="R57" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5433</v>
+        <v>5886</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7.001003484854612</v>
+        <v>11.22127939195731</v>
       </c>
       <c r="E58" t="n">
-        <v>6.051620625228075</v>
+        <v>3.249131952150527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8643933170894211</v>
+        <v>0.2895509360972953</v>
       </c>
       <c r="G58" t="n">
-        <v>2.228557401328979</v>
+        <v>2.215555740782969</v>
       </c>
       <c r="H58" t="n">
-        <v>-6.636835217475891</v>
+        <v>-11.00038290023804</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2434</v>
+        <v>2443</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[-0.40666353702545166, -0.174024760723114, -1.8346890211105347]</t>
+          <t>[-1.1738728284835815, 2.0699965953826904, -2.5466549396514893]</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.887258291244507</v>
+        <v>3.485443115234375</v>
       </c>
       <c r="M58" t="n">
-        <v>13.26335430145264</v>
+        <v>9.759779930114746</v>
       </c>
       <c r="N58" t="n">
-        <v>0.8407321155935801</v>
+        <v>-0.193675568066016</v>
       </c>
       <c r="O58" t="n">
-        <v>1.586678610431468</v>
-      </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+        <v>-0.6750452029345015</v>
+      </c>
+      <c r="P58" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>748</v>
+      </c>
+      <c r="R58" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4112,33 +4108,33 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1306</v>
+        <v>1469</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[-1.636364459991455, 1.1709693670272827, -1.7953139543533325]</t>
+          <t>[1.1431920528411865, 1.02493155002594, -3.420396089553833]</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.696666479110718</v>
+        <v>3.749197483062744</v>
       </c>
       <c r="M59" t="n">
-        <v>11.09571838378906</v>
+        <v>9.410222053527832</v>
       </c>
       <c r="N59" t="n">
-        <v>0.6364700166104801</v>
+        <v>0.9928946105038673</v>
       </c>
       <c r="O59" t="n">
-        <v>1.716347358702464</v>
+        <v>3.722558026865098</v>
       </c>
       <c r="P59" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
       <c r="Q59" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
       <c r="R59" t="n">
-        <v>748</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="60">
@@ -4176,34 +4172,28 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1309</v>
+        <v>2434</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[-0.640687882900238, -1.2333738803863525, -1.1129107475280762]</t>
+          <t>[-0.40666353702545166, -0.174024760723114, -1.8346890211105347]</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.780523061752319</v>
+        <v>1.887258291244507</v>
       </c>
       <c r="M60" t="n">
-        <v>13.65511131286621</v>
+        <v>13.26335430145264</v>
       </c>
       <c r="N60" t="n">
-        <v>0.3095982110366685</v>
+        <v>0.8407321155935801</v>
       </c>
       <c r="O60" t="n">
-        <v>0.551246759031236</v>
-      </c>
-      <c r="P60" t="n">
-        <v>455</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>423</v>
-      </c>
-      <c r="R60" t="n">
-        <v>423</v>
-      </c>
+        <v>1.586678610431468</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4240,396 +4230,396 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>[-0.537470281124115, 0.01673593558371067, 1.5264745950698853]</t>
+          <t>[-1.636364459991455, 1.1709693670272827, -1.7953139543533325]</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.61841869354248</v>
+        <v>2.696666479110718</v>
       </c>
       <c r="M61" t="n">
-        <v>14.32265758514404</v>
+        <v>11.09571838378906</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.9424075972696683</v>
+        <v>0.6364700166104801</v>
       </c>
       <c r="O61" t="n">
-        <v>-1.525210077137657</v>
-      </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+        <v>1.716347358702464</v>
+      </c>
+      <c r="P61" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>748</v>
+      </c>
+      <c r="R61" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6017</v>
+        <v>5433</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.075181099260022</v>
+        <v>7.001003484854612</v>
       </c>
       <c r="E62" t="n">
-        <v>5.007865432308868</v>
+        <v>6.051620625228075</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9867363024817049</v>
+        <v>0.8643933170894211</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8120608520084311</v>
+        <v>2.228557401328979</v>
       </c>
       <c r="H62" t="n">
-        <v>-5.009792447090149</v>
+        <v>-6.636835217475891</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1355</v>
+        <v>1309</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>[-1.0107395648956299, 1.0179250240325928, -3.474121332168579]</t>
+          <t>[-0.640687882900238, -1.2333738803863525, -1.1129107475280762]</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.758628129959106</v>
+        <v>1.780523061752319</v>
       </c>
       <c r="M62" t="n">
-        <v>9.398409843444824</v>
+        <v>13.65511131286621</v>
       </c>
       <c r="N62" t="n">
-        <v>0.9662323642810159</v>
+        <v>0.3095982110366685</v>
       </c>
       <c r="O62" t="n">
-        <v>3.631708071700497</v>
+        <v>0.551246759031236</v>
       </c>
       <c r="P62" t="n">
         <v>455</v>
       </c>
       <c r="Q62" t="n">
-        <v>780</v>
+        <v>423</v>
       </c>
       <c r="R62" t="n">
-        <v>130</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6017</v>
+        <v>5433</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.075181099260022</v>
+        <v>7.001003484854612</v>
       </c>
       <c r="E63" t="n">
-        <v>5.007865432308868</v>
+        <v>6.051620625228075</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9867363024817049</v>
+        <v>0.8643933170894211</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8120608520084311</v>
+        <v>2.228557401328979</v>
       </c>
       <c r="H63" t="n">
-        <v>-5.009792447090149</v>
+        <v>-6.636835217475891</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1476</v>
+        <v>1320</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[0.19876165688037872, -1.0295312404632568, -1.5356711149215698]</t>
+          <t>[-0.537470281124115, 0.01673593558371067, 1.5264745950698853]</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.859496355056763</v>
+        <v>1.61841869354248</v>
       </c>
       <c r="M63" t="n">
-        <v>13.36199760437012</v>
+        <v>14.32265758514404</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7400699520279647</v>
+        <v>-0.9424075972696683</v>
       </c>
       <c r="O63" t="n">
-        <v>1.376157348447493</v>
-      </c>
-      <c r="P63" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>98</v>
-      </c>
-      <c r="R63" t="n">
-        <v>98</v>
-      </c>
+        <v>-1.525210077137657</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5582</v>
+        <v>6016</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.584938246090046</v>
+        <v>11.52336749322326</v>
       </c>
       <c r="E64" t="n">
-        <v>3.87114326648844</v>
+        <v>9.361208832082269</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6931398514922855</v>
+        <v>0.8123674644228325</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7489847816317962</v>
+        <v>5.152937806875973</v>
       </c>
       <c r="H64" t="n">
-        <v>-5.534487962722778</v>
+        <v>-10.30704760551453</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2434</v>
+        <v>1443</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[-0.2705686688423157, -1.578347086906433, -1.934159755706787]</t>
+          <t>[-0.3812868595123291, 0.13104836642742157, -2.2599120140075684]</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.511047840118408</v>
+        <v>2.295594930648804</v>
       </c>
       <c r="M64" t="n">
-        <v>11.49850940704346</v>
+        <v>12.02600574493408</v>
       </c>
       <c r="N64" t="n">
-        <v>0.8833188285271076</v>
+        <v>0.9431245056930945</v>
       </c>
       <c r="O64" t="n">
-        <v>2.218055772580776</v>
-      </c>
-      <c r="P64" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>98</v>
-      </c>
-      <c r="R64" t="n">
-        <v>423</v>
-      </c>
+        <v>2.165031745706639</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5582</v>
+        <v>6016</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.584938246090046</v>
+        <v>11.52336749322326</v>
       </c>
       <c r="E65" t="n">
-        <v>3.87114326648844</v>
+        <v>9.361208832082269</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6931398514922855</v>
+        <v>0.8123674644228325</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7489847816317962</v>
+        <v>5.152937806875973</v>
       </c>
       <c r="H65" t="n">
-        <v>-5.534487962722778</v>
+        <v>-10.30704760551453</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2443</v>
+        <v>1380</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[-0.07851993292570114, 0.13867592811584473, -1.5529817342758179]</t>
+          <t>[1.0140454769134521, 2.1479642391204834, -2.2929553985595703]</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.561136960983276</v>
+        <v>3.301466703414917</v>
       </c>
       <c r="M65" t="n">
-        <v>14.58305549621582</v>
+        <v>10.02802848815918</v>
       </c>
       <c r="N65" t="n">
-        <v>0.702195832082078</v>
+        <v>0.7285433883691073</v>
       </c>
       <c r="O65" t="n">
-        <v>1.096223878320914</v>
-      </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+        <v>2.405261812377961</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1073</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5582</v>
+        <v>6016</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5.584938246090046</v>
+        <v>11.52336749322326</v>
       </c>
       <c r="E66" t="n">
-        <v>3.87114326648844</v>
+        <v>9.361208832082269</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6931398514922855</v>
+        <v>0.8123674644228325</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7489847816317962</v>
+        <v>5.152937806875973</v>
       </c>
       <c r="H66" t="n">
-        <v>-5.534487962722778</v>
+        <v>-10.30704760551453</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1309</v>
+        <v>1476</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[0.9512708783149719, 0.9681544303894043, -2.003573179244995]</t>
+          <t>[0.008695846423506737, -2.490915298461914, -1.944529414176941]</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.420029878616333</v>
+        <v>3.160052061080933</v>
       </c>
       <c r="M66" t="n">
-        <v>11.71274471282959</v>
+        <v>10.24995422363281</v>
       </c>
       <c r="N66" t="n">
-        <v>0.5720386383493259</v>
+        <v>0.6158427028171367</v>
       </c>
       <c r="O66" t="n">
-        <v>1.384350614990204</v>
+        <v>1.946095027256202</v>
       </c>
       <c r="P66" t="n">
-        <v>1073</v>
+        <v>98</v>
       </c>
       <c r="Q66" t="n">
-        <v>1073</v>
+        <v>98</v>
       </c>
       <c r="R66" t="n">
-        <v>1073</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5582</v>
+        <v>6016</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5.584938246090046</v>
+        <v>11.52336749322326</v>
       </c>
       <c r="E67" t="n">
-        <v>3.87114326648844</v>
+        <v>9.361208832082269</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6931398514922855</v>
+        <v>0.8123674644228325</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7489847816317962</v>
+        <v>5.152937806875973</v>
       </c>
       <c r="H67" t="n">
-        <v>-5.534487962722778</v>
+        <v>-10.30704760551453</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1469</v>
+        <v>2443</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>[-1.059220314025879, 0.999154806137085, -1.5712475776672363]</t>
+          <t>[-1.4861036539077759, 1.5667755603790283, -1.6444870233535767]</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.142213106155396</v>
+        <v>2.714337348937988</v>
       </c>
       <c r="M67" t="n">
-        <v>12.44909286499023</v>
+        <v>11.05954170227051</v>
       </c>
       <c r="N67" t="n">
-        <v>0.1418053295081253</v>
+        <v>0.5014580409626225</v>
       </c>
       <c r="O67" t="n">
-        <v>0.3037772340185541</v>
+        <v>1.36112629439639</v>
       </c>
       <c r="P67" t="n">
         <v>748</v>
@@ -4644,1004 +4634,1000 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5582</v>
+        <v>6016</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5.584938246090046</v>
+        <v>11.52336749322326</v>
       </c>
       <c r="E68" t="n">
-        <v>3.87114326648844</v>
+        <v>9.361208832082269</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6931398514922855</v>
+        <v>0.8123674644228325</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7489847816317962</v>
+        <v>5.152937806875973</v>
       </c>
       <c r="H68" t="n">
-        <v>-5.534487962722778</v>
+        <v>-10.30704760551453</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1306</v>
+        <v>1355</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>[0.44565045833587646, 0.22126013040542603, 1.527474284172058]</t>
+          <t>[-3.9302902221679688, 0.5823214054107666, -2.16516375541687]</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.606467604637146</v>
+        <v>4.524844169616699</v>
       </c>
       <c r="M68" t="n">
-        <v>14.37583446502686</v>
+        <v>8.565786361694336</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.7041937092394214</v>
+        <v>0.327899531567316</v>
       </c>
       <c r="O68" t="n">
-        <v>-1.131264359448302</v>
-      </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+        <v>1.483694239359939</v>
+      </c>
+      <c r="P68" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>455</v>
+      </c>
+      <c r="R68" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6202</v>
+        <v>5582</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>11.56787125518414</v>
+        <v>5.584938246090046</v>
       </c>
       <c r="E69" t="n">
-        <v>10.88950731166016</v>
+        <v>3.87114326648844</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9413579276117917</v>
+        <v>0.6931398514922855</v>
       </c>
       <c r="G69" t="n">
-        <v>1.213309231928226</v>
+        <v>0.7489847816317962</v>
       </c>
       <c r="H69" t="n">
-        <v>-11.50406563282013</v>
+        <v>-5.534487962722778</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1327</v>
+        <v>2434</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>[-0.059498030692338943, -0.12091635167598724, -1.616925835609436]</t>
+          <t>[-0.2705686688423157, -1.578347086906433, -1.934159755706787]</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.62253201007843</v>
+        <v>2.511047840118408</v>
       </c>
       <c r="M69" t="n">
-        <v>14.30449104309082</v>
+        <v>11.49850940704346</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9248798548251941</v>
+        <v>0.8833188285271076</v>
       </c>
       <c r="O69" t="n">
-        <v>1.500647116887409</v>
-      </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+        <v>2.218055772580776</v>
+      </c>
+      <c r="P69" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>98</v>
+      </c>
+      <c r="R69" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6202</v>
+        <v>5582</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>11.56787125518414</v>
+        <v>5.584938246090046</v>
       </c>
       <c r="E70" t="n">
-        <v>10.88950731166016</v>
+        <v>3.87114326648844</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9413579276117917</v>
+        <v>0.6931398514922855</v>
       </c>
       <c r="G70" t="n">
-        <v>1.213309231928226</v>
+        <v>0.7489847816317962</v>
       </c>
       <c r="H70" t="n">
-        <v>-11.50406563282013</v>
+        <v>-5.534487962722778</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1443</v>
+        <v>2443</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>[-0.04559451341629028, -0.2811105251312256, -4.0620198249816895]</t>
+          <t>[-0.07851993292570114, 0.13867592811584473, -1.5529817342758179]</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4.071990489959717</v>
+        <v>1.561136960983276</v>
       </c>
       <c r="M70" t="n">
-        <v>9.029541015625</v>
+        <v>14.58305549621582</v>
       </c>
       <c r="N70" t="n">
-        <v>0.9213048386844982</v>
+        <v>0.702195832082078</v>
       </c>
       <c r="O70" t="n">
-        <v>3.751544597499391</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
+        <v>1.096223878320914</v>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6202</v>
+        <v>5582</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>11.56787125518414</v>
+        <v>5.584938246090046</v>
       </c>
       <c r="E71" t="n">
-        <v>10.88950731166016</v>
+        <v>3.87114326648844</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9413579276117917</v>
+        <v>0.6931398514922855</v>
       </c>
       <c r="G71" t="n">
-        <v>1.213309231928226</v>
+        <v>0.7489847816317962</v>
       </c>
       <c r="H71" t="n">
-        <v>-11.50406563282013</v>
+        <v>-5.534487962722778</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1476</v>
+        <v>1309</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[-1.0176137685775757, 2.565093994140625, -1.9819310903549194]</t>
+          <t>[0.9512708783149719, 0.9681544303894043, -2.003573179244995]</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.397542715072632</v>
+        <v>2.420029878616333</v>
       </c>
       <c r="M71" t="n">
-        <v>9.885225296020508</v>
+        <v>11.71274471282959</v>
       </c>
       <c r="N71" t="n">
-        <v>0.8096458300429167</v>
+        <v>0.5720386383493259</v>
       </c>
       <c r="O71" t="n">
-        <v>2.750806211455885</v>
+        <v>1.384350614990204</v>
       </c>
       <c r="P71" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
       <c r="Q71" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
       <c r="R71" t="n">
-        <v>748</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6202</v>
+        <v>5582</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>11.56787125518414</v>
+        <v>5.584938246090046</v>
       </c>
       <c r="E72" t="n">
-        <v>10.88950731166016</v>
+        <v>3.87114326648844</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9413579276117917</v>
+        <v>0.6931398514922855</v>
       </c>
       <c r="G72" t="n">
-        <v>1.213309231928226</v>
+        <v>0.7489847816317962</v>
       </c>
       <c r="H72" t="n">
-        <v>-11.50406563282013</v>
+        <v>-5.534487962722778</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1380</v>
+        <v>1469</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[2.384357213973999, 0.7816745042800903, -2.3590643405914307]</t>
+          <t>[-1.059220314025879, 0.999154806137085, -1.5712475776672363]</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.444032430648804</v>
+        <v>2.142213106155396</v>
       </c>
       <c r="M72" t="n">
-        <v>9.818280220031738</v>
+        <v>12.44909286499023</v>
       </c>
       <c r="N72" t="n">
-        <v>0.5399165510412918</v>
+        <v>0.1418053295081253</v>
       </c>
       <c r="O72" t="n">
-        <v>1.859490075115747</v>
+        <v>0.3037772340185541</v>
       </c>
       <c r="P72" t="n">
-        <v>1105</v>
+        <v>748</v>
       </c>
       <c r="Q72" t="n">
-        <v>1073</v>
+        <v>748</v>
       </c>
       <c r="R72" t="n">
-        <v>1105</v>
+        <v>748</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6202</v>
+        <v>5582</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>11.56787125518414</v>
+        <v>5.584938246090046</v>
       </c>
       <c r="E73" t="n">
-        <v>10.88950731166016</v>
+        <v>3.87114326648844</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9413579276117917</v>
+        <v>0.6931398514922855</v>
       </c>
       <c r="G73" t="n">
-        <v>1.213309231928226</v>
+        <v>0.7489847816317962</v>
       </c>
       <c r="H73" t="n">
-        <v>-11.50406563282013</v>
+        <v>-5.534487962722778</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1355</v>
+        <v>1306</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[-0.5657582879066467, -1.950833797454834, -1.4841245412826538]</t>
+          <t>[0.44565045833587646, 0.22126013040542603, 1.527474284172058]</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.515643119812012</v>
+        <v>1.606467604637146</v>
       </c>
       <c r="M73" t="n">
-        <v>11.48800277709961</v>
+        <v>14.37583446502686</v>
       </c>
       <c r="N73" t="n">
-        <v>0.4082531766189131</v>
+        <v>-0.7041937092394214</v>
       </c>
       <c r="O73" t="n">
-        <v>1.027019318710666</v>
-      </c>
-      <c r="P73" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>423</v>
-      </c>
-      <c r="R73" t="n">
-        <v>423</v>
-      </c>
+        <v>-1.131264359448302</v>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6427</v>
+        <v>6202</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5.414610218111335</v>
+        <v>11.56787125518414</v>
       </c>
       <c r="E74" t="n">
-        <v>4.929475198950758</v>
+        <v>10.88950731166016</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9104025960099864</v>
+        <v>0.9413579276117917</v>
       </c>
       <c r="G74" t="n">
-        <v>1.423460141273367</v>
+        <v>1.213309231928226</v>
       </c>
       <c r="H74" t="n">
-        <v>-5.224152088165283</v>
+        <v>-11.50406563282013</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1476</v>
+        <v>1327</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[-0.5057880878448486, -0.6493135690689087, -1.4130650758743286]</t>
+          <t>[-0.059498030692338943, -0.12091635167598724, -1.616925835609436]</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.635292887687683</v>
+        <v>1.62253201007843</v>
       </c>
       <c r="M74" t="n">
-        <v>14.24856948852539</v>
+        <v>14.30449104309082</v>
       </c>
       <c r="N74" t="n">
-        <v>0.9730123891011621</v>
+        <v>0.9248798548251941</v>
       </c>
       <c r="O74" t="n">
-        <v>1.591160174350925</v>
-      </c>
-      <c r="P74" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>423</v>
-      </c>
-      <c r="R74" t="n">
-        <v>455</v>
-      </c>
+        <v>1.500647116887409</v>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6427</v>
+        <v>6202</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5.414610218111335</v>
+        <v>11.56787125518414</v>
       </c>
       <c r="E75" t="n">
-        <v>4.929475198950758</v>
+        <v>10.88950731166016</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9104025960099864</v>
+        <v>0.9413579276117917</v>
       </c>
       <c r="G75" t="n">
-        <v>1.423460141273367</v>
+        <v>1.213309231928226</v>
       </c>
       <c r="H75" t="n">
-        <v>-5.224152088165283</v>
+        <v>-11.50406563282013</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1355</v>
+        <v>1443</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[0.3731147348880768, -0.807207465171814, -2.0967166423797607]</t>
+          <t>[-0.04559451341629028, -0.2811105251312256, -4.0620198249816895]</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.277502775192261</v>
+        <v>4.071990489959717</v>
       </c>
       <c r="M75" t="n">
-        <v>12.0736780166626</v>
+        <v>9.029541015625</v>
       </c>
       <c r="N75" t="n">
-        <v>0.8852198919817684</v>
+        <v>0.9213048386844982</v>
       </c>
       <c r="O75" t="n">
-        <v>2.016090815961498</v>
-      </c>
-      <c r="P75" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>98</v>
-      </c>
-      <c r="R75" t="n">
-        <v>98</v>
+        <v>3.751544597499391</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6427</v>
+        <v>6202</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5.414610218111335</v>
+        <v>11.56787125518414</v>
       </c>
       <c r="E76" t="n">
-        <v>4.929475198950758</v>
+        <v>10.88950731166016</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9104025960099864</v>
+        <v>0.9413579276117917</v>
       </c>
       <c r="G76" t="n">
-        <v>1.423460141273367</v>
+        <v>1.213309231928226</v>
       </c>
       <c r="H76" t="n">
-        <v>-5.224152088165283</v>
+        <v>-11.50406563282013</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1327</v>
+        <v>1476</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[-0.14642807841300964, 0.06069111451506615, -1.7143703699111938]</t>
+          <t>[-1.0176137685775757, 2.565093994140625, -1.9819310903549194]</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.72168242931366</v>
+        <v>3.397542715072632</v>
       </c>
       <c r="M76" t="n">
-        <v>13.88649082183838</v>
+        <v>9.885225296020508</v>
       </c>
       <c r="N76" t="n">
-        <v>0.767983892840246</v>
+        <v>0.8096458300429167</v>
       </c>
       <c r="O76" t="n">
-        <v>1.322224367909255</v>
-      </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+        <v>2.750806211455885</v>
+      </c>
+      <c r="P76" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>748</v>
+      </c>
+      <c r="R76" t="n">
+        <v>748</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6489</v>
+        <v>6202</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6.492989483308295</v>
+        <v>11.56787125518414</v>
       </c>
       <c r="E77" t="n">
-        <v>6.44156173786345</v>
+        <v>10.88950731166016</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9920794965744129</v>
+        <v>0.9413579276117917</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2515795209212585</v>
+        <v>1.213309231928226</v>
       </c>
       <c r="H77" t="n">
-        <v>-6.488113760948181</v>
+        <v>-11.50406563282013</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1355</v>
+        <v>1380</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[0.7381088137626648, -1.2383511066436768, -2.846250057220459]</t>
+          <t>[2.384357213973999, 0.7816745042800903, -2.3590643405914307]</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.190526008605957</v>
+        <v>3.444032430648804</v>
       </c>
       <c r="M77" t="n">
-        <v>10.20088577270508</v>
+        <v>9.818280220031738</v>
       </c>
       <c r="N77" t="n">
-        <v>0.8660119411977254</v>
+        <v>0.5399165510412918</v>
       </c>
       <c r="O77" t="n">
-        <v>2.763033793281382</v>
+        <v>1.859490075115747</v>
       </c>
       <c r="P77" t="n">
-        <v>98</v>
+        <v>1105</v>
       </c>
       <c r="Q77" t="n">
-        <v>98</v>
+        <v>1073</v>
       </c>
       <c r="R77" t="n">
-        <v>98</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6489</v>
+        <v>6202</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6.492989483308295</v>
+        <v>11.56787125518414</v>
       </c>
       <c r="E78" t="n">
-        <v>6.44156173786345</v>
+        <v>10.88950731166016</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9920794965744129</v>
+        <v>0.9413579276117917</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2515795209212585</v>
+        <v>1.213309231928226</v>
       </c>
       <c r="H78" t="n">
-        <v>-6.488113760948181</v>
+        <v>-11.50406563282013</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1327</v>
+        <v>1355</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[0.9411289691925049, 0.6820929050445557, -1.9233936071395874]</t>
+          <t>[-0.5657582879066467, -1.950833797454834, -1.4841245412826538]</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.247313261032104</v>
+        <v>2.515643119812012</v>
       </c>
       <c r="M78" t="n">
-        <v>12.15450286865234</v>
+        <v>11.48800277709961</v>
       </c>
       <c r="N78" t="n">
-        <v>0.8007488819072422</v>
+        <v>0.4082531766189131</v>
       </c>
       <c r="O78" t="n">
-        <v>1.799533677724063</v>
+        <v>1.027019318710666</v>
       </c>
       <c r="P78" t="n">
-        <v>1073</v>
+        <v>423</v>
       </c>
       <c r="Q78" t="n">
-        <v>1073</v>
+        <v>423</v>
       </c>
       <c r="R78" t="n">
-        <v>1073</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6489</v>
+        <v>6426</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6.492989483308295</v>
+        <v>6.272394665041823</v>
       </c>
       <c r="E79" t="n">
-        <v>6.44156173786345</v>
+        <v>2.890896342806211</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9920794965744129</v>
+        <v>0.4608919714376639</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2515795209212585</v>
+        <v>2.926671511556731</v>
       </c>
       <c r="H79" t="n">
-        <v>-6.488113760948181</v>
+        <v>-5.547749876976013</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[-1.5917798280715942, 0.32036975026130676, -1.7184700965881348]</t>
+          <t>[-0.2796490788459778, -0.07367515563964844, -1.620900273323059]</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.36422061920166</v>
+        <v>1.646496057510376</v>
       </c>
       <c r="M79" t="n">
-        <v>11.85018253326416</v>
+        <v>14.20001125335693</v>
       </c>
       <c r="N79" t="n">
-        <v>0.7947627169732658</v>
+        <v>0.6947741456796553</v>
       </c>
       <c r="O79" t="n">
-        <v>1.878994425455848</v>
-      </c>
-      <c r="P79" t="n">
-        <v>748</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>455</v>
-      </c>
-      <c r="R79" t="n">
-        <v>423</v>
-      </c>
+        <v>1.143942905334379</v>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6562</v>
+        <v>6426</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>12.03947311046226</v>
+        <v>6.272394665041823</v>
       </c>
       <c r="E80" t="n">
-        <v>9.926848374128314</v>
+        <v>2.890896342806211</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.4608919714376639</v>
       </c>
       <c r="G80" t="n">
-        <v>2.629129490874901</v>
+        <v>2.926671511556731</v>
       </c>
       <c r="H80" t="n">
-        <v>-11.74889743328094</v>
+        <v>-5.547749876976013</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1327</v>
+        <v>1355</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[0.6832439303398132, 0.32402536273002625, -1.8139832019805908]</t>
+          <t>[-0.4390662908554077, -1.5106929540634155, -2.556880474090576]</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.965286135673523</v>
+        <v>3.002100944519043</v>
       </c>
       <c r="M80" t="n">
-        <v>12.997389793396</v>
+        <v>10.51614093780518</v>
       </c>
       <c r="N80" t="n">
-        <v>0.9970160927550866</v>
+        <v>0.4523980305493734</v>
       </c>
       <c r="O80" t="n">
-        <v>1.959421946251032</v>
-      </c>
-      <c r="P80" t="n">
-        <v>1105</v>
+        <v>1.358144561360426</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
       </c>
       <c r="Q80" t="n">
-        <v>1073</v>
+        <v>130</v>
       </c>
       <c r="R80" t="n">
-        <v>1105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6562</v>
+        <v>6426</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>12.03947311046226</v>
+        <v>6.272394665041823</v>
       </c>
       <c r="E81" t="n">
-        <v>9.926848374128314</v>
+        <v>2.890896342806211</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.4608919714376639</v>
       </c>
       <c r="G81" t="n">
-        <v>2.629129490874901</v>
+        <v>2.926671511556731</v>
       </c>
       <c r="H81" t="n">
-        <v>-11.74889743328094</v>
+        <v>-5.547749876976013</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1341</v>
+        <v>1476</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>[-2.458481788635254, 1.54696786403656, -8.691182136535645]</t>
+          <t>[-0.8792868852615356, -0.8675280809402466, -1.369969129562378]</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>9.163726806640625</v>
+        <v>1.84460461139679</v>
       </c>
       <c r="M81" t="n">
-        <v>6.019119739532471</v>
+        <v>13.41582584381104</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7929877905045637</v>
+        <v>0.2107816331930125</v>
       </c>
       <c r="O81" t="n">
-        <v>7.266723482752122</v>
+        <v>0.3888087520959758</v>
       </c>
       <c r="P81" t="n">
-        <v>780</v>
+        <v>455</v>
       </c>
       <c r="Q81" t="n">
-        <v>780</v>
+        <v>423</v>
       </c>
       <c r="R81" t="n">
-        <v>780</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6562</v>
+        <v>6488</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>12.03947311046226</v>
+        <v>8.975588233176818</v>
       </c>
       <c r="E82" t="n">
-        <v>9.926848374128314</v>
+        <v>5.568802080930866</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8245251501497953</v>
+        <v>0.6204386761356414</v>
       </c>
       <c r="G82" t="n">
-        <v>2.629129490874901</v>
+        <v>1.467769515868813</v>
       </c>
       <c r="H82" t="n">
-        <v>-11.74889743328094</v>
+        <v>-8.854763507843018</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>[-0.6235961318016052, -0.7949275374412537, -1.2437320947647095]</t>
+          <t>[-2.268233299255371, 0.35912325978279114, -2.317638874053955]</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.602389335632324</v>
+        <v>3.26271390914917</v>
       </c>
       <c r="M82" t="n">
-        <v>14.39411735534668</v>
+        <v>10.08740711212158</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4372861802171832</v>
+        <v>0.7454743138650441</v>
       </c>
       <c r="O82" t="n">
-        <v>0.7007026935126186</v>
+        <v>2.432269379989446</v>
       </c>
       <c r="P82" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>748</v>
+      </c>
+      <c r="R82" t="n">
         <v>455</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>455</v>
-      </c>
-      <c r="R82" t="n">
-        <v>423</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6359</v>
+        <v>6488</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>11.2285186445667</v>
+        <v>8.975588233176818</v>
       </c>
       <c r="E83" t="n">
-        <v>10.80661422420243</v>
+        <v>5.568802080930866</v>
       </c>
       <c r="F83" t="n">
-        <v>0.962425638348259</v>
+        <v>0.6204386761356414</v>
       </c>
       <c r="G83" t="n">
-        <v>2.052740891971373</v>
+        <v>1.467769515868813</v>
       </c>
       <c r="H83" t="n">
-        <v>-11.03928828239441</v>
+        <v>-8.854763507843018</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[-0.1917954683303833, -0.1543402522802353, -2.0611162185668945]</t>
+          <t>[-0.19868579506874084, -0.18994195759296417, -1.8839623928070068]</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.075766563415527</v>
+        <v>1.903908610343933</v>
       </c>
       <c r="M83" t="n">
-        <v>12.6467752456665</v>
+        <v>13.20523071289062</v>
       </c>
       <c r="N83" t="n">
-        <v>0.9974005113928808</v>
+        <v>0.6733983108701571</v>
       </c>
       <c r="O83" t="n">
-        <v>2.070370549187257</v>
+        <v>1.282088894140918</v>
       </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -5650,727 +5636,721 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6359</v>
+        <v>6488</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>11.2285186445667</v>
+        <v>8.975588233176818</v>
       </c>
       <c r="E84" t="n">
-        <v>10.80661422420243</v>
+        <v>5.568802080930866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.962425638348259</v>
+        <v>0.6204386761356414</v>
       </c>
       <c r="G84" t="n">
-        <v>2.052740891971373</v>
+        <v>1.467769515868813</v>
       </c>
       <c r="H84" t="n">
-        <v>-11.03928828239441</v>
+        <v>-8.854763507843018</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1380</v>
+        <v>1327</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[2.4541378021240234, 0.7991290092468262, -2.9831364154815674]</t>
+          <t>[1.6464307308197021, 0.5983303785324097, -2.400447130203247]</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.944680452346802</v>
+        <v>2.9716796875</v>
       </c>
       <c r="M84" t="n">
-        <v>9.174093246459961</v>
+        <v>10.56983089447021</v>
       </c>
       <c r="N84" t="n">
-        <v>0.6737391249781851</v>
+        <v>0.5861742337508992</v>
       </c>
       <c r="O84" t="n">
-        <v>2.657685430531701</v>
+        <v>1.741922029556168</v>
       </c>
       <c r="P84" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q84" t="n">
         <v>1073</v>
       </c>
-      <c r="Q84" t="n">
-        <v>1105</v>
-      </c>
       <c r="R84" t="n">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6359</v>
+        <v>6488</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>11.2285186445667</v>
+        <v>8.975588233176818</v>
       </c>
       <c r="E85" t="n">
-        <v>10.80661422420243</v>
+        <v>5.568802080930866</v>
       </c>
       <c r="F85" t="n">
-        <v>0.962425638348259</v>
+        <v>0.6204386761356414</v>
       </c>
       <c r="G85" t="n">
-        <v>2.052740891971373</v>
+        <v>1.467769515868813</v>
       </c>
       <c r="H85" t="n">
-        <v>-11.03928828239441</v>
+        <v>-8.854763507843018</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1476</v>
+        <v>1355</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>[-0.9842002391815186, 4.096344470977783, -3.72086238861084]</t>
+          <t>[0.4079889953136444, -2.1761250495910645, -2.2527151107788086]</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.620810031890869</v>
+        <v>3.158591508865356</v>
       </c>
       <c r="M85" t="n">
-        <v>7.685455322265625</v>
+        <v>10.25232315063477</v>
       </c>
       <c r="N85" t="n">
-        <v>0.6723321513669531</v>
+        <v>0.03562404632689124</v>
       </c>
       <c r="O85" t="n">
-        <v>3.779051279401563</v>
+        <v>0.1125218119437741</v>
       </c>
       <c r="P85" t="n">
-        <v>780</v>
+        <v>98</v>
       </c>
       <c r="Q85" t="n">
-        <v>780</v>
+        <v>98</v>
       </c>
       <c r="R85" t="n">
-        <v>780</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6359</v>
+        <v>6561</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>11.2285186445667</v>
+        <v>11.75285490435146</v>
       </c>
       <c r="E86" t="n">
-        <v>10.80661422420243</v>
+        <v>10.09789668287035</v>
       </c>
       <c r="F86" t="n">
-        <v>0.962425638348259</v>
+        <v>0.8591867052771691</v>
       </c>
       <c r="G86" t="n">
-        <v>2.052740891971373</v>
+        <v>3.343650121005855</v>
       </c>
       <c r="H86" t="n">
-        <v>-11.03928828239441</v>
+        <v>-11.2671914100647</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1355</v>
+        <v>1465</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>[-0.14370736479759216, -3.0303430557250977, -2.2741732597351074]</t>
+          <t>[-0.2258387804031372, 0.05245503783226013, -2.232218027114868]</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.791502952575684</v>
+        <v>2.244226455688477</v>
       </c>
       <c r="M86" t="n">
-        <v>9.357575416564941</v>
+        <v>12.16285991668701</v>
       </c>
       <c r="N86" t="n">
-        <v>0.6064895139892793</v>
+        <v>0.9439029619984107</v>
       </c>
       <c r="O86" t="n">
-        <v>2.299506800430802</v>
-      </c>
-      <c r="P86" t="n">
-        <v>98</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>98</v>
-      </c>
-      <c r="R86" t="n">
-        <v>98</v>
-      </c>
+        <v>2.118331919405112</v>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6727</v>
+        <v>6561</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>14.66171423645678</v>
+        <v>11.75285490435146</v>
       </c>
       <c r="E87" t="n">
-        <v>14.16379402614507</v>
+        <v>10.09789668287035</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8591867052771691</v>
       </c>
       <c r="G87" t="n">
-        <v>2.26392853703519</v>
+        <v>3.343650121005855</v>
       </c>
       <c r="H87" t="n">
-        <v>-14.48587214946747</v>
+        <v>-11.2671914100647</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1400</v>
+        <v>1330</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
+          <t>[-2.0129354000091553, -1.6208391189575195, -2.2622406482696533]</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.992708206176758</v>
+        <v>3.434641361236572</v>
       </c>
       <c r="M87" t="n">
-        <v>12.90764999389648</v>
+        <v>9.831693649291992</v>
       </c>
       <c r="N87" t="n">
-        <v>0.9210984994672317</v>
+        <v>0.7920236106872338</v>
       </c>
       <c r="O87" t="n">
-        <v>1.835480567768402</v>
-      </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+        <v>2.720317034415509</v>
+      </c>
+      <c r="P87" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>455</v>
+      </c>
+      <c r="R87" t="n">
+        <v>455</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6727</v>
+        <v>6561</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>14.66171423645678</v>
+        <v>11.75285490435146</v>
       </c>
       <c r="E88" t="n">
-        <v>14.16379402614507</v>
+        <v>10.09789668287035</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8591867052771691</v>
       </c>
       <c r="G88" t="n">
-        <v>2.26392853703519</v>
+        <v>3.343650121005855</v>
       </c>
       <c r="H88" t="n">
-        <v>-14.48587214946747</v>
+        <v>-11.2671914100647</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1327</v>
+        <v>1341</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
+          <t>[-2.0574705600738525, 2.4868741035461426, -4.053411483764648]</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>4.041954040527344</v>
+        <v>5.181493282318115</v>
       </c>
       <c r="M88" t="n">
-        <v>9.063029289245605</v>
+        <v>8.004635810852051</v>
       </c>
       <c r="N88" t="n">
-        <v>0.7537609364506486</v>
+        <v>0.6144743457533566</v>
       </c>
       <c r="O88" t="n">
-        <v>3.046666834338566</v>
+        <v>3.183894690792016</v>
       </c>
       <c r="P88" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="Q88" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="R88" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6727</v>
+        <v>6561</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>14.66171423645678</v>
+        <v>11.75285490435146</v>
       </c>
       <c r="E89" t="n">
-        <v>14.16379402614507</v>
+        <v>10.09789668287035</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8591867052771691</v>
       </c>
       <c r="G89" t="n">
-        <v>2.26392853703519</v>
+        <v>3.343650121005855</v>
       </c>
       <c r="H89" t="n">
-        <v>-14.48587214946747</v>
+        <v>-11.2671914100647</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
+          <t>[1.9448966979980469, 1.4587265253067017, -2.7193212509155273]</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>5.101125717163086</v>
+        <v>3.647631168365479</v>
       </c>
       <c r="M89" t="n">
-        <v>8.067445755004883</v>
+        <v>9.54033374786377</v>
       </c>
       <c r="N89" t="n">
-        <v>0.7243454431812516</v>
+        <v>0.5689591620950232</v>
       </c>
       <c r="O89" t="n">
-        <v>3.694977243683372</v>
+        <v>2.075353264181299</v>
       </c>
       <c r="P89" t="n">
-        <v>98</v>
+        <v>1105</v>
       </c>
       <c r="Q89" t="n">
-        <v>98</v>
+        <v>1105</v>
       </c>
       <c r="R89" t="n">
-        <v>130</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6727</v>
+        <v>6359</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>14.66171423645678</v>
+        <v>11.2285186445667</v>
       </c>
       <c r="E90" t="n">
-        <v>14.16379402614507</v>
+        <v>10.80661422420243</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.962425638348259</v>
       </c>
       <c r="G90" t="n">
-        <v>2.26392853703519</v>
+        <v>2.052740891971373</v>
       </c>
       <c r="H90" t="n">
-        <v>-14.48587214946747</v>
+        <v>-11.03928828239441</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1359</v>
+        <v>1327</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
+          <t>[-0.1917954683303833, -0.1543402522802353, -2.0611162185668945]</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.957292079925537</v>
+        <v>2.075766563415527</v>
       </c>
       <c r="M90" t="n">
-        <v>8.183645248413086</v>
+        <v>12.6467752456665</v>
       </c>
       <c r="N90" t="n">
-        <v>0.6870513046227579</v>
+        <v>0.9974005113928808</v>
       </c>
       <c r="O90" t="n">
-        <v>3.405914004964458</v>
-      </c>
-      <c r="P90" t="n">
-        <v>455</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>455</v>
-      </c>
-      <c r="R90" t="n">
-        <v>423</v>
-      </c>
+        <v>2.070370549187257</v>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6727</v>
+        <v>6359</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>14.66171423645678</v>
+        <v>11.2285186445667</v>
       </c>
       <c r="E91" t="n">
-        <v>14.16379402614507</v>
+        <v>10.80661422420243</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.962425638348259</v>
       </c>
       <c r="G91" t="n">
-        <v>2.26392853703519</v>
+        <v>2.052740891971373</v>
       </c>
       <c r="H91" t="n">
-        <v>-14.48587214946747</v>
+        <v>-11.03928828239441</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
+          <t>[2.4541378021240234, 0.7991290092468262, -2.9831364154815674]</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>6.448452472686768</v>
+        <v>3.944680452346802</v>
       </c>
       <c r="M91" t="n">
-        <v>7.175320148468018</v>
+        <v>9.174093246459961</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3381827836470593</v>
+        <v>0.6737391249781851</v>
       </c>
       <c r="O91" t="n">
-        <v>2.180755584088995</v>
+        <v>2.657685430531701</v>
       </c>
       <c r="P91" t="n">
-        <v>780</v>
+        <v>1073</v>
       </c>
       <c r="Q91" t="n">
-        <v>780</v>
+        <v>1105</v>
       </c>
       <c r="R91" t="n">
-        <v>780</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6670</v>
+        <v>6359</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>12.45103562302613</v>
+        <v>11.2285186445667</v>
       </c>
       <c r="E92" t="n">
-        <v>11.82064111137415</v>
+        <v>10.80661422420243</v>
       </c>
       <c r="F92" t="n">
-        <v>0.949370114202696</v>
+        <v>0.962425638348259</v>
       </c>
       <c r="G92" t="n">
-        <v>2.388757615569407</v>
+        <v>2.052740891971373</v>
       </c>
       <c r="H92" t="n">
-        <v>-12.21974325180054</v>
+        <v>-11.03928828239441</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1341</v>
+        <v>1476</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
+          <t>[-0.9842002391815186, 4.096344470977783, -3.72086238861084]</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>6.475595951080322</v>
+        <v>5.620810031890869</v>
       </c>
       <c r="M92" t="n">
-        <v>7.160265922546387</v>
+        <v>7.685455322265625</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9712740120240915</v>
+        <v>0.6723321513669531</v>
       </c>
       <c r="O92" t="n">
-        <v>6.289578334971061</v>
+        <v>3.779051279401563</v>
       </c>
       <c r="P92" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="Q92" t="n">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="R92" t="n">
-        <v>98</v>
+        <v>780</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>6670</v>
+        <v>6359</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>12.45103562302613</v>
+        <v>11.2285186445667</v>
       </c>
       <c r="E93" t="n">
-        <v>11.82064111137415</v>
+        <v>10.80661422420243</v>
       </c>
       <c r="F93" t="n">
-        <v>0.949370114202696</v>
+        <v>0.962425638348259</v>
       </c>
       <c r="G93" t="n">
-        <v>2.388757615569407</v>
+        <v>2.052740891971373</v>
       </c>
       <c r="H93" t="n">
-        <v>-12.21974325180054</v>
+        <v>-11.03928828239441</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
+          <t>[-0.14370736479759216, -3.0303430557250977, -2.2741732597351074]</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.794686794281006</v>
+        <v>3.791502952575684</v>
       </c>
       <c r="M93" t="n">
-        <v>10.8993968963623</v>
+        <v>9.357575416564941</v>
       </c>
       <c r="N93" t="n">
-        <v>0.7807014051662815</v>
+        <v>0.6064895139892793</v>
       </c>
       <c r="O93" t="n">
-        <v>2.181815939319726</v>
-      </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
+        <v>2.299506800430802</v>
+      </c>
+      <c r="P93" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>98</v>
+      </c>
+      <c r="R93" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6670</v>
+        <v>6727</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>12.45103562302613</v>
+        <v>14.66171423645678</v>
       </c>
       <c r="E94" t="n">
-        <v>11.82064111137415</v>
+        <v>14.16379402614507</v>
       </c>
       <c r="F94" t="n">
-        <v>0.949370114202696</v>
+        <v>0.9660394274310968</v>
       </c>
       <c r="G94" t="n">
-        <v>2.388757615569407</v>
+        <v>2.26392853703519</v>
       </c>
       <c r="H94" t="n">
-        <v>-12.21974325180054</v>
+        <v>-14.48587214946747</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1330</v>
+        <v>1400</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
+          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.14094877243042</v>
+        <v>1.992708206176758</v>
       </c>
       <c r="M94" t="n">
-        <v>12.45276832580566</v>
+        <v>12.90764999389648</v>
       </c>
       <c r="N94" t="n">
-        <v>0.5741840088095561</v>
+        <v>0.9210984994672317</v>
       </c>
       <c r="O94" t="n">
-        <v>1.229298551084618</v>
-      </c>
-      <c r="P94" t="n">
-        <v>423</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>423</v>
-      </c>
-      <c r="R94" t="n">
-        <v>423</v>
-      </c>
+        <v>1.835480567768402</v>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>6670</v>
+        <v>6727</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>12.45103562302613</v>
+        <v>14.66171423645678</v>
       </c>
       <c r="E95" t="n">
-        <v>11.82064111137415</v>
+        <v>14.16379402614507</v>
       </c>
       <c r="F95" t="n">
-        <v>0.949370114202696</v>
+        <v>0.9660394274310968</v>
       </c>
       <c r="G95" t="n">
-        <v>2.388757615569407</v>
+        <v>2.26392853703519</v>
       </c>
       <c r="H95" t="n">
-        <v>-12.21974325180054</v>
+        <v>-14.48587214946747</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -6378,121 +6358,127 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
+          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4.158008098602295</v>
+        <v>4.041954040527344</v>
       </c>
       <c r="M95" t="n">
-        <v>8.935654640197754</v>
+        <v>9.063029289245605</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5098471706622976</v>
+        <v>0.7537609364506486</v>
       </c>
       <c r="O95" t="n">
-        <v>2.119948543468411</v>
+        <v>3.046666834338566</v>
       </c>
       <c r="P95" t="n">
-        <v>1105</v>
+        <v>130</v>
       </c>
       <c r="Q95" t="n">
-        <v>1073</v>
+        <v>130</v>
       </c>
       <c r="R95" t="n">
-        <v>1073</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6748</v>
+        <v>6727</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>13.8040533476533</v>
+        <v>14.66171423645678</v>
       </c>
       <c r="E96" t="n">
-        <v>3.22855057619759</v>
+        <v>14.16379402614507</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2338842436266335</v>
+        <v>0.9660394274310968</v>
       </c>
       <c r="G96" t="n">
-        <v>10.95703025838193</v>
+        <v>2.26392853703519</v>
       </c>
       <c r="H96" t="n">
-        <v>-8.396152496337891</v>
+        <v>-14.48587214946747</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1400</v>
+        <v>1330</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
+          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.49150538444519</v>
+        <v>5.101125717163086</v>
       </c>
       <c r="M96" t="n">
-        <v>11.54351615905762</v>
+        <v>8.067445755004883</v>
       </c>
       <c r="N96" t="n">
-        <v>0.7221021228583707</v>
+        <v>0.7243454431812516</v>
       </c>
       <c r="O96" t="n">
-        <v>1.799121459318981</v>
-      </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+        <v>3.694977243683372</v>
+      </c>
+      <c r="P96" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>98</v>
+      </c>
+      <c r="R96" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6748</v>
+        <v>6727</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>13.8040533476533</v>
+        <v>14.66171423645678</v>
       </c>
       <c r="E97" t="n">
-        <v>3.22855057619759</v>
+        <v>14.16379402614507</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2338842436266335</v>
+        <v>0.9660394274310968</v>
       </c>
       <c r="G97" t="n">
-        <v>10.95703025838193</v>
+        <v>2.26392853703519</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.396152496337891</v>
+        <v>-14.48587214946747</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -6500,156 +6486,592 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
+          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>6.928995132446289</v>
+        <v>4.957292079925537</v>
       </c>
       <c r="M97" t="n">
-        <v>6.922037124633789</v>
+        <v>8.183645248413086</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2548949485799148</v>
+        <v>0.6870513046227579</v>
       </c>
       <c r="O97" t="n">
-        <v>1.766165779267369</v>
+        <v>3.405914004964458</v>
       </c>
       <c r="P97" t="n">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="Q97" t="n">
         <v>455</v>
       </c>
       <c r="R97" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6748</v>
+        <v>6727</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13.8040533476533</v>
+        <v>14.66171423645678</v>
       </c>
       <c r="E98" t="n">
-        <v>3.22855057619759</v>
+        <v>14.16379402614507</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2338842436266335</v>
+        <v>0.9660394274310968</v>
       </c>
       <c r="G98" t="n">
-        <v>10.95703025838193</v>
+        <v>2.26392853703519</v>
       </c>
       <c r="H98" t="n">
-        <v>-8.396152496337891</v>
+        <v>-14.48587214946747</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1327</v>
+        <v>1374</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
+          <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.665693283081055</v>
+        <v>6.448452472686768</v>
       </c>
       <c r="M98" t="n">
-        <v>11.15999317169189</v>
+        <v>7.175320148468018</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08069142315735013</v>
+        <v>0.3381827836470593</v>
       </c>
       <c r="O98" t="n">
-        <v>0.2150985878251888</v>
+        <v>2.180755584088995</v>
       </c>
       <c r="P98" t="n">
-        <v>98</v>
+        <v>780</v>
       </c>
       <c r="Q98" t="n">
-        <v>98</v>
+        <v>780</v>
       </c>
       <c r="R98" t="n">
-        <v>98</v>
+        <v>780</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6748</v>
+        <v>6670</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>13.8040533476533</v>
+        <v>12.45103562302613</v>
       </c>
       <c r="E99" t="n">
-        <v>3.22855057619759</v>
+        <v>11.82064111137415</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2338842436266335</v>
+        <v>0.949370114202696</v>
       </c>
       <c r="G99" t="n">
-        <v>10.95703025838193</v>
+        <v>2.388757615569407</v>
       </c>
       <c r="H99" t="n">
-        <v>-8.396152496337891</v>
+        <v>-12.21974325180054</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[1.8898179531097412, -2.7097582817077637, -1.080597162246704]</t>
+          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.47590160369873</v>
+        <v>6.475595951080322</v>
       </c>
       <c r="M99" t="n">
-        <v>9.773166656494141</v>
+        <v>7.160265922546387</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.1587602556151502</v>
+        <v>0.9712740120240915</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.5518350296001984</v>
+        <v>6.289578334971061</v>
       </c>
       <c r="P99" t="n">
         <v>130</v>
       </c>
       <c r="Q99" t="n">
+        <v>130</v>
+      </c>
+      <c r="R99" t="n">
         <v>98</v>
       </c>
-      <c r="R99" t="n">
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.794686794281006</v>
+      </c>
+      <c r="M100" t="n">
+        <v>10.8993968963623</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.7807014051662815</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.181815939319726</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.14094877243042</v>
+      </c>
+      <c r="M101" t="n">
+        <v>12.45276832580566</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.5741840088095561</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.229298551084618</v>
+      </c>
+      <c r="P101" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>423</v>
+      </c>
+      <c r="R101" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>4.158008098602295</v>
+      </c>
+      <c r="M102" t="n">
+        <v>8.935654640197754</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5098471706622976</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2.119948543468411</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G103" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.49150538444519</v>
+      </c>
+      <c r="M103" t="n">
+        <v>11.54351615905762</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.7221021228583707</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.799121459318981</v>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>6.928995132446289</v>
+      </c>
+      <c r="M104" t="n">
+        <v>6.922037124633789</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.2548949485799148</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.766165779267369</v>
+      </c>
+      <c r="P104" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>455</v>
+      </c>
+      <c r="R104" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G105" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.665693283081055</v>
+      </c>
+      <c r="M105" t="n">
+        <v>11.15999317169189</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.08069142315735013</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.2150985878251888</v>
+      </c>
+      <c r="P105" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>98</v>
+      </c>
+      <c r="R105" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>[1.8898179531097412, -2.7097582817077637, -1.080597162246704]</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>3.47590160369873</v>
+      </c>
+      <c r="M106" t="n">
+        <v>9.773166656494141</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.1587602556151502</v>
+      </c>
+      <c r="O106" t="n">
+        <v>-0.5518350296001984</v>
+      </c>
+      <c r="P106" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>98</v>
+      </c>
+      <c r="R106" t="n">
         <v>98</v>
       </c>
     </row>

--- a/results/forces/permeation_frames_forces_with_ions.xlsx
+++ b/results/forces/permeation_frames_forces_with_ions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,370 +528,364 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6727</v>
+        <v>5178</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.66171423645678</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E2" t="n">
-        <v>14.16379402614507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26392853703519</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.48587214946747</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
+          <t>[-0.008810419589281082, -2.18619704246521, -2.864572048187256]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.992708206176758</v>
+        <v>3.603513479232788</v>
       </c>
       <c r="M2" t="n">
-        <v>12.90764999389648</v>
+        <v>9.598557472229004</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9210984994672317</v>
+        <v>0.9550714863493811</v>
       </c>
       <c r="O2" t="n">
-        <v>1.835480567768402</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>3.441612809865843</v>
+      </c>
+      <c r="P2" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6727</v>
+        <v>5178</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.66171423645678</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E3" t="n">
-        <v>14.16379402614507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G3" t="n">
-        <v>2.26392853703519</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H3" t="n">
-        <v>-14.48587214946747</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
+          <t>[-0.2788090407848358, 0.07740062475204468, -1.6099847555160522]</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4.041954040527344</v>
+        <v>1.635780096054077</v>
       </c>
       <c r="M3" t="n">
-        <v>9.063029289245605</v>
+        <v>14.24644756317139</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7537609364506486</v>
+        <v>0.8441143479128079</v>
       </c>
       <c r="O3" t="n">
-        <v>3.046666834338566</v>
-      </c>
-      <c r="P3" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>130</v>
-      </c>
-      <c r="R3" t="n">
-        <v>130</v>
-      </c>
+        <v>1.380785379002085</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6727</v>
+        <v>5178</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.66171423645678</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E4" t="n">
-        <v>14.16379402614507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26392853703519</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H4" t="n">
-        <v>-14.48587214946747</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1330</v>
+        <v>1308</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
+          <t>[0.6154102087020874, 1.285620093345642, -2.1181087493896484]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5.101125717163086</v>
+        <v>2.553024530410767</v>
       </c>
       <c r="M4" t="n">
-        <v>8.067445755004883</v>
+        <v>11.40358924865723</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7243454431812516</v>
+        <v>0.597050028512469</v>
       </c>
       <c r="O4" t="n">
-        <v>3.694977243683372</v>
+        <v>1.524283271710701</v>
       </c>
       <c r="P4" t="n">
-        <v>98</v>
+        <v>1073</v>
       </c>
       <c r="Q4" t="n">
-        <v>98</v>
+        <v>1073</v>
       </c>
       <c r="R4" t="n">
-        <v>130</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6727</v>
+        <v>5178</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14.66171423645678</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E5" t="n">
-        <v>14.16379402614507</v>
+        <v>7.079835093630851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.8777295969067627</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26392853703519</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H5" t="n">
-        <v>-14.48587214946747</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1359</v>
+        <v>1306</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
+          <t>[-0.8810579776763916, 1.1072505712509155, -1.4493992328643799]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4.957292079925537</v>
+        <v>2.025592565536499</v>
       </c>
       <c r="M5" t="n">
-        <v>8.183645248413086</v>
+        <v>12.80244731903076</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6870513046227579</v>
+        <v>0.361945199579535</v>
       </c>
       <c r="O5" t="n">
-        <v>3.405914004964458</v>
+        <v>0.7331534948783407</v>
       </c>
       <c r="P5" t="n">
-        <v>455</v>
+        <v>748</v>
       </c>
       <c r="Q5" t="n">
-        <v>455</v>
+        <v>748</v>
       </c>
       <c r="R5" t="n">
-        <v>423</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6727</v>
+        <v>5552</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.66171423645678</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E6" t="n">
-        <v>14.16379402614507</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9660394274310968</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G6" t="n">
-        <v>2.26392853703519</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H6" t="n">
-        <v>-14.48587214946747</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1374</v>
+        <v>2443</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
+          <t>[-0.05633280798792839, 0.0005689358222298324, -1.5595158338546753]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6.448452472686768</v>
+        <v>1.560533046722412</v>
       </c>
       <c r="M6" t="n">
-        <v>7.175320148468018</v>
+        <v>14.58587741851807</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3381827836470593</v>
+        <v>0.9983744478347512</v>
       </c>
       <c r="O6" t="n">
-        <v>2.180755584088995</v>
-      </c>
-      <c r="P6" t="n">
-        <v>780</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>780</v>
-      </c>
-      <c r="R6" t="n">
-        <v>780</v>
-      </c>
+        <v>1.557996304478483</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6561</v>
+        <v>5552</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.75285490435146</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E7" t="n">
-        <v>10.09789668287035</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8591867052771691</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G7" t="n">
-        <v>3.343650121005855</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.2671914100647</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1465</v>
+        <v>2444</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[-0.2258387804031372, 0.05245503783226013, -2.232218027114868]</t>
+          <t>[0.07805076986551285, -0.4003472626209259, -3.418886423110962]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.244226455688477</v>
+        <v>3.443131446838379</v>
       </c>
       <c r="M7" t="n">
-        <v>12.16285991668701</v>
+        <v>9.819564819335938</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9439029619984107</v>
+        <v>0.9842810911257656</v>
       </c>
       <c r="O7" t="n">
-        <v>2.118331919405112</v>
+        <v>3.389009187001514</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -900,56 +894,56 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6561</v>
+        <v>5552</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.75285490435146</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E8" t="n">
-        <v>10.09789668287035</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8591867052771691</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G8" t="n">
-        <v>3.343650121005855</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.2671914100647</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1330</v>
+        <v>2434</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[-2.0129354000091553, -1.6208391189575195, -2.2622406482696533]</t>
+          <t>[-1.893072247505188, -3.221282482147217, -2.009432315826416]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.434641361236572</v>
+        <v>4.242428779602051</v>
       </c>
       <c r="M8" t="n">
-        <v>9.831693649291992</v>
+        <v>8.846302032470703</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7920236106872338</v>
+        <v>0.4402401306434588</v>
       </c>
       <c r="O8" t="n">
-        <v>2.720317034415509</v>
+        <v>1.867687381807795</v>
       </c>
       <c r="P8" t="n">
         <v>423</v>
@@ -964,62 +958,62 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6561</v>
+        <v>5552</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.75285490435146</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E9" t="n">
-        <v>10.09789668287035</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8591867052771691</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G9" t="n">
-        <v>3.343650121005855</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.2671914100647</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1341</v>
+        <v>1469</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[-2.0574705600738525, 2.4868741035461426, -4.053411483764648]</t>
+          <t>[1.36846923828125, 8.766291618347168, -3.4916884899139404]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5.181493282318115</v>
+        <v>9.53480339050293</v>
       </c>
       <c r="M9" t="n">
-        <v>8.004635810852051</v>
+        <v>5.90083122253418</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6144743457533566</v>
+        <v>0.4134517271765727</v>
       </c>
       <c r="O9" t="n">
-        <v>3.183894690792016</v>
+        <v>3.942180704804922</v>
       </c>
       <c r="P9" t="n">
         <v>780</v>
       </c>
       <c r="Q9" t="n">
-        <v>780</v>
+        <v>1105</v>
       </c>
       <c r="R9" t="n">
         <v>780</v>
@@ -1028,184 +1022,178 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6561</v>
+        <v>5552</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11.75285490435146</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E10" t="n">
-        <v>10.09789668287035</v>
+        <v>12.51972977569507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8591867052771691</v>
+        <v>0.9807741158990991</v>
       </c>
       <c r="G10" t="n">
-        <v>3.343650121005855</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H10" t="n">
-        <v>-11.2671914100647</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[1.9448966979980469, 1.4587265253067017, -2.7193212509155273]</t>
+          <t>[2.620638608932495, -3.7301268577575684, -2.0289413928985596]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.647631168365479</v>
+        <v>4.989809513092041</v>
       </c>
       <c r="M10" t="n">
-        <v>9.54033374786377</v>
+        <v>8.156936645507812</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5689591620950232</v>
+        <v>0.3532913110586681</v>
       </c>
       <c r="O10" t="n">
-        <v>2.075353264181299</v>
+        <v>1.762856248963099</v>
       </c>
       <c r="P10" t="n">
-        <v>1105</v>
+        <v>130</v>
       </c>
       <c r="Q10" t="n">
-        <v>1105</v>
+        <v>98</v>
       </c>
       <c r="R10" t="n">
-        <v>1073</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E11" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F11" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G11" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H11" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1341</v>
+        <v>1313</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
+          <t>[-0.2596032917499542, 0.0863218829035759, -1.6720675230026245]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6.475595951080322</v>
+        <v>1.694300770759583</v>
       </c>
       <c r="M11" t="n">
-        <v>7.160265922546387</v>
+        <v>13.99825096130371</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9712740120240915</v>
+        <v>0.9434373863163675</v>
       </c>
       <c r="O11" t="n">
-        <v>6.289578334971061</v>
-      </c>
-      <c r="P11" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>130</v>
-      </c>
-      <c r="R11" t="n">
-        <v>98</v>
-      </c>
+        <v>1.598466700888721</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E12" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G12" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H12" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1359</v>
+        <v>2433</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
+          <t>[-0.6347223520278931, 0.19823774695396423, -3.038501501083374]</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.794686794281006</v>
+        <v>3.110411882400513</v>
       </c>
       <c r="M12" t="n">
-        <v>10.8993968963623</v>
+        <v>10.33142185211182</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7807014051662815</v>
+        <v>0.9288692016910208</v>
       </c>
       <c r="O12" t="n">
-        <v>2.181815939319726</v>
+        <v>2.889165796519675</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1214,184 +1202,184 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E13" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F13" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G13" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1330</v>
+        <v>1306</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
+          <t>[-1.6401560306549072, 2.41015887260437, -3.054780960083008]</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.14094877243042</v>
+        <v>4.222637176513672</v>
       </c>
       <c r="M13" t="n">
-        <v>12.45276832580566</v>
+        <v>8.867009162902832</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5741840088095561</v>
+        <v>0.5608941513372824</v>
       </c>
       <c r="O13" t="n">
-        <v>1.229298551084618</v>
+        <v>2.368452468009934</v>
       </c>
       <c r="P13" t="n">
-        <v>423</v>
+        <v>780</v>
       </c>
       <c r="Q13" t="n">
-        <v>423</v>
+        <v>780</v>
       </c>
       <c r="R13" t="n">
-        <v>423</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E14" t="n">
-        <v>11.82064111137415</v>
+        <v>9.420667743416777</v>
       </c>
       <c r="F14" t="n">
-        <v>0.949370114202696</v>
+        <v>0.6983293364102758</v>
       </c>
       <c r="G14" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H14" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1327</v>
+        <v>1307</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
+          <t>[-4.570674896240234, 1.0774279832839966, -3.064039707183838]</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.158008098602295</v>
+        <v>5.607161521911621</v>
       </c>
       <c r="M14" t="n">
-        <v>8.935654640197754</v>
+        <v>7.694803237915039</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5098471706622976</v>
+        <v>0.4573762546789545</v>
       </c>
       <c r="O14" t="n">
-        <v>2.119948543468411</v>
+        <v>2.56458249796159</v>
       </c>
       <c r="P14" t="n">
-        <v>1105</v>
+        <v>98</v>
       </c>
       <c r="Q14" t="n">
-        <v>1073</v>
+        <v>780</v>
       </c>
       <c r="R14" t="n">
-        <v>1073</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6748</v>
+        <v>3631</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.8040533476533</v>
+        <v>7.698816050180231</v>
       </c>
       <c r="E15" t="n">
-        <v>3.22855057619759</v>
+        <v>7.200785190113176</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2338842436266335</v>
+        <v>0.9353107209185241</v>
       </c>
       <c r="G15" t="n">
-        <v>10.95703025838193</v>
+        <v>1.777240902818617</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.396152496337891</v>
+        <v>-7.490873336791992</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
+          <t>[-0.20382902026176453, 0.20456770062446594, -2.015981435775757]</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.49150538444519</v>
+        <v>2.036559581756592</v>
       </c>
       <c r="M15" t="n">
-        <v>11.54351615905762</v>
+        <v>12.76792907714844</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7221021228583707</v>
+        <v>0.9608440200018359</v>
       </c>
       <c r="O15" t="n">
-        <v>1.799121459318981</v>
+        <v>1.956816197649512</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1400,192 +1388,5690 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6748</v>
+        <v>3631</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.8040533476533</v>
+        <v>7.698816050180231</v>
       </c>
       <c r="E16" t="n">
-        <v>3.22855057619759</v>
+        <v>7.200785190113176</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2338842436266335</v>
+        <v>0.9353107209185241</v>
       </c>
       <c r="G16" t="n">
-        <v>10.95703025838193</v>
+        <v>1.777240902818617</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.396152496337891</v>
+        <v>-7.490873336791992</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1359</v>
+        <v>1307</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
+          <t>[0.34473127126693726, -2.081768035888672, -2.207082748413086]</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6.928995132446289</v>
+        <v>3.053491830825806</v>
       </c>
       <c r="M16" t="n">
-        <v>6.922037124633789</v>
+        <v>10.42727088928223</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2548949485799148</v>
+        <v>0.807978223801411</v>
       </c>
       <c r="O16" t="n">
-        <v>1.766165779267369</v>
+        <v>2.467154866444083</v>
       </c>
       <c r="P16" t="n">
-        <v>423</v>
+        <v>98</v>
       </c>
       <c r="Q16" t="n">
-        <v>455</v>
+        <v>98</v>
       </c>
       <c r="R16" t="n">
-        <v>455</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6748</v>
+        <v>3631</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.8040533476533</v>
+        <v>7.698816050180231</v>
       </c>
       <c r="E17" t="n">
-        <v>3.22855057619759</v>
+        <v>7.200785190113176</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2338842436266335</v>
+        <v>0.9353107209185241</v>
       </c>
       <c r="G17" t="n">
-        <v>10.95703025838193</v>
+        <v>1.777240902818617</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.396152496337891</v>
+        <v>-7.490873336791992</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
+          <t>[-0.9093334674835205, 1.378950595855713, -1.5774143934249878]</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.665693283081055</v>
+        <v>2.28399395942688</v>
       </c>
       <c r="M17" t="n">
-        <v>11.15999317169189</v>
+        <v>12.05650901794434</v>
       </c>
       <c r="N17" t="n">
-        <v>0.08069142315735013</v>
+        <v>0.6231042642794813</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2150985878251888</v>
+        <v>1.423166356990045</v>
       </c>
       <c r="P17" t="n">
-        <v>98</v>
+        <v>748</v>
       </c>
       <c r="Q17" t="n">
-        <v>98</v>
+        <v>748</v>
       </c>
       <c r="R17" t="n">
-        <v>98</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7.698816050180231</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.200785190113176</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9353107209185241</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.777240902818617</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-7.490873336791992</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1313</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[-0.30617839097976685, 1.9138059616088867, -1.6903947591781616]</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>2.571737289428711</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11.36202526092529</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5263554506137853</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.35364796253652</v>
+      </c>
+      <c r="P18" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>780</v>
+      </c>
+      <c r="R18" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1316</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[0.4411103129386902, 0.020791510120034218, -1.5011932849884033]</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1.564797759056091</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14.5659875869751</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6923382640351051</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.083369330272755</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1387</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[1.0603179931640625, 0.020274614915251732, -2.5148849487304688]</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>2.729346513748169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11.02909088134766</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6062964219064304</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.654792938780372</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1460</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[3.8352208137512207, 0.3034936487674713, -5.381428241729736]</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>6.615194320678711</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.084312915802002</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4203375156977876</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.780614381738402</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[2.8424875736236572, 2.9671502113342285, -0.9589595198631287]</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>4.219398021697998</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.87041187286377</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.09411734995217312</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.3971185566050011</v>
+      </c>
+      <c r="P22" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1105</v>
+      </c>
+      <c r="R22" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.213414880499618</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2735127880656001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[2.5766072273254395, -1.5963126420974731, -0.5375608205795288]</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3.078325986862183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10.38512516021729</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.2950445267137366</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.9082432151579863</v>
+      </c>
+      <c r="P23" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[-0.10016888380050659, -0.04445159435272217, -1.7664031982421875]</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1.769799470901489</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13.69641876220703</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9641559088449246</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.706362574051698</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1308</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[1.0612798929214478, 1.444498062133789, -2.4021823406219482]</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.99722695350647</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10.52468776702881</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9051742631942796</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.713012736925825</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[-1.5543725490570068, 1.258629322052002, -1.952666163444519]</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2.795197248458862</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10.89840221405029</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7482234116119566</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.091431924959317</v>
+      </c>
+      <c r="P26" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>748</v>
+      </c>
+      <c r="R26" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.284867532083551</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9696133669131436</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[-0.9408805966377258, -1.4583345651626587, -2.198254108428955]</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2.80077075958252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10.88755226135254</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6334185661219965</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.774060230071668</v>
+      </c>
+      <c r="P27" t="n">
+        <v>455</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>455</v>
+      </c>
+      <c r="R27" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>11.6745941511995</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11.5522255221292</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9895183826105229</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.378097746486022</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-11.59297180175781</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1316</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[-0.3461155891418457, 0.052372146397829056, -2.328737497329712]</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2.35490083694458</v>
+      </c>
+      <c r="M28" t="n">
+        <v>11.87360858917236</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9966853552791446</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.347095012760431</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>11.6745941511995</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11.5522255221292</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9895183826105229</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.378097746486022</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-11.59297180175781</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[-1.8574953079223633, 0.8867517709732056, -4.2414045333862305]</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>4.714459419250488</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.39176082611084</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.9703526311906902</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.574688341109766</v>
+      </c>
+      <c r="P29" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>11.6745941511995</v>
+      </c>
+      <c r="E30" t="n">
+        <v>11.5522255221292</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9895183826105229</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.378097746486022</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-11.59297180175781</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1460</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[0.46047669649124146, 1.5771710872650146, -1.9888637065887451]</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.579745531082153</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11.34437656402588</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7267480067537534</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.874824819083032</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>11.6745941511995</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11.5522255221292</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9895183826105229</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.378097746486022</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-11.59297180175781</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[0.4999687671661377, -3.111016035079956, -3.033966064453125]</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>4.374167442321777</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.712069511413574</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.6299753051365686</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.75561738317462</v>
+      </c>
+      <c r="P31" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>98</v>
+      </c>
+      <c r="R31" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15.53439155601749</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15.31075270340408</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9856036297394098</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.329044871549389</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-15.47743391990662</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[-0.1475171595811844, -0.04048118740320206, -2.020209789276123]</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2.02599310874939</v>
+      </c>
+      <c r="M32" t="n">
+        <v>12.80118179321289</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9871697615720927</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.999999025670778</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>15.53439155601749</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15.31075270340408</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9856036297394098</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.329044871549389</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-15.47743391990662</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>1307</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[1.1264777183532715, -0.256988525390625, -4.005494594573975]</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>4.168810844421387</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8.924069404602051</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.980656329299906</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.088170533548311</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>15.53439155601749</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15.31075270340408</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9856036297394098</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.329044871549389</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-15.47743391990662</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>1308</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[1.8541682958602905, 1.3925756216049194, -2.6088037490844727]</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>3.490424633026123</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.752813339233398</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7898546750614521</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.756928193262113</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>15.53439155601749</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15.31075270340408</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9856036297394098</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.329044871549389</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-15.47743391990662</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1460</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[-3.4404945373535156, 0.21569806337356567, -5.306490421295166]</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>6.327904224395752</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7.243343830108643</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7884745401546881</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.989391188704489</v>
+      </c>
+      <c r="P35" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>15.53439155601749</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15.31075270340408</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9856036297394098</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.329044871549389</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-15.47743391990662</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[-0.6615299582481384, -1.7061065435409546, -1.5364353656768799]</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2.389362812042236</v>
+      </c>
+      <c r="M36" t="n">
+        <v>11.78767013549805</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.6178482981706551</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.4762638000005</v>
+      </c>
+      <c r="P36" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>423</v>
+      </c>
+      <c r="R36" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1403</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[-0.3197493553161621, 0.288761705160141, -2.3088576793670654]</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2.348711729049683</v>
+      </c>
+      <c r="M37" t="n">
+        <v>11.88924217224121</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9125800371947513</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.143387431225561</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[-2.9148778915405273, -2.9359593391418457, -3.625190496444702]</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>5.50076150894165</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.768866062164307</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.662242245518847</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.642836612869096</v>
+      </c>
+      <c r="P38" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>455</v>
+      </c>
+      <c r="R38" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[-1.0187950134277344, 6.049768924713135, -6.9975690841674805]</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>9.306106567382812</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.972897052764893</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5940372062105592</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.528173576817856</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>780</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.94879988912038</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7490873489417593</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[-0.9879137277603149, 1.9101332426071167, -1.1659907102584839]</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2.446245431900024</v>
+      </c>
+      <c r="M40" t="n">
+        <v>11.64981460571289</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2593372636546249</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.6344026050880931</v>
+      </c>
+      <c r="P40" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>748</v>
+      </c>
+      <c r="R40" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5399</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>10.94972148749287</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.907631183671697</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9048295150692662</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.424356854137818</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-10.40048944950104</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>2436</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[-0.5522236227989197, -0.3873722553253174, -3.264085531234741]</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3.333055973052979</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9.980395317077637</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9801603900444591</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.266929505737479</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5399</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>10.94972148749287</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.907631183671697</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9048295150692662</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.424356854137818</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-10.40048944950104</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[2.148010492324829, 3.888089656829834, -3.9567387104034424]</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>5.948694705963135</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.470646381378174</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5814498537782196</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3.458867802443283</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5399</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>10.94972148749287</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9.907631183671697</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9048295150692662</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.424356854137818</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-10.40048944950104</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[-0.98553866147995, -3.2337822914123535, -1.1632522344589233]</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>3.575162887573242</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9.636539459228516</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.4362069520366343</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.559510933663953</v>
+      </c>
+      <c r="P43" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>130</v>
+      </c>
+      <c r="R43" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5399</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>10.94972148749287</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.907631183671697</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9048295150692662</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.424356854137818</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-10.40048944950104</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[-3.1758079528808594, 2.0011308193206787, -2.0164129734039307]</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4.261009693145752</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.826992988586426</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.3807367118006973</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.622322747314591</v>
+      </c>
+      <c r="P44" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>748</v>
+      </c>
+      <c r="R44" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[0.2080385684967041, -0.2713145911693573, -4.193719387054443]</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4.207633018493652</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8.882804870605469</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.9959551528948135</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.190613588897197</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[0.016993116587400436, -0.13155724108219147, -1.6357070207595825]</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.641076922416687</v>
+      </c>
+      <c r="M46" t="n">
+        <v>14.22343730926514</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9924739774005474</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.628726160418765</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>2443</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[2.2294209003448486, 1.050384759902954, -2.2944509983062744]</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>3.367214202880859</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.929643630981445</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.7394171236063281</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.489775795474349</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[-2.146965980529785, 2.0441834926605225, -3.3131890296936035]</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>4.445826053619385</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8.641572952270508</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.7117443378488206</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.164291626438311</v>
+      </c>
+      <c r="P48" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>748</v>
+      </c>
+      <c r="R48" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13.05513052554926</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9917189084903139</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[-0.8504688143730164, -1.9593597650527954, -1.6954710483551025]</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.727088212966919</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11.03365612030029</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5800045390704807</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.581723525763827</v>
+      </c>
+      <c r="P49" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>423</v>
+      </c>
+      <c r="R49" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[-0.1614212542772293, -0.08120483160018921, -1.773813009262085]</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.782992839813232</v>
+      </c>
+      <c r="M50" t="n">
+        <v>13.64564990997314</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.8615170809308654</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.536078827991297</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[1.4149909019470215, 1.8132896423339844, -2.7240469455718994]</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.565199851989746</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9.649994850158691</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.7856163304683783</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2.800879264400677</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[-0.5008364319801331, -1.207638144493103, -1.198835849761963]</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.773819088935852</v>
+      </c>
+      <c r="M52" t="n">
+        <v>13.6808910369873</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.5783594576891403</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.025905087729987</v>
+      </c>
+      <c r="P52" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>423</v>
+      </c>
+      <c r="R52" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.197000074719476</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8088109270480839</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[-1.5940940380096436, 0.8364765644073486, -1.796245813369751]</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.543094158172607</v>
+      </c>
+      <c r="M53" t="n">
+        <v>11.42583179473877</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.3280007218306903</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.8341367175995344</v>
+      </c>
+      <c r="P53" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>748</v>
+      </c>
+      <c r="R53" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[-2.1075210571289062, -1.6291656494140625, -2.518554925918579]</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3.665916681289673</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.516510963439941</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7280037094661771</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.668800894930122</v>
+      </c>
+      <c r="P54" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>423</v>
+      </c>
+      <c r="R54" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[0.08797405660152435, 0.13495370745658875, -1.4901376962661743]</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.498820185661316</v>
+      </c>
+      <c r="M55" t="n">
+        <v>14.88313007354736</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.3561971268230643</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.5338754844760718</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[0.41797372698783875, 0.5490890145301819, -3.075044631958008]</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>3.151523590087891</v>
+      </c>
+      <c r="M56" t="n">
+        <v>10.26381397247314</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.269245752356655</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8485343115474436</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[1.5758421421051025, 0.7378226518630981, -1.3699907064437866]</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.214618444442749</v>
+      </c>
+      <c r="M57" t="n">
+        <v>12.24389457702637</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.05736134929523411</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.127033507375681</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.249131952150527</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2895509360972953</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2443</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[-1.1738728284835815, 2.0699965953826904, -2.5466549396514893]</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>3.485443115234375</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.759779930114746</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.193675568066016</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.6750452029345015</v>
+      </c>
+      <c r="P58" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>748</v>
+      </c>
+      <c r="R58" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[1.1431920528411865, 1.02493155002594, -3.420396089553833]</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3.749197483062744</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.410222053527832</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.9928946105038673</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3.722558026865098</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[-0.40666353702545166, -0.174024760723114, -1.8346890211105347]</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.887258291244507</v>
+      </c>
+      <c r="M60" t="n">
+        <v>13.26335430145264</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.8407321155935801</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.586678610431468</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[-1.636364459991455, 1.1709693670272827, -1.7953139543533325]</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.696666479110718</v>
+      </c>
+      <c r="M61" t="n">
+        <v>11.09571838378906</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.6364700166104801</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.716347358702464</v>
+      </c>
+      <c r="P61" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>748</v>
+      </c>
+      <c r="R61" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[-0.640687882900238, -1.2333738803863525, -1.1129107475280762]</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.780523061752319</v>
+      </c>
+      <c r="M62" t="n">
+        <v>13.65511131286621</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.3095982110366685</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.551246759031236</v>
+      </c>
+      <c r="P62" t="n">
+        <v>455</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>423</v>
+      </c>
+      <c r="R62" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.051620625228075</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8643933170894211</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1320</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[-0.537470281124115, 0.01673593558371067, 1.5264745950698853]</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.61841869354248</v>
+      </c>
+      <c r="M63" t="n">
+        <v>14.32265758514404</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.9424075972696683</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-1.525210077137657</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9.361208832082269</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.8123674644228325</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1443</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[-0.3812868595123291, 0.13104836642742157, -2.2599120140075684]</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.295594930648804</v>
+      </c>
+      <c r="M64" t="n">
+        <v>12.02600574493408</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.9431245056930945</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.165031745706639</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9.361208832082269</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8123674644228325</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[1.0140454769134521, 2.1479642391204834, -2.2929553985595703]</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.301466703414917</v>
+      </c>
+      <c r="M65" t="n">
+        <v>10.02802848815918</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.7285433883691073</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.405261812377961</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9.361208832082269</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8123674644228325</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[0.008695846423506737, -2.490915298461914, -1.944529414176941]</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>3.160052061080933</v>
+      </c>
+      <c r="M66" t="n">
+        <v>10.24995422363281</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.6158427028171367</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.946095027256202</v>
+      </c>
+      <c r="P66" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>98</v>
+      </c>
+      <c r="R66" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9.361208832082269</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8123674644228325</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>2443</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[-1.4861036539077759, 1.5667755603790283, -1.6444870233535767]</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.714337348937988</v>
+      </c>
+      <c r="M67" t="n">
+        <v>11.05954170227051</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.5014580409626225</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.36112629439639</v>
+      </c>
+      <c r="P67" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>748</v>
+      </c>
+      <c r="R67" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9.361208832082269</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.8123674644228325</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[-3.9302902221679688, 0.5823214054107666, -2.16516375541687]</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>4.524844169616699</v>
+      </c>
+      <c r="M68" t="n">
+        <v>8.565786361694336</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.327899531567316</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.483694239359939</v>
+      </c>
+      <c r="P68" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>455</v>
+      </c>
+      <c r="R68" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>2434</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[-0.2705686688423157, -1.578347086906433, -1.934159755706787]</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.511047840118408</v>
+      </c>
+      <c r="M69" t="n">
+        <v>11.49850940704346</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.8833188285271076</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2.218055772580776</v>
+      </c>
+      <c r="P69" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>98</v>
+      </c>
+      <c r="R69" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>2443</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[-0.07851993292570114, 0.13867592811584473, -1.5529817342758179]</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.561136960983276</v>
+      </c>
+      <c r="M70" t="n">
+        <v>14.58305549621582</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.702195832082078</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.096223878320914</v>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[0.9512708783149719, 0.9681544303894043, -2.003573179244995]</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.420029878616333</v>
+      </c>
+      <c r="M71" t="n">
+        <v>11.71274471282959</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.5720386383493259</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.384350614990204</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[-1.059220314025879, 0.999154806137085, -1.5712475776672363]</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.142213106155396</v>
+      </c>
+      <c r="M72" t="n">
+        <v>12.44909286499023</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.1418053295081253</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.3037772340185541</v>
+      </c>
+      <c r="P72" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>748</v>
+      </c>
+      <c r="R72" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.87114326648844</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.6931398514922855</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1306</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[0.44565045833587646, 0.22126013040542603, 1.527474284172058]</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.606467604637146</v>
+      </c>
+      <c r="M73" t="n">
+        <v>14.37583446502686</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.7041937092394214</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-1.131264359448302</v>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[-0.059498030692338943, -0.12091635167598724, -1.616925835609436]</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.62253201007843</v>
+      </c>
+      <c r="M74" t="n">
+        <v>14.30449104309082</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.9248798548251941</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.500647116887409</v>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1443</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[-0.04559451341629028, -0.2811105251312256, -4.0620198249816895]</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>4.071990489959717</v>
+      </c>
+      <c r="M75" t="n">
+        <v>9.029541015625</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.9213048386844982</v>
+      </c>
+      <c r="O75" t="n">
+        <v>3.751544597499391</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[-1.0176137685775757, 2.565093994140625, -1.9819310903549194]</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>3.397542715072632</v>
+      </c>
+      <c r="M76" t="n">
+        <v>9.885225296020508</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.8096458300429167</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2.750806211455885</v>
+      </c>
+      <c r="P76" t="n">
+        <v>748</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>748</v>
+      </c>
+      <c r="R76" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[2.384357213973999, 0.7816745042800903, -2.3590643405914307]</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.444032430648804</v>
+      </c>
+      <c r="M77" t="n">
+        <v>9.818280220031738</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.5399165510412918</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.859490075115747</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10.88950731166016</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9413579276117917</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[-0.5657582879066467, -1.950833797454834, -1.4841245412826538]</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.515643119812012</v>
+      </c>
+      <c r="M78" t="n">
+        <v>11.48800277709961</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.4082531766189131</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.027019318710666</v>
+      </c>
+      <c r="P78" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>423</v>
+      </c>
+      <c r="R78" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6426</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>6.272394665041823</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.890896342806211</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.4608919714376639</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.926671511556731</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-5.547749876976013</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[-0.2796490788459778, -0.07367515563964844, -1.620900273323059]</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.646496057510376</v>
+      </c>
+      <c r="M79" t="n">
+        <v>14.20001125335693</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.6947741456796553</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.143942905334379</v>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6426</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>6.272394665041823</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.890896342806211</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.4608919714376639</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.926671511556731</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-5.547749876976013</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>[-0.4390662908554077, -1.5106929540634155, -2.556880474090576]</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.002100944519043</v>
+      </c>
+      <c r="M80" t="n">
+        <v>10.51614093780518</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.4523980305493734</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.358144561360426</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>130</v>
+      </c>
+      <c r="R80" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6426</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[-1.5980022549629211, -2.4518961906433105, -5.547749876976013]</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6.272394665041823</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.890896342806211</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.4608919714376639</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.926671511556731</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-5.547749876976013</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[1.1834907531738281, 0.7636146545410156, -1.9186553955078125]</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>[-0.8792868852615356, -0.8675280809402466, -1.369969129562378]</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.84460461139679</v>
+      </c>
+      <c r="M81" t="n">
+        <v>13.41582584381104</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.2107816331930125</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.3888087520959758</v>
+      </c>
+      <c r="P81" t="n">
+        <v>455</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>423</v>
+      </c>
+      <c r="R81" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>8.975588233176818</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.568802080930866</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.6204386761356414</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.467769515868813</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-8.854763507843018</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1341</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[-2.268233299255371, 0.35912325978279114, -2.317638874053955]</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.26271390914917</v>
+      </c>
+      <c r="M82" t="n">
+        <v>10.08740711212158</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.7454743138650441</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2.432269379989446</v>
+      </c>
+      <c r="P82" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>748</v>
+      </c>
+      <c r="R82" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>8.975588233176818</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.568802080930866</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.6204386761356414</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.467769515868813</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-8.854763507843018</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[-0.19868579506874084, -0.18994195759296417, -1.8839623928070068]</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.903908610343933</v>
+      </c>
+      <c r="M83" t="n">
+        <v>13.20523071289062</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.6733983108701571</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.282088894140918</v>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>8.975588233176818</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5.568802080930866</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6204386761356414</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.467769515868813</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-8.854763507843018</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[1.6464307308197021, 0.5983303785324097, -2.400447130203247]</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.9716796875</v>
+      </c>
+      <c r="M84" t="n">
+        <v>10.56983089447021</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.5861742337508992</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.741922029556168</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>8.975588233176818</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.568802080930866</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6204386761356414</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.467769515868813</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-8.854763507843018</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[0.4079889953136444, -2.1761250495910645, -2.2527151107788086]</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.158591508865356</v>
+      </c>
+      <c r="M85" t="n">
+        <v>10.25232315063477</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.03562404632689124</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.1125218119437741</v>
+      </c>
+      <c r="P85" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>98</v>
+      </c>
+      <c r="R85" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6561</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>11.75285490435146</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.09789668287035</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.8591867052771691</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3.343650121005855</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-11.2671914100647</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1465</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[-0.2258387804031372, 0.05245503783226013, -2.232218027114868]</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.244226455688477</v>
+      </c>
+      <c r="M86" t="n">
+        <v>12.16285991668701</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.9439029619984107</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2.118331919405112</v>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6561</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>11.75285490435146</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10.09789668287035</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8591867052771691</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3.343650121005855</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-11.2671914100647</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[-2.0129354000091553, -1.6208391189575195, -2.2622406482696533]</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>3.434641361236572</v>
+      </c>
+      <c r="M87" t="n">
+        <v>9.831693649291992</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.7920236106872338</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2.720317034415509</v>
+      </c>
+      <c r="P87" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>455</v>
+      </c>
+      <c r="R87" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6561</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>11.75285490435146</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10.09789668287035</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.8591867052771691</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3.343650121005855</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-11.2671914100647</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1341</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[-2.0574705600738525, 2.4868741035461426, -4.053411483764648]</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>5.181493282318115</v>
+      </c>
+      <c r="M88" t="n">
+        <v>8.004635810852051</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.6144743457533566</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3.183894690792016</v>
+      </c>
+      <c r="P88" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>780</v>
+      </c>
+      <c r="R88" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6561</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>11.75285490435146</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10.09789668287035</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8591867052771691</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.343650121005855</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-11.2671914100647</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[1.9448966979980469, 1.4587265253067017, -2.7193212509155273]</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.647631168365479</v>
+      </c>
+      <c r="M89" t="n">
+        <v>9.54033374786377</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.5689591620950232</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2.075353264181299</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1105</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>[-0.1917954683303833, -0.1543402522802353, -2.0611162185668945]</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.075766563415527</v>
+      </c>
+      <c r="M90" t="n">
+        <v>12.6467752456665</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9974005113928808</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2.070370549187257</v>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1380</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[2.4541378021240234, 0.7991290092468262, -2.9831364154815674]</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.944680452346802</v>
+      </c>
+      <c r="M91" t="n">
+        <v>9.174093246459961</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.6737391249781851</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.657685430531701</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1073</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1105</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1476</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[-0.9842002391815186, 4.096344470977783, -3.72086238861084]</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>5.620810031890869</v>
+      </c>
+      <c r="M92" t="n">
+        <v>7.685455322265625</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.6723321513669531</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3.779051279401563</v>
+      </c>
+      <c r="P92" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>780</v>
+      </c>
+      <c r="R92" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10.80661422420243</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.962425638348259</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[-0.14370736479759216, -3.0303430557250977, -2.2741732597351074]</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.791502952575684</v>
+      </c>
+      <c r="M93" t="n">
+        <v>9.357575416564941</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.6064895139892793</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2.299506800430802</v>
+      </c>
+      <c r="P93" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>98</v>
+      </c>
+      <c r="R93" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E94" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[-0.15616579353809357, 0.06276772916316986, -1.9855877161026]</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.992708206176758</v>
+      </c>
+      <c r="M94" t="n">
+        <v>12.90764999389648</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.9210984994672317</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.835480567768402</v>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E95" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>[2.187598705291748, -1.0299091339111328, -3.23899507522583]</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>4.041954040527344</v>
+      </c>
+      <c r="M95" t="n">
+        <v>9.063029289245605</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.7537609364506486</v>
+      </c>
+      <c r="O95" t="n">
+        <v>3.046666834338566</v>
+      </c>
+      <c r="P95" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>130</v>
+      </c>
+      <c r="R95" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E96" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[0.8913397192955017, -4.380086421966553, -2.4580156803131104]</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>5.101125717163086</v>
+      </c>
+      <c r="M96" t="n">
+        <v>8.067445755004883</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.7243454431812516</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3.694977243683372</v>
+      </c>
+      <c r="P96" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>98</v>
+      </c>
+      <c r="R96" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E97" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[-4.05047082901001, -1.0605835914611816, -2.6539769172668457]</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>4.957292079925537</v>
+      </c>
+      <c r="M97" t="n">
+        <v>8.183645248413086</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.6870513046227579</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3.405914004964458</v>
+      </c>
+      <c r="P97" t="n">
+        <v>455</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>455</v>
+      </c>
+      <c r="R97" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E98" t="n">
+        <v>14.16379402614507</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9660394274310968</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1374</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>[-0.5644397139549255, 4.903802871704102, -4.149296760559082]</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>6.448452472686768</v>
+      </c>
+      <c r="M98" t="n">
+        <v>7.175320148468018</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.3381827836470593</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.180755584088995</v>
+      </c>
+      <c r="P98" t="n">
+        <v>780</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>780</v>
+      </c>
+      <c r="R98" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E99" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1341</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>[1.0839828252792358, -3.6219260692596436, -5.257373809814453]</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>6.475595951080322</v>
+      </c>
+      <c r="M99" t="n">
+        <v>7.160265922546387</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9712740120240915</v>
+      </c>
+      <c r="O99" t="n">
+        <v>6.289578334971061</v>
+      </c>
+      <c r="P99" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>130</v>
+      </c>
+      <c r="R99" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[-0.6143161058425903, 0.11554005742073059, -2.7238833904266357]</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.794686794281006</v>
+      </c>
+      <c r="M100" t="n">
+        <v>10.8993968963623</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.7807014051662815</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.181815939319726</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[-1.1526480913162231, -1.327029824256897, -1.222315788269043]</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.14094877243042</v>
+      </c>
+      <c r="M101" t="n">
+        <v>12.45276832580566</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.5741840088095561</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.229298551084618</v>
+      </c>
+      <c r="P101" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>423</v>
+      </c>
+      <c r="R101" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.82064111137415</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.949370114202696</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[1.3304719924926758, 2.534085750579834, -3.0161702632904053]</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>4.158008098602295</v>
+      </c>
+      <c r="M102" t="n">
+        <v>8.935654640197754</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5098471706622976</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2.119948543468411</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>1374</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B103" t="n">
         <v>6748</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D103" t="n">
         <v>13.8040533476533</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E103" t="n">
         <v>3.22855057619759</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F103" t="n">
         <v>0.2338842436266335</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G103" t="n">
         <v>10.95703025838193</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H103" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="J103" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[0.3653297424316406, -0.2851882576942444, -2.4480199813842773]</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.49150538444519</v>
+      </c>
+      <c r="M103" t="n">
+        <v>11.54351615905762</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.7221021228583707</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.799121459318981</v>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>[-0.17082582414150238, -6.117379188537598, -3.2495322227478027]</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>6.928995132446289</v>
+      </c>
+      <c r="M104" t="n">
+        <v>6.922037124633789</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.2548949485799148</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.766165779267369</v>
+      </c>
+      <c r="P104" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>455</v>
+      </c>
+      <c r="R104" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G105" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1327</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>[1.786834716796875, -1.1380722522735596, -1.6180031299591064]</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.665693283081055</v>
+      </c>
+      <c r="M105" t="n">
+        <v>11.15999317169189</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.08069142315735013</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.2150985878251888</v>
+      </c>
+      <c r="P105" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>98</v>
+      </c>
+      <c r="R105" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6748</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>13.8040533476533</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.22855057619759</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.2338842436266335</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10.95703025838193</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-8.396152496337891</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
         <v>1330</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>[1.8898179531097412, -2.7097582817077637, -1.080597162246704]</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="L106" t="n">
         <v>3.47590160369873</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M106" t="n">
         <v>9.773166656494141</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N106" t="n">
         <v>-0.1587602556151502</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O106" t="n">
         <v>-0.5518350296001984</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P106" t="n">
         <v>130</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q106" t="n">
         <v>98</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R106" t="n">
         <v>98</v>
       </c>
     </row>
